--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36458" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37298" uniqueCount="497">
   <si>
     <t>jira</t>
   </si>
@@ -1556,7 +1556,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1128" x14ac:knownFonts="1">
+  <fonts count="1152" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8703,8 +8703,160 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1957">
+  <fills count="1999">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19790,8 +19942,246 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1869">
+  <borders count="1909">
     <border>
       <left/>
       <right/>
@@ -19890,6 +20280,394 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -37947,7 +38725,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1148">
+  <cellXfs count="1172">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -41379,40 +42157,112 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="1115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1116" fillId="1938" borderId="1856" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1117" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1856" fillId="1938" fontId="1116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1117" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1118" fillId="1941" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1941" fontId="1118" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1119" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1120" fillId="1944" borderId="1860" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1121" fillId="1947" borderId="1864" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1122" fillId="1950" borderId="1868" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1123" fillId="1950" borderId="1868" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1124" fillId="1953" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1125" fillId="1956" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1126" fillId="1953" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1127" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1860" fillId="1944" fontId="1120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1864" fillId="1947" fontId="1121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1868" fillId="1950" fontId="1122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1868" fillId="1950" fontId="1123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1953" fontId="1124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1956" fontId="1125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1953" fontId="1126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1876" fillId="1959" fontId="1128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1129" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1962" fontId="1130" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1880" fillId="1965" fontId="1132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1884" fillId="1968" fontId="1133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1888" fillId="1971" fontId="1134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1888" fillId="1971" fontId="1135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1974" fontId="1136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1977" fontId="1137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1974" fontId="1138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1140" fillId="1980" borderId="1896" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1141" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1142" fillId="1983" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1143" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1144" fillId="1986" borderId="1900" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1145" fillId="1989" borderId="1904" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1146" fillId="1992" borderId="1908" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1147" fillId="1992" borderId="1908" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1148" fillId="1995" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1149" fillId="1998" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1150" fillId="1995" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1151" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -16,7 +16,7 @@
     <sheet name="number_showcase" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="base">'#system'!$C$2:$C$31</definedName>
+    <definedName name="base">'#system'!$C$2:$C$32</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37298" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37719" uniqueCount="499">
   <si>
     <t>jira</t>
   </si>
@@ -1549,6 +1549,12 @@
   </si>
   <si>
     <t>assertBetween(num,min,max)</t>
+  </si>
+  <si>
+    <t>clear(vars)</t>
+  </si>
+  <si>
+    <t>send(profile,to,subject,body)</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1562,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1152" x14ac:knownFonts="1">
+  <fonts count="1164" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8855,8 +8861,84 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1999">
+  <fills count="2020">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -20180,8 +20262,127 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1909">
+  <borders count="1929">
     <border>
       <left/>
       <right/>
@@ -20280,6 +20481,200 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -38725,7 +39120,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1172">
+  <cellXfs count="1184">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -42229,40 +42624,76 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="1139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1140" fillId="1980" borderId="1896" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1141" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1896" fillId="1980" fontId="1140" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1141" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1142" fillId="1983" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1983" fontId="1142" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1143" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1144" fillId="1986" borderId="1900" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1145" fillId="1989" borderId="1904" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1146" fillId="1992" borderId="1908" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1147" fillId="1992" borderId="1908" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1148" fillId="1995" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1149" fillId="1998" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1150" fillId="1995" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1151" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1143" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1900" fillId="1986" fontId="1144" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1904" fillId="1989" fontId="1145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1908" fillId="1992" fontId="1146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1908" fillId="1992" fontId="1147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1995" fontId="1148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1998" fontId="1149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1995" fontId="1150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1152" fillId="2001" borderId="1916" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1153" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1154" fillId="2004" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1155" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1156" fillId="2007" borderId="1920" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1157" fillId="2010" borderId="1924" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1158" fillId="2013" borderId="1928" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1159" fillId="2013" borderId="1928" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1160" fillId="2016" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1161" fillId="2019" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1162" fillId="2016" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1163" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -42708,7 +43139,7 @@
         <v>235</v>
       </c>
       <c r="L2" t="s">
-        <v>246</v>
+        <v>498</v>
       </c>
       <c r="M2" t="s">
         <v>496</v>
@@ -43294,7 +43725,7 @@
         <v>484</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>497</v>
       </c>
       <c r="E16" t="s">
         <v>384</v>
@@ -43317,7 +43748,7 @@
         <v>438</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
         <v>226</v>
@@ -43334,7 +43765,7 @@
         <v>480</v>
       </c>
       <c r="C18" t="s">
-        <v>316</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
         <v>228</v>
@@ -43351,7 +43782,7 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>316</v>
       </c>
       <c r="E19" t="s">
         <v>356</v>
@@ -43368,7 +43799,7 @@
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>388</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
         <v>357</v>
@@ -43385,7 +43816,7 @@
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>388</v>
       </c>
       <c r="E21" t="s">
         <v>358</v>
@@ -43402,7 +43833,7 @@
         <v>140</v>
       </c>
       <c r="C22" t="s">
-        <v>284</v>
+        <v>138</v>
       </c>
       <c r="E22" t="s">
         <v>359</v>
@@ -43416,7 +43847,7 @@
         <v>286</v>
       </c>
       <c r="C23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E23" t="s">
         <v>351</v>
@@ -43427,7 +43858,7 @@
     </row>
     <row r="24">
       <c r="C24" t="s">
-        <v>176</v>
+        <v>285</v>
       </c>
       <c r="E24" t="s">
         <v>339</v>
@@ -43438,7 +43869,7 @@
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="E25" t="s">
         <v>171</v>
@@ -43449,7 +43880,7 @@
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
         <v>342</v>
@@ -43460,7 +43891,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s">
         <v>326</v>
@@ -43471,7 +43902,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E28" t="s">
         <v>343</v>
@@ -43482,7 +43913,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E29" t="s">
         <v>344</v>
@@ -43493,7 +43924,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="E30" t="s">
         <v>274</v>
@@ -43504,7 +43935,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="E31" t="s">
         <v>335</v>
@@ -43514,6 +43945,9 @@
       </c>
     </row>
     <row r="32">
+      <c r="C32" t="s">
+        <v>166</v>
+      </c>
       <c r="E32" t="s">
         <v>345</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -31,19 +31,20 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
-    <definedName name="target">'#system'!$A$2:$A$23</definedName>
-    <definedName name="web">'#system'!$S$2:$S$108</definedName>
-    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
-    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
-    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
-    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
+    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
+    <definedName name="target">'#system'!$A$2:$A$24</definedName>
+    <definedName name="web">'#system'!$T$2:$T$108</definedName>
+    <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
+    <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
+    <definedName name="ws">'#system'!$W$2:$W$16</definedName>
+    <definedName name="xml">'#system'!$X$2:$X$11</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
+    <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="step">'#system'!$R$2:$R$4</definedName>
+    <definedName name="step">'#system'!$S$2:$S$4</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
+    <definedName name="sound">'#system'!$Q$2:$Q$6</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37719" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39004" uniqueCount="507">
   <si>
     <t>jira</t>
   </si>
@@ -1555,6 +1556,30 @@
   </si>
   <si>
     <t>send(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>saveResults(db,sqls,outputDir)</t>
+  </si>
+  <si>
+    <t>lazer(repeats)</t>
+  </si>
+  <si>
+    <t>play(audio)</t>
+  </si>
+  <si>
+    <t>speak(profile,text)</t>
+  </si>
+  <si>
+    <t>warp(repeats)</t>
+  </si>
+  <si>
+    <t>speak(text)</t>
+  </si>
+  <si>
+    <t>speakNoWait(text)</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1587,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1164" x14ac:knownFonts="1">
+  <fonts count="1200" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8937,8 +8962,236 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="2020">
+  <fills count="2083">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -20381,8 +20634,365 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1929">
+  <borders count="1989">
     <border>
       <left/>
       <right/>
@@ -20481,6 +21091,588 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -39120,7 +40312,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1184">
+  <cellXfs count="1220">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -42660,40 +43852,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="1151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1152" fillId="2001" borderId="1916" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1153" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1916" fillId="2001" fontId="1152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1153" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1154" fillId="2004" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2004" fontId="1154" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1155" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1156" fillId="2007" borderId="1920" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1157" fillId="2010" borderId="1924" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1158" fillId="2013" borderId="1928" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1159" fillId="2013" borderId="1928" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1160" fillId="2016" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1161" fillId="2019" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1162" fillId="2016" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1163" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1920" fillId="2007" fontId="1156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1924" fillId="2010" fontId="1157" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1928" fillId="2013" fontId="1158" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1928" fillId="2013" fontId="1159" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2016" fontId="1160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2019" fontId="1161" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2016" fontId="1162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1936" fillId="2022" fontId="1164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1165" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2025" fontId="1166" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1940" fillId="2028" fontId="1168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1944" fillId="2031" fontId="1169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1948" fillId="2034" fontId="1170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1948" fillId="2034" fontId="1171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2037" fontId="1172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2040" fontId="1173" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2037" fontId="1174" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1956" fillId="2043" fontId="1176" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1177" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2046" fontId="1178" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1960" fillId="2049" fontId="1180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1964" fillId="2052" fontId="1181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1968" fillId="2055" fontId="1182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1968" fillId="2055" fontId="1183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2058" fontId="1184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2061" fontId="1185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2058" fontId="1186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1188" fillId="2064" borderId="1976" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1189" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1190" fillId="2067" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1191" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1192" fillId="2070" borderId="1980" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1193" fillId="2073" borderId="1984" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1194" fillId="2076" borderId="1988" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1195" fillId="2076" borderId="1988" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1196" fillId="2079" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1197" fillId="2082" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1198" fillId="2079" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1199" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -43022,7 +44322,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X108"/>
+  <dimension ref="A1:Y108"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -43083,24 +44383,27 @@
         <v>484</v>
       </c>
       <c r="Q1" t="s">
+        <v>499</v>
+      </c>
+      <c r="R1" t="s">
         <v>438</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>480</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>140</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>286</v>
       </c>
     </row>
@@ -43154,24 +44457,27 @@
         <v>485</v>
       </c>
       <c r="Q2" t="s">
+        <v>501</v>
+      </c>
+      <c r="R2" t="s">
         <v>464</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>481</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>44</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>126</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>131</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>141</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>287</v>
       </c>
     </row>
@@ -43222,24 +44528,27 @@
         <v>486</v>
       </c>
       <c r="Q3" t="s">
+        <v>502</v>
+      </c>
+      <c r="R3" t="s">
         <v>465</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>482</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>45</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>127</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>132</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>446</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>288</v>
       </c>
     </row>
@@ -43287,24 +44596,27 @@
         <v>487</v>
       </c>
       <c r="Q4" t="s">
+        <v>505</v>
+      </c>
+      <c r="R4" t="s">
         <v>440</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>483</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>433</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>128</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>133</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>143</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>289</v>
       </c>
     </row>
@@ -43346,21 +44658,24 @@
         <v>488</v>
       </c>
       <c r="Q5" t="s">
+        <v>506</v>
+      </c>
+      <c r="R5" t="s">
         <v>441</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>434</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>129</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>134</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>144</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>290</v>
       </c>
     </row>
@@ -43399,21 +44714,24 @@
         <v>489</v>
       </c>
       <c r="Q6" t="s">
+        <v>504</v>
+      </c>
+      <c r="R6" t="s">
         <v>443</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>46</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>130</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>135</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>145</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>291</v>
       </c>
     </row>
@@ -43445,22 +44763,25 @@
       <c r="N7" t="s">
         <v>303</v>
       </c>
+      <c r="O7" t="s">
+        <v>500</v>
+      </c>
       <c r="P7" t="s">
         <v>490</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>442</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>47</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>139</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>146</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>292</v>
       </c>
     </row>
@@ -43495,19 +44816,19 @@
       <c r="P8" t="s">
         <v>491</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>444</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>48</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>136</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>147</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>293</v>
       </c>
     </row>
@@ -43539,16 +44860,16 @@
       <c r="P9" t="s">
         <v>492</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>445</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>260</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>231</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>294</v>
       </c>
     </row>
@@ -43577,13 +44898,13 @@
       <c r="P10" t="s">
         <v>493</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>317</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>232</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>295</v>
       </c>
     </row>
@@ -43609,13 +44930,13 @@
       <c r="N11" t="s">
         <v>307</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>318</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>319</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>296</v>
       </c>
     </row>
@@ -43638,10 +44959,10 @@
       <c r="N12" t="s">
         <v>308</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>49</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>148</v>
       </c>
     </row>
@@ -43664,10 +44985,10 @@
       <c r="N13" t="s">
         <v>313</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>397</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>149</v>
       </c>
     </row>
@@ -43690,10 +45011,10 @@
       <c r="N14" t="s">
         <v>309</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>51</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>150</v>
       </c>
     </row>
@@ -43713,10 +45034,10 @@
       <c r="N15" t="s">
         <v>310</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>52</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -43736,16 +45057,16 @@
       <c r="N16" t="s">
         <v>311</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>53</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>438</v>
+        <v>499</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
@@ -43756,13 +45077,13 @@
       <c r="I17" t="s">
         <v>162</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>480</v>
+        <v>438</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
@@ -43773,13 +45094,13 @@
       <c r="I18" t="s">
         <v>475</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>480</v>
       </c>
       <c r="C19" t="s">
         <v>316</v>
@@ -43790,13 +45111,13 @@
       <c r="I19" t="s">
         <v>163</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
@@ -43807,13 +45128,13 @@
       <c r="I20" t="s">
         <v>164</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>388</v>
@@ -43824,13 +45145,13 @@
       <c r="I21" t="s">
         <v>165</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
         <v>138</v>
@@ -43838,13 +45159,13 @@
       <c r="E22" t="s">
         <v>359</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>286</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
         <v>284</v>
@@ -43852,18 +45173,21 @@
       <c r="E23" t="s">
         <v>351</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="s">
+        <v>286</v>
+      </c>
       <c r="C24" t="s">
         <v>285</v>
       </c>
       <c r="E24" t="s">
         <v>339</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>61</v>
       </c>
     </row>
@@ -43874,7 +45198,7 @@
       <c r="E25" t="s">
         <v>171</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>62</v>
       </c>
     </row>
@@ -43885,7 +45209,7 @@
       <c r="E26" t="s">
         <v>342</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>63</v>
       </c>
     </row>
@@ -43896,7 +45220,7 @@
       <c r="E27" t="s">
         <v>326</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>398</v>
       </c>
     </row>
@@ -43907,7 +45231,7 @@
       <c r="E28" t="s">
         <v>343</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>65</v>
       </c>
     </row>
@@ -43918,7 +45242,7 @@
       <c r="E29" t="s">
         <v>344</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>66</v>
       </c>
     </row>
@@ -43929,7 +45253,7 @@
       <c r="E30" t="s">
         <v>274</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>67</v>
       </c>
     </row>
@@ -43940,7 +45264,7 @@
       <c r="E31" t="s">
         <v>335</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>68</v>
       </c>
     </row>
@@ -43951,7 +45275,7 @@
       <c r="E32" t="s">
         <v>345</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>69</v>
       </c>
     </row>
@@ -43959,7 +45283,7 @@
       <c r="E33" t="s">
         <v>320</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>70</v>
       </c>
     </row>
@@ -43967,7 +45291,7 @@
       <c r="E34" t="s">
         <v>401</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>261</v>
       </c>
     </row>
@@ -43975,7 +45299,7 @@
       <c r="E35" t="s">
         <v>371</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>71</v>
       </c>
     </row>
@@ -43983,7 +45307,7 @@
       <c r="E36" t="s">
         <v>321</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>410</v>
       </c>
     </row>
@@ -43991,7 +45315,7 @@
       <c r="E37" t="s">
         <v>372</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>476</v>
       </c>
     </row>
@@ -43999,7 +45323,7 @@
       <c r="E38" t="s">
         <v>327</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>72</v>
       </c>
     </row>
@@ -44007,7 +45331,7 @@
       <c r="E39" t="s">
         <v>174</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>73</v>
       </c>
     </row>
@@ -44015,7 +45339,7 @@
       <c r="E40" t="s">
         <v>270</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -44023,7 +45347,7 @@
       <c r="E41" t="s">
         <v>350</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>75</v>
       </c>
     </row>
@@ -44031,7 +45355,7 @@
       <c r="E42" t="s">
         <v>360</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>76</v>
       </c>
     </row>
@@ -44039,7 +45363,7 @@
       <c r="E43" t="s">
         <v>361</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>77</v>
       </c>
     </row>
@@ -44047,7 +45371,7 @@
       <c r="E44" t="s">
         <v>419</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>271</v>
       </c>
     </row>
@@ -44055,7 +45379,7 @@
       <c r="E45" t="s">
         <v>418</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>80</v>
       </c>
     </row>
@@ -44063,7 +45387,7 @@
       <c r="E46" t="s">
         <v>268</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>81</v>
       </c>
     </row>
@@ -44071,7 +45395,7 @@
       <c r="E47" t="s">
         <v>362</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>82</v>
       </c>
     </row>
@@ -44079,7 +45403,7 @@
       <c r="E48" t="s">
         <v>411</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
         <v>83</v>
       </c>
     </row>
@@ -44087,7 +45411,7 @@
       <c r="E49" t="s">
         <v>451</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>84</v>
       </c>
     </row>
@@ -44095,7 +45419,7 @@
       <c r="E50" t="s">
         <v>364</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>422</v>
       </c>
     </row>
@@ -44103,7 +45427,7 @@
       <c r="E51" t="s">
         <v>435</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>85</v>
       </c>
     </row>
@@ -44111,7 +45435,7 @@
       <c r="E52" t="s">
         <v>402</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>86</v>
       </c>
     </row>
@@ -44119,7 +45443,7 @@
       <c r="E53" t="s">
         <v>328</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>87</v>
       </c>
     </row>
@@ -44127,7 +45451,7 @@
       <c r="E54" t="s">
         <v>353</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>88</v>
       </c>
     </row>
@@ -44135,7 +45459,7 @@
       <c r="E55" t="s">
         <v>354</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>89</v>
       </c>
     </row>
@@ -44143,7 +45467,7 @@
       <c r="E56" t="s">
         <v>355</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>90</v>
       </c>
     </row>
@@ -44151,7 +45475,7 @@
       <c r="E57" t="s">
         <v>365</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>91</v>
       </c>
     </row>
@@ -44159,7 +45483,7 @@
       <c r="E58" t="s">
         <v>376</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>272</v>
       </c>
     </row>
@@ -44167,7 +45491,7 @@
       <c r="E59" t="s">
         <v>409</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>472</v>
       </c>
     </row>
@@ -44175,7 +45499,7 @@
       <c r="E60" t="s">
         <v>373</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
         <v>92</v>
       </c>
     </row>
@@ -44183,7 +45507,7 @@
       <c r="E61" t="s">
         <v>374</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>93</v>
       </c>
     </row>
@@ -44191,7 +45515,7 @@
       <c r="E62" t="s">
         <v>452</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
         <v>94</v>
       </c>
     </row>
@@ -44199,7 +45523,7 @@
       <c r="E63" t="s">
         <v>453</v>
       </c>
-      <c r="S63" t="s">
+      <c r="T63" t="s">
         <v>96</v>
       </c>
     </row>
@@ -44207,7 +45531,7 @@
       <c r="E64" t="s">
         <v>421</v>
       </c>
-      <c r="S64" t="s">
+      <c r="T64" t="s">
         <v>247</v>
       </c>
     </row>
@@ -44215,7 +45539,7 @@
       <c r="E65" t="s">
         <v>377</v>
       </c>
-      <c r="S65" t="s">
+      <c r="T65" t="s">
         <v>248</v>
       </c>
     </row>
@@ -44223,7 +45547,7 @@
       <c r="E66" t="s">
         <v>329</v>
       </c>
-      <c r="S66" t="s">
+      <c r="T66" t="s">
         <v>97</v>
       </c>
     </row>
@@ -44231,7 +45555,7 @@
       <c r="E67" t="s">
         <v>432</v>
       </c>
-      <c r="S67" t="s">
+      <c r="T67" t="s">
         <v>98</v>
       </c>
     </row>
@@ -44239,7 +45563,7 @@
       <c r="E68" t="s">
         <v>378</v>
       </c>
-      <c r="S68" t="s">
+      <c r="T68" t="s">
         <v>99</v>
       </c>
     </row>
@@ -44247,7 +45571,7 @@
       <c r="E69" t="s">
         <v>494</v>
       </c>
-      <c r="S69" t="s">
+      <c r="T69" t="s">
         <v>100</v>
       </c>
     </row>
@@ -44255,7 +45579,7 @@
       <c r="E70" t="s">
         <v>367</v>
       </c>
-      <c r="S70" t="s">
+      <c r="T70" t="s">
         <v>101</v>
       </c>
     </row>
@@ -44263,7 +45587,7 @@
       <c r="E71" t="s">
         <v>495</v>
       </c>
-      <c r="S71" t="s">
+      <c r="T71" t="s">
         <v>249</v>
       </c>
     </row>
@@ -44271,7 +45595,7 @@
       <c r="E72" t="s">
         <v>322</v>
       </c>
-      <c r="S72" t="s">
+      <c r="T72" t="s">
         <v>250</v>
       </c>
     </row>
@@ -44279,7 +45603,7 @@
       <c r="E73" t="s">
         <v>420</v>
       </c>
-      <c r="S73" t="s">
+      <c r="T73" t="s">
         <v>251</v>
       </c>
     </row>
@@ -44287,7 +45611,7 @@
       <c r="E74" t="s">
         <v>340</v>
       </c>
-      <c r="S74" t="s">
+      <c r="T74" t="s">
         <v>252</v>
       </c>
     </row>
@@ -44295,7 +45619,7 @@
       <c r="E75" t="s">
         <v>346</v>
       </c>
-      <c r="S75" t="s">
+      <c r="T75" t="s">
         <v>273</v>
       </c>
     </row>
@@ -44303,7 +45627,7 @@
       <c r="E76" t="s">
         <v>352</v>
       </c>
-      <c r="S76" t="s">
+      <c r="T76" t="s">
         <v>102</v>
       </c>
     </row>
@@ -44311,7 +45635,7 @@
       <c r="E77" t="s">
         <v>403</v>
       </c>
-      <c r="S77" t="s">
+      <c r="T77" t="s">
         <v>253</v>
       </c>
     </row>
@@ -44319,7 +45643,7 @@
       <c r="E78" t="s">
         <v>330</v>
       </c>
-      <c r="S78" t="s">
+      <c r="T78" t="s">
         <v>103</v>
       </c>
     </row>
@@ -44327,7 +45651,7 @@
       <c r="E79" t="s">
         <v>341</v>
       </c>
-      <c r="S79" t="s">
+      <c r="T79" t="s">
         <v>254</v>
       </c>
     </row>
@@ -44335,7 +45659,7 @@
       <c r="E80" t="s">
         <v>347</v>
       </c>
-      <c r="S80" t="s">
+      <c r="T80" t="s">
         <v>255</v>
       </c>
     </row>
@@ -44343,7 +45667,7 @@
       <c r="E81" t="s">
         <v>336</v>
       </c>
-      <c r="S81" t="s">
+      <c r="T81" t="s">
         <v>256</v>
       </c>
     </row>
@@ -44351,7 +45675,7 @@
       <c r="E82" t="s">
         <v>331</v>
       </c>
-      <c r="S82" t="s">
+      <c r="T82" t="s">
         <v>257</v>
       </c>
     </row>
@@ -44359,7 +45683,7 @@
       <c r="E83" t="s">
         <v>349</v>
       </c>
-      <c r="S83" t="s">
+      <c r="T83" t="s">
         <v>282</v>
       </c>
     </row>
@@ -44367,7 +45691,7 @@
       <c r="E84" t="s">
         <v>332</v>
       </c>
-      <c r="S84" t="s">
+      <c r="T84" t="s">
         <v>258</v>
       </c>
     </row>
@@ -44375,7 +45699,7 @@
       <c r="E85" t="s">
         <v>333</v>
       </c>
-      <c r="S85" t="s">
+      <c r="T85" t="s">
         <v>104</v>
       </c>
     </row>
@@ -44383,7 +45707,7 @@
       <c r="E86" t="s">
         <v>368</v>
       </c>
-      <c r="S86" t="s">
+      <c r="T86" t="s">
         <v>466</v>
       </c>
     </row>
@@ -44391,7 +45715,7 @@
       <c r="E87" t="s">
         <v>375</v>
       </c>
-      <c r="S87" t="s">
+      <c r="T87" t="s">
         <v>105</v>
       </c>
     </row>
@@ -44399,7 +45723,7 @@
       <c r="E88" t="s">
         <v>369</v>
       </c>
-      <c r="S88" t="s">
+      <c r="T88" t="s">
         <v>106</v>
       </c>
     </row>
@@ -44407,7 +45731,7 @@
       <c r="E89" t="s">
         <v>412</v>
       </c>
-      <c r="S89" t="s">
+      <c r="T89" t="s">
         <v>107</v>
       </c>
     </row>
@@ -44415,7 +45739,7 @@
       <c r="E90" t="s">
         <v>337</v>
       </c>
-      <c r="S90" t="s">
+      <c r="T90" t="s">
         <v>108</v>
       </c>
     </row>
@@ -44423,92 +45747,92 @@
       <c r="E91" t="s">
         <v>338</v>
       </c>
-      <c r="S91" t="s">
+      <c r="T91" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="92">
-      <c r="S92" t="s">
+      <c r="T92" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="93">
-      <c r="S93" t="s">
+      <c r="T93" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="94">
-      <c r="S94" t="s">
+      <c r="T94" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="95">
-      <c r="S95" t="s">
+      <c r="T95" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="96">
-      <c r="S96" t="s">
+      <c r="T96" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="97">
-      <c r="S97" t="s">
+      <c r="T97" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="98">
-      <c r="S98" t="s">
+      <c r="T98" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="99">
-      <c r="S99" t="s">
+      <c r="T99" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="100">
-      <c r="S100" t="s">
+      <c r="T100" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="101">
-      <c r="S101" t="s">
+      <c r="T101" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="102">
-      <c r="S102" t="s">
+      <c r="T102" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="103">
-      <c r="S103" t="s">
+      <c r="T103" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="104">
-      <c r="S104" t="s">
+      <c r="T104" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="105">
-      <c r="S105" t="s">
+      <c r="T105" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="106">
-      <c r="S106" t="s">
+      <c r="T106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="107">
-      <c r="S107" t="s">
+      <c r="T107" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="108">
-      <c r="S108" t="s">
+      <c r="T108" t="s">
         <v>125</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -16,7 +16,7 @@
     <sheet name="number_showcase" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="base">'#system'!$C$2:$C$32</definedName>
+    <definedName name="base">'#system'!$C$2:$C$33</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -44,7 +44,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="step">'#system'!$S$2:$S$4</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$6</definedName>
+    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39004" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39433" uniqueCount="509">
   <si>
     <t>jira</t>
   </si>
@@ -1580,6 +1580,12 @@
   </si>
   <si>
     <t>speakNoWait(text)</t>
+  </si>
+  <si>
+    <t>section(steps)</t>
+  </si>
+  <si>
+    <t>laser(repeats)</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1593,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1200" x14ac:knownFonts="1">
+  <fonts count="1215" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9190,8 +9196,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="2083">
+  <fills count="2110">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -20991,8 +21091,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1989">
+  <borders count="2017">
     <border>
       <left/>
       <right/>
@@ -40164,6 +40417,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -40312,7 +40847,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1220">
+  <cellXfs count="1235">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -43960,40 +44495,85 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="1187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1188" fillId="2064" borderId="1976" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1189" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1976" fillId="2064" fontId="1188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1189" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1190" fillId="2067" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2067" fontId="1190" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1191" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1192" fillId="2070" borderId="1980" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1193" fillId="2073" borderId="1984" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1194" fillId="2076" borderId="1988" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1195" fillId="2076" borderId="1988" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1196" fillId="2079" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1197" fillId="2082" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1198" fillId="2079" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1199" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1191" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1980" fillId="2070" fontId="1192" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1984" fillId="2073" fontId="1193" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1988" fillId="2076" fontId="1194" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1988" fillId="2076" fontId="1195" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2079" fontId="1196" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2082" fontId="1197" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2079" fontId="1198" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1200" fillId="2085" borderId="1996" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1201" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1202" fillId="2088" borderId="2000" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1203" fillId="2091" borderId="2004" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1204" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1205" fillId="2094" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1206" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1207" fillId="2097" borderId="2008" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1208" fillId="2100" borderId="2012" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1209" fillId="2103" borderId="2016" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1210" fillId="2103" borderId="2016" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1211" fillId="2106" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1212" fillId="2109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1213" fillId="2106" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1214" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -44457,7 +45037,7 @@
         <v>485</v>
       </c>
       <c r="Q2" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="R2" t="s">
         <v>464</v>
@@ -44713,9 +45293,6 @@
       <c r="P6" t="s">
         <v>489</v>
       </c>
-      <c r="Q6" t="s">
-        <v>504</v>
-      </c>
       <c r="R6" t="s">
         <v>443</v>
       </c>
@@ -45193,7 +45770,7 @@
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>176</v>
+        <v>507</v>
       </c>
       <c r="E25" t="s">
         <v>171</v>
@@ -45204,7 +45781,7 @@
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="E26" t="s">
         <v>342</v>
@@ -45215,7 +45792,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
         <v>326</v>
@@ -45226,7 +45803,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
         <v>343</v>
@@ -45237,7 +45814,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E29" t="s">
         <v>344</v>
@@ -45248,7 +45825,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E30" t="s">
         <v>274</v>
@@ -45259,7 +45836,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="E31" t="s">
         <v>335</v>
@@ -45270,7 +45847,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="E32" t="s">
         <v>345</v>
@@ -45280,6 +45857,9 @@
       </c>
     </row>
     <row r="33">
+      <c r="C33" t="s">
+        <v>166</v>
+      </c>
       <c r="E33" t="s">
         <v>320</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -32,19 +32,21 @@
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="target">'#system'!$A$2:$A$24</definedName>
-    <definedName name="web">'#system'!$T$2:$T$108</definedName>
-    <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
-    <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
-    <definedName name="ws">'#system'!$W$2:$W$16</definedName>
-    <definedName name="xml">'#system'!$X$2:$X$11</definedName>
+    <definedName name="target">'#system'!$A$2:$A$26</definedName>
+    <definedName name="web">'#system'!$U$2:$U$108</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
+    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="step">'#system'!$S$2:$S$4</definedName>
+    <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
+    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$7</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39433" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40305" uniqueCount="517">
   <si>
     <t>jira</t>
   </si>
@@ -1586,6 +1588,30 @@
   </si>
   <si>
     <t>laser(repeats)</t>
+  </si>
+  <si>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>sendText(phones,text)</t>
+  </si>
+  <si>
+    <t>ws.async</t>
+  </si>
+  <si>
+    <t>get(url,queryString,output)</t>
+  </si>
+  <si>
+    <t>head(url,output)</t>
+  </si>
+  <si>
+    <t>patch(url,body,output)</t>
+  </si>
+  <si>
+    <t>post(url,body,output)</t>
+  </si>
+  <si>
+    <t>put(url,body,output)</t>
   </si>
 </sst>
 </file>
@@ -1593,7 +1619,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1215" x14ac:knownFonts="1">
+  <fonts count="1245" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9290,8 +9316,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="2110">
+  <fills count="2164">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -21244,8 +21458,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2017">
+  <borders count="2073">
     <border>
       <left/>
       <right/>
@@ -40417,6 +40937,570 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -40847,7 +41931,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1235">
+  <cellXfs count="1265">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -44531,49 +45615,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="1199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1200" fillId="2085" borderId="1996" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1201" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1996" fillId="2085" fontId="1200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1201" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1202" fillId="2088" borderId="2000" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2000" fillId="2088" fontId="1202" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1203" fillId="2091" borderId="2004" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2004" fillId="2091" fontId="1203" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1204" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1204" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1205" fillId="2094" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2094" fontId="1205" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1206" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1207" fillId="2097" borderId="2008" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1208" fillId="2100" borderId="2012" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1209" fillId="2103" borderId="2016" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1210" fillId="2103" borderId="2016" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1211" fillId="2106" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1212" fillId="2109" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1213" fillId="2106" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1214" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1206" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2008" fillId="2097" fontId="1207" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2012" fillId="2100" fontId="1208" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2016" fillId="2103" fontId="1209" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2016" fillId="2103" fontId="1210" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2106" fontId="1211" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2109" fontId="1212" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2106" fontId="1213" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2024" fillId="2112" fontId="1215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1216" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2028" fillId="2115" fontId="1217" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2032" fillId="2118" fontId="1218" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1219" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2121" fontId="1220" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1221" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2036" fillId="2124" fontId="1222" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2040" fillId="2127" fontId="1223" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2044" fillId="2130" fontId="1224" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2044" fillId="2130" fontId="1225" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2133" fontId="1226" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2136" fontId="1227" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2133" fontId="1228" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1229" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1230" fillId="2139" borderId="2052" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1231" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1232" fillId="2142" borderId="2056" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1233" fillId="2145" borderId="2060" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1234" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1235" fillId="2148" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1236" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1237" fillId="2151" borderId="2064" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1238" fillId="2154" borderId="2068" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1239" fillId="2157" borderId="2072" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1240" fillId="2157" borderId="2072" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1241" fillId="2160" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1242" fillId="2163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1243" fillId="2160" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1244" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -44902,7 +46076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y108"/>
+  <dimension ref="A1:AA108"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -44963,27 +46137,33 @@
         <v>484</v>
       </c>
       <c r="Q1" t="s">
+        <v>509</v>
+      </c>
+      <c r="R1" t="s">
         <v>499</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>438</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>480</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>34</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>35</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>140</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
+        <v>511</v>
+      </c>
+      <c r="Z1" t="s">
         <v>286</v>
       </c>
     </row>
@@ -45037,27 +46217,33 @@
         <v>485</v>
       </c>
       <c r="Q2" t="s">
+        <v>510</v>
+      </c>
+      <c r="R2" t="s">
         <v>508</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>464</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>481</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>44</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>126</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>131</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>141</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z2" t="s">
         <v>287</v>
       </c>
     </row>
@@ -45107,28 +46293,31 @@
       <c r="P3" t="s">
         <v>486</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>502</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>465</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>482</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>45</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>127</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>132</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>446</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
+        <v>512</v>
+      </c>
+      <c r="Z3" t="s">
         <v>288</v>
       </c>
     </row>
@@ -45175,28 +46364,31 @@
       <c r="P4" t="s">
         <v>487</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>505</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>440</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>483</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>433</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>128</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>133</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>143</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z4" t="s">
         <v>289</v>
       </c>
     </row>
@@ -45237,25 +46429,28 @@
       <c r="P5" t="s">
         <v>488</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>506</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>441</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>434</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>129</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>134</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>144</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
+        <v>514</v>
+      </c>
+      <c r="Z5" t="s">
         <v>290</v>
       </c>
     </row>
@@ -45293,22 +46488,25 @@
       <c r="P6" t="s">
         <v>489</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>443</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>46</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>130</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>135</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>145</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
+        <v>515</v>
+      </c>
+      <c r="Z6" t="s">
         <v>291</v>
       </c>
     </row>
@@ -45346,19 +46544,22 @@
       <c r="P7" t="s">
         <v>490</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>442</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>47</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>139</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>146</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
+        <v>516</v>
+      </c>
+      <c r="Z7" t="s">
         <v>292</v>
       </c>
     </row>
@@ -45393,19 +46594,19 @@
       <c r="P8" t="s">
         <v>491</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>444</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>48</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>136</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>147</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Z8" t="s">
         <v>293</v>
       </c>
     </row>
@@ -45437,16 +46638,16 @@
       <c r="P9" t="s">
         <v>492</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>445</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>260</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>231</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Z9" t="s">
         <v>294</v>
       </c>
     </row>
@@ -45475,13 +46676,13 @@
       <c r="P10" t="s">
         <v>493</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>317</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>232</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Z10" t="s">
         <v>295</v>
       </c>
     </row>
@@ -45507,13 +46708,13 @@
       <c r="N11" t="s">
         <v>307</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>318</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>319</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Z11" t="s">
         <v>296</v>
       </c>
     </row>
@@ -45536,10 +46737,10 @@
       <c r="N12" t="s">
         <v>308</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>49</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>148</v>
       </c>
     </row>
@@ -45562,10 +46763,10 @@
       <c r="N13" t="s">
         <v>313</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>397</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>149</v>
       </c>
     </row>
@@ -45588,10 +46789,10 @@
       <c r="N14" t="s">
         <v>309</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>51</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>150</v>
       </c>
     </row>
@@ -45611,10 +46812,10 @@
       <c r="N15" t="s">
         <v>310</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>52</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -45634,16 +46835,16 @@
       <c r="N16" t="s">
         <v>311</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>53</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
@@ -45654,13 +46855,13 @@
       <c r="I17" t="s">
         <v>162</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>438</v>
+        <v>499</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
@@ -45671,13 +46872,13 @@
       <c r="I18" t="s">
         <v>475</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>480</v>
+        <v>438</v>
       </c>
       <c r="C19" t="s">
         <v>316</v>
@@ -45688,13 +46889,13 @@
       <c r="I19" t="s">
         <v>163</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>480</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
@@ -45705,13 +46906,13 @@
       <c r="I20" t="s">
         <v>164</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
         <v>388</v>
@@ -45722,13 +46923,13 @@
       <c r="I21" t="s">
         <v>165</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
         <v>138</v>
@@ -45736,13 +46937,13 @@
       <c r="E22" t="s">
         <v>359</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
         <v>284</v>
@@ -45750,13 +46951,13 @@
       <c r="E23" t="s">
         <v>351</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>286</v>
+        <v>140</v>
       </c>
       <c r="C24" t="s">
         <v>285</v>
@@ -45764,29 +46965,35 @@
       <c r="E24" t="s">
         <v>339</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="s">
+        <v>511</v>
+      </c>
       <c r="C25" t="s">
         <v>507</v>
       </c>
       <c r="E25" t="s">
         <v>171</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="s">
+        <v>286</v>
+      </c>
       <c r="C26" t="s">
         <v>176</v>
       </c>
       <c r="E26" t="s">
         <v>342</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>63</v>
       </c>
     </row>
@@ -45797,7 +47004,7 @@
       <c r="E27" t="s">
         <v>326</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>398</v>
       </c>
     </row>
@@ -45808,7 +47015,7 @@
       <c r="E28" t="s">
         <v>343</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>65</v>
       </c>
     </row>
@@ -45819,7 +47026,7 @@
       <c r="E29" t="s">
         <v>344</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>66</v>
       </c>
     </row>
@@ -45830,7 +47037,7 @@
       <c r="E30" t="s">
         <v>274</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>67</v>
       </c>
     </row>
@@ -45841,7 +47048,7 @@
       <c r="E31" t="s">
         <v>335</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>68</v>
       </c>
     </row>
@@ -45852,7 +47059,7 @@
       <c r="E32" t="s">
         <v>345</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>69</v>
       </c>
     </row>
@@ -45863,7 +47070,7 @@
       <c r="E33" t="s">
         <v>320</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>70</v>
       </c>
     </row>
@@ -45871,7 +47078,7 @@
       <c r="E34" t="s">
         <v>401</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>261</v>
       </c>
     </row>
@@ -45879,7 +47086,7 @@
       <c r="E35" t="s">
         <v>371</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>71</v>
       </c>
     </row>
@@ -45887,7 +47094,7 @@
       <c r="E36" t="s">
         <v>321</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" t="s">
         <v>410</v>
       </c>
     </row>
@@ -45895,7 +47102,7 @@
       <c r="E37" t="s">
         <v>372</v>
       </c>
-      <c r="T37" t="s">
+      <c r="U37" t="s">
         <v>476</v>
       </c>
     </row>
@@ -45903,7 +47110,7 @@
       <c r="E38" t="s">
         <v>327</v>
       </c>
-      <c r="T38" t="s">
+      <c r="U38" t="s">
         <v>72</v>
       </c>
     </row>
@@ -45911,7 +47118,7 @@
       <c r="E39" t="s">
         <v>174</v>
       </c>
-      <c r="T39" t="s">
+      <c r="U39" t="s">
         <v>73</v>
       </c>
     </row>
@@ -45919,7 +47126,7 @@
       <c r="E40" t="s">
         <v>270</v>
       </c>
-      <c r="T40" t="s">
+      <c r="U40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -45927,7 +47134,7 @@
       <c r="E41" t="s">
         <v>350</v>
       </c>
-      <c r="T41" t="s">
+      <c r="U41" t="s">
         <v>75</v>
       </c>
     </row>
@@ -45935,7 +47142,7 @@
       <c r="E42" t="s">
         <v>360</v>
       </c>
-      <c r="T42" t="s">
+      <c r="U42" t="s">
         <v>76</v>
       </c>
     </row>
@@ -45943,7 +47150,7 @@
       <c r="E43" t="s">
         <v>361</v>
       </c>
-      <c r="T43" t="s">
+      <c r="U43" t="s">
         <v>77</v>
       </c>
     </row>
@@ -45951,7 +47158,7 @@
       <c r="E44" t="s">
         <v>419</v>
       </c>
-      <c r="T44" t="s">
+      <c r="U44" t="s">
         <v>271</v>
       </c>
     </row>
@@ -45959,7 +47166,7 @@
       <c r="E45" t="s">
         <v>418</v>
       </c>
-      <c r="T45" t="s">
+      <c r="U45" t="s">
         <v>80</v>
       </c>
     </row>
@@ -45967,7 +47174,7 @@
       <c r="E46" t="s">
         <v>268</v>
       </c>
-      <c r="T46" t="s">
+      <c r="U46" t="s">
         <v>81</v>
       </c>
     </row>
@@ -45975,7 +47182,7 @@
       <c r="E47" t="s">
         <v>362</v>
       </c>
-      <c r="T47" t="s">
+      <c r="U47" t="s">
         <v>82</v>
       </c>
     </row>
@@ -45983,7 +47190,7 @@
       <c r="E48" t="s">
         <v>411</v>
       </c>
-      <c r="T48" t="s">
+      <c r="U48" t="s">
         <v>83</v>
       </c>
     </row>
@@ -45991,7 +47198,7 @@
       <c r="E49" t="s">
         <v>451</v>
       </c>
-      <c r="T49" t="s">
+      <c r="U49" t="s">
         <v>84</v>
       </c>
     </row>
@@ -45999,7 +47206,7 @@
       <c r="E50" t="s">
         <v>364</v>
       </c>
-      <c r="T50" t="s">
+      <c r="U50" t="s">
         <v>422</v>
       </c>
     </row>
@@ -46007,7 +47214,7 @@
       <c r="E51" t="s">
         <v>435</v>
       </c>
-      <c r="T51" t="s">
+      <c r="U51" t="s">
         <v>85</v>
       </c>
     </row>
@@ -46015,7 +47222,7 @@
       <c r="E52" t="s">
         <v>402</v>
       </c>
-      <c r="T52" t="s">
+      <c r="U52" t="s">
         <v>86</v>
       </c>
     </row>
@@ -46023,7 +47230,7 @@
       <c r="E53" t="s">
         <v>328</v>
       </c>
-      <c r="T53" t="s">
+      <c r="U53" t="s">
         <v>87</v>
       </c>
     </row>
@@ -46031,7 +47238,7 @@
       <c r="E54" t="s">
         <v>353</v>
       </c>
-      <c r="T54" t="s">
+      <c r="U54" t="s">
         <v>88</v>
       </c>
     </row>
@@ -46039,7 +47246,7 @@
       <c r="E55" t="s">
         <v>354</v>
       </c>
-      <c r="T55" t="s">
+      <c r="U55" t="s">
         <v>89</v>
       </c>
     </row>
@@ -46047,7 +47254,7 @@
       <c r="E56" t="s">
         <v>355</v>
       </c>
-      <c r="T56" t="s">
+      <c r="U56" t="s">
         <v>90</v>
       </c>
     </row>
@@ -46055,7 +47262,7 @@
       <c r="E57" t="s">
         <v>365</v>
       </c>
-      <c r="T57" t="s">
+      <c r="U57" t="s">
         <v>91</v>
       </c>
     </row>
@@ -46063,7 +47270,7 @@
       <c r="E58" t="s">
         <v>376</v>
       </c>
-      <c r="T58" t="s">
+      <c r="U58" t="s">
         <v>272</v>
       </c>
     </row>
@@ -46071,7 +47278,7 @@
       <c r="E59" t="s">
         <v>409</v>
       </c>
-      <c r="T59" t="s">
+      <c r="U59" t="s">
         <v>472</v>
       </c>
     </row>
@@ -46079,7 +47286,7 @@
       <c r="E60" t="s">
         <v>373</v>
       </c>
-      <c r="T60" t="s">
+      <c r="U60" t="s">
         <v>92</v>
       </c>
     </row>
@@ -46087,7 +47294,7 @@
       <c r="E61" t="s">
         <v>374</v>
       </c>
-      <c r="T61" t="s">
+      <c r="U61" t="s">
         <v>93</v>
       </c>
     </row>
@@ -46095,7 +47302,7 @@
       <c r="E62" t="s">
         <v>452</v>
       </c>
-      <c r="T62" t="s">
+      <c r="U62" t="s">
         <v>94</v>
       </c>
     </row>
@@ -46103,7 +47310,7 @@
       <c r="E63" t="s">
         <v>453</v>
       </c>
-      <c r="T63" t="s">
+      <c r="U63" t="s">
         <v>96</v>
       </c>
     </row>
@@ -46111,7 +47318,7 @@
       <c r="E64" t="s">
         <v>421</v>
       </c>
-      <c r="T64" t="s">
+      <c r="U64" t="s">
         <v>247</v>
       </c>
     </row>
@@ -46119,7 +47326,7 @@
       <c r="E65" t="s">
         <v>377</v>
       </c>
-      <c r="T65" t="s">
+      <c r="U65" t="s">
         <v>248</v>
       </c>
     </row>
@@ -46127,7 +47334,7 @@
       <c r="E66" t="s">
         <v>329</v>
       </c>
-      <c r="T66" t="s">
+      <c r="U66" t="s">
         <v>97</v>
       </c>
     </row>
@@ -46135,7 +47342,7 @@
       <c r="E67" t="s">
         <v>432</v>
       </c>
-      <c r="T67" t="s">
+      <c r="U67" t="s">
         <v>98</v>
       </c>
     </row>
@@ -46143,7 +47350,7 @@
       <c r="E68" t="s">
         <v>378</v>
       </c>
-      <c r="T68" t="s">
+      <c r="U68" t="s">
         <v>99</v>
       </c>
     </row>
@@ -46151,7 +47358,7 @@
       <c r="E69" t="s">
         <v>494</v>
       </c>
-      <c r="T69" t="s">
+      <c r="U69" t="s">
         <v>100</v>
       </c>
     </row>
@@ -46159,7 +47366,7 @@
       <c r="E70" t="s">
         <v>367</v>
       </c>
-      <c r="T70" t="s">
+      <c r="U70" t="s">
         <v>101</v>
       </c>
     </row>
@@ -46167,7 +47374,7 @@
       <c r="E71" t="s">
         <v>495</v>
       </c>
-      <c r="T71" t="s">
+      <c r="U71" t="s">
         <v>249</v>
       </c>
     </row>
@@ -46175,7 +47382,7 @@
       <c r="E72" t="s">
         <v>322</v>
       </c>
-      <c r="T72" t="s">
+      <c r="U72" t="s">
         <v>250</v>
       </c>
     </row>
@@ -46183,7 +47390,7 @@
       <c r="E73" t="s">
         <v>420</v>
       </c>
-      <c r="T73" t="s">
+      <c r="U73" t="s">
         <v>251</v>
       </c>
     </row>
@@ -46191,7 +47398,7 @@
       <c r="E74" t="s">
         <v>340</v>
       </c>
-      <c r="T74" t="s">
+      <c r="U74" t="s">
         <v>252</v>
       </c>
     </row>
@@ -46199,7 +47406,7 @@
       <c r="E75" t="s">
         <v>346</v>
       </c>
-      <c r="T75" t="s">
+      <c r="U75" t="s">
         <v>273</v>
       </c>
     </row>
@@ -46207,7 +47414,7 @@
       <c r="E76" t="s">
         <v>352</v>
       </c>
-      <c r="T76" t="s">
+      <c r="U76" t="s">
         <v>102</v>
       </c>
     </row>
@@ -46215,7 +47422,7 @@
       <c r="E77" t="s">
         <v>403</v>
       </c>
-      <c r="T77" t="s">
+      <c r="U77" t="s">
         <v>253</v>
       </c>
     </row>
@@ -46223,7 +47430,7 @@
       <c r="E78" t="s">
         <v>330</v>
       </c>
-      <c r="T78" t="s">
+      <c r="U78" t="s">
         <v>103</v>
       </c>
     </row>
@@ -46231,7 +47438,7 @@
       <c r="E79" t="s">
         <v>341</v>
       </c>
-      <c r="T79" t="s">
+      <c r="U79" t="s">
         <v>254</v>
       </c>
     </row>
@@ -46239,7 +47446,7 @@
       <c r="E80" t="s">
         <v>347</v>
       </c>
-      <c r="T80" t="s">
+      <c r="U80" t="s">
         <v>255</v>
       </c>
     </row>
@@ -46247,7 +47454,7 @@
       <c r="E81" t="s">
         <v>336</v>
       </c>
-      <c r="T81" t="s">
+      <c r="U81" t="s">
         <v>256</v>
       </c>
     </row>
@@ -46255,7 +47462,7 @@
       <c r="E82" t="s">
         <v>331</v>
       </c>
-      <c r="T82" t="s">
+      <c r="U82" t="s">
         <v>257</v>
       </c>
     </row>
@@ -46263,7 +47470,7 @@
       <c r="E83" t="s">
         <v>349</v>
       </c>
-      <c r="T83" t="s">
+      <c r="U83" t="s">
         <v>282</v>
       </c>
     </row>
@@ -46271,7 +47478,7 @@
       <c r="E84" t="s">
         <v>332</v>
       </c>
-      <c r="T84" t="s">
+      <c r="U84" t="s">
         <v>258</v>
       </c>
     </row>
@@ -46279,7 +47486,7 @@
       <c r="E85" t="s">
         <v>333</v>
       </c>
-      <c r="T85" t="s">
+      <c r="U85" t="s">
         <v>104</v>
       </c>
     </row>
@@ -46287,7 +47494,7 @@
       <c r="E86" t="s">
         <v>368</v>
       </c>
-      <c r="T86" t="s">
+      <c r="U86" t="s">
         <v>466</v>
       </c>
     </row>
@@ -46295,7 +47502,7 @@
       <c r="E87" t="s">
         <v>375</v>
       </c>
-      <c r="T87" t="s">
+      <c r="U87" t="s">
         <v>105</v>
       </c>
     </row>
@@ -46303,7 +47510,7 @@
       <c r="E88" t="s">
         <v>369</v>
       </c>
-      <c r="T88" t="s">
+      <c r="U88" t="s">
         <v>106</v>
       </c>
     </row>
@@ -46311,7 +47518,7 @@
       <c r="E89" t="s">
         <v>412</v>
       </c>
-      <c r="T89" t="s">
+      <c r="U89" t="s">
         <v>107</v>
       </c>
     </row>
@@ -46319,7 +47526,7 @@
       <c r="E90" t="s">
         <v>337</v>
       </c>
-      <c r="T90" t="s">
+      <c r="U90" t="s">
         <v>108</v>
       </c>
     </row>
@@ -46327,92 +47534,92 @@
       <c r="E91" t="s">
         <v>338</v>
       </c>
-      <c r="T91" t="s">
+      <c r="U91" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="92">
-      <c r="T92" t="s">
+      <c r="U92" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="93">
-      <c r="T93" t="s">
+      <c r="U93" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="94">
-      <c r="T94" t="s">
+      <c r="U94" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="95">
-      <c r="T95" t="s">
+      <c r="U95" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="96">
-      <c r="T96" t="s">
+      <c r="U96" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="97">
-      <c r="T97" t="s">
+      <c r="U97" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="98">
-      <c r="T98" t="s">
+      <c r="U98" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="99">
-      <c r="T99" t="s">
+      <c r="U99" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="100">
-      <c r="T100" t="s">
+      <c r="U100" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="101">
-      <c r="T101" t="s">
+      <c r="U101" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="102">
-      <c r="T102" t="s">
+      <c r="U102" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="103">
-      <c r="T103" t="s">
+      <c r="U103" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="104">
-      <c r="T104" t="s">
+      <c r="U104" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="105">
-      <c r="T105" t="s">
+      <c r="U105" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="106">
-      <c r="T106" t="s">
+      <c r="U106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="107">
-      <c r="T107" t="s">
+      <c r="U107" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="108">
-      <c r="T108" t="s">
+      <c r="U108" t="s">
         <v>125</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10610"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E75100-EA69-CA4B-9C12-D2D24BBC78E3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{03E75100-EA69-CA4B-9C12-D2D24BBC78E3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
   <bookViews>
-    <workbookView xWindow="9260" yWindow="-20560" windowWidth="33600" windowHeight="10280" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="10280" windowWidth="33600" xWindow="9260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-20560"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="number_showcase" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="number_showcase" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -22,18 +22,18 @@
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$21</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$11</definedName>
+    <definedName name="json">'#system'!$K$2:$K$12</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$14</definedName>
+    <definedName name="number">'#system'!$M$2:$M$15</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
@@ -46,7 +46,7 @@
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$7</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="470">
   <si>
     <t>description</t>
   </si>
@@ -1430,13 +1430,56 @@
   </si>
   <si>
     <t>put(url,body,output)</t>
+  </si>
+  <si>
+    <t>sendKeysToTextBox(name,text1,text2,text3,text4)</t>
+  </si>
+  <si>
+    <t>addOrReplace(json,jsonpath,input,var)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,minNum,maxNum)</t>
+  </si>
+  <si>
+    <t>assertEqual(num1,num2)</t>
+  </si>
+  <si>
+    <t>average(variableName,array)</t>
+  </si>
+  <si>
+    <t>ceiling(variableName)</t>
+  </si>
+  <si>
+    <t>decrement(variableName,amount)</t>
+  </si>
+  <si>
+    <t>floor(variableName)</t>
+  </si>
+  <si>
+    <t>increment(variableName,amount)</t>
+  </si>
+  <si>
+    <t>max(variableName,array)</t>
+  </si>
+  <si>
+    <t>min(variableName,array)</t>
+  </si>
+  <si>
+    <t>round(variableName,closestDigit)</t>
+  </si>
+  <si>
+    <t>delete(url,body,output)</t>
+  </si>
+  <si>
+    <t>decrement(var,amount)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="72" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1515,8 +1558,384 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1535,8 +1954,620 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="121">
     <border>
       <left/>
       <right/>
@@ -1636,153 +2667,1461 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="92">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="6" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="9" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="12" fontId="15" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="17" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="18" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="21" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="24" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="24" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="44" fillId="33" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="48" fillId="36" fontId="29" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="52" fillId="39" fontId="30" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="32" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="56" fillId="45" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="60" fillId="48" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="64" fillId="51" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="64" fillId="51" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="72" fillId="60" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="76" fillId="63" fontId="44" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="80" fillId="66" fontId="45" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="47" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="84" fillId="72" fontId="49" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="88" fillId="75" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="78" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="78" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="87" borderId="100" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="90" borderId="104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="93" borderId="108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="99" borderId="112" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="102" borderId="116" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="105" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="105" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="4"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="5"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="6"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="7"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="8"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="9"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="10"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1816,7 +4155,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -1841,10 +4180,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1879,7 +4218,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1914,7 +4253,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2008,21 +4347,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2039,7 +4378,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2091,26 +4430,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA108"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2190,7 +4529,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>397</v>
       </c>
@@ -2222,13 +4561,13 @@
         <v>410</v>
       </c>
       <c r="K2" t="s">
-        <v>212</v>
+        <v>457</v>
       </c>
       <c r="L2" t="s">
         <v>440</v>
       </c>
       <c r="M2" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="N2" t="s">
         <v>279</v>
@@ -2264,13 +4603,13 @@
         <v>133</v>
       </c>
       <c r="Y2" t="s">
-        <v>134</v>
+        <v>468</v>
       </c>
       <c r="Z2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2302,10 +4641,10 @@
         <v>360</v>
       </c>
       <c r="K3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M3" t="s">
-        <v>342</v>
+        <v>459</v>
       </c>
       <c r="N3" t="s">
         <v>266</v>
@@ -2338,13 +4677,13 @@
         <v>390</v>
       </c>
       <c r="Y3" t="s">
-        <v>451</v>
+        <v>134</v>
       </c>
       <c r="Z3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -2373,7 +4712,7 @@
         <v>361</v>
       </c>
       <c r="K4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
@@ -2409,13 +4748,13 @@
         <v>134</v>
       </c>
       <c r="Y4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Z4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2438,7 +4777,7 @@
         <v>202</v>
       </c>
       <c r="K5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M5" t="s">
         <v>21</v>
@@ -2471,13 +4810,13 @@
         <v>135</v>
       </c>
       <c r="Y5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Z5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>201</v>
       </c>
@@ -2497,7 +4836,7 @@
         <v>148</v>
       </c>
       <c r="K6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M6" t="s">
         <v>22</v>
@@ -2527,13 +4866,13 @@
         <v>136</v>
       </c>
       <c r="Y6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Z6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>144</v>
       </c>
@@ -2553,7 +4892,7 @@
         <v>195</v>
       </c>
       <c r="K7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M7" t="s">
         <v>24</v>
@@ -2580,13 +4919,13 @@
         <v>137</v>
       </c>
       <c r="Y7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Z7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>373</v>
       </c>
@@ -2606,7 +4945,7 @@
         <v>149</v>
       </c>
       <c r="K8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M8" t="s">
         <v>165</v>
@@ -2629,11 +4968,14 @@
       <c r="X8" t="s">
         <v>138</v>
       </c>
+      <c r="Y8" t="s">
+        <v>455</v>
+      </c>
       <c r="Z8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>145</v>
       </c>
@@ -2650,7 +4992,7 @@
         <v>416</v>
       </c>
       <c r="K9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M9" t="s">
         <v>166</v>
@@ -2674,7 +5016,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>359</v>
       </c>
@@ -2688,10 +5030,10 @@
         <v>150</v>
       </c>
       <c r="K10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M10" t="s">
-        <v>167</v>
+        <v>469</v>
       </c>
       <c r="N10" t="s">
         <v>273</v>
@@ -2709,7 +5051,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>211</v>
       </c>
@@ -2723,10 +5065,10 @@
         <v>151</v>
       </c>
       <c r="K11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M11" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="N11" t="s">
         <v>274</v>
@@ -2741,7 +5083,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>222</v>
       </c>
@@ -2754,8 +5096,11 @@
       <c r="I12" t="s">
         <v>196</v>
       </c>
+      <c r="K12" t="s">
+        <v>221</v>
+      </c>
       <c r="M12" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="N12" t="s">
         <v>275</v>
@@ -2767,7 +5112,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -2781,7 +5126,7 @@
         <v>197</v>
       </c>
       <c r="M13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N13" t="s">
         <v>280</v>
@@ -2793,7 +5138,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>265</v>
       </c>
@@ -2807,7 +5152,7 @@
         <v>198</v>
       </c>
       <c r="M14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s">
         <v>276</v>
@@ -2819,7 +5164,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>210</v>
       </c>
@@ -2832,6 +5177,9 @@
       <c r="I15" t="s">
         <v>199</v>
       </c>
+      <c r="M15" t="s">
+        <v>170</v>
+      </c>
       <c r="N15" t="s">
         <v>277</v>
       </c>
@@ -2842,7 +5190,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>426</v>
       </c>
@@ -2865,7 +5213,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>448</v>
       </c>
@@ -2882,7 +5230,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>441</v>
       </c>
@@ -2899,7 +5247,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>383</v>
       </c>
@@ -2916,7 +5264,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>422</v>
       </c>
@@ -2933,7 +5281,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -2950,7 +5298,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -2964,7 +5312,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -2978,7 +5326,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>132</v>
       </c>
@@ -2992,7 +5340,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>450</v>
       </c>
@@ -3006,7 +5354,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>253</v>
       </c>
@@ -3020,7 +5368,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="C27" t="s">
         <v>38</v>
       </c>
@@ -3031,7 +5379,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="C28" t="s">
         <v>39</v>
       </c>
@@ -3042,7 +5390,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" t="s">
         <v>161</v>
       </c>
@@ -3053,7 +5401,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" t="s">
         <v>162</v>
       </c>
@@ -3064,7 +5412,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="C31" t="s">
         <v>163</v>
       </c>
@@ -3075,7 +5423,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="C32" t="s">
         <v>40</v>
       </c>
@@ -3086,7 +5434,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="C33" t="s">
         <v>156</v>
       </c>
@@ -3097,7 +5445,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>356</v>
       </c>
@@ -3105,7 +5453,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>334</v>
       </c>
@@ -3113,7 +5461,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>287</v>
       </c>
@@ -3121,7 +5469,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>335</v>
       </c>
@@ -3129,7 +5477,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>293</v>
       </c>
@@ -3137,7 +5485,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="E39" t="s">
         <v>159</v>
       </c>
@@ -3145,7 +5493,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="E40" t="s">
         <v>238</v>
       </c>
@@ -3153,7 +5501,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="E41" t="s">
         <v>315</v>
       </c>
@@ -3161,7 +5509,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="E42" t="s">
         <v>325</v>
       </c>
@@ -3169,7 +5517,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="E43" t="s">
         <v>326</v>
       </c>
@@ -3177,7 +5525,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="E44" t="s">
         <v>369</v>
       </c>
@@ -3185,7 +5533,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="E45" t="s">
         <v>368</v>
       </c>
@@ -3193,7 +5541,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="E46" t="s">
         <v>237</v>
       </c>
@@ -3201,7 +5549,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="E47" t="s">
         <v>327</v>
       </c>
@@ -3209,7 +5557,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="E48" t="s">
         <v>365</v>
       </c>
@@ -3217,7 +5565,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="E49" t="s">
         <v>394</v>
       </c>
@@ -3225,7 +5573,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="E50" t="s">
         <v>328</v>
       </c>
@@ -3233,7 +5581,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="51" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="E51" t="s">
         <v>382</v>
       </c>
@@ -3241,7 +5589,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="E52" t="s">
         <v>357</v>
       </c>
@@ -3249,7 +5597,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="E53" t="s">
         <v>294</v>
       </c>
@@ -3257,7 +5605,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="E54" t="s">
         <v>318</v>
       </c>
@@ -3265,7 +5613,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="E55" t="s">
         <v>319</v>
       </c>
@@ -3273,7 +5621,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="E56" t="s">
         <v>320</v>
       </c>
@@ -3281,7 +5629,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="E57" t="s">
         <v>329</v>
       </c>
@@ -3289,7 +5637,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="E58" t="s">
         <v>339</v>
       </c>
@@ -3297,7 +5645,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="59" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="E59" t="s">
         <v>363</v>
       </c>
@@ -3305,7 +5653,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="60" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="E60" t="s">
         <v>336</v>
       </c>
@@ -3313,7 +5661,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="E61" t="s">
         <v>337</v>
       </c>
@@ -3321,7 +5669,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="E62" t="s">
         <v>395</v>
       </c>
@@ -3329,7 +5677,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="E63" t="s">
         <v>396</v>
       </c>
@@ -3337,7 +5685,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="E64" t="s">
         <v>371</v>
       </c>
@@ -3345,7 +5693,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="65" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="E65" t="s">
         <v>340</v>
       </c>
@@ -3353,7 +5701,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="E66" t="s">
         <v>295</v>
       </c>
@@ -3361,7 +5709,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="E67" t="s">
         <v>379</v>
       </c>
@@ -3369,7 +5717,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="E68" t="s">
         <v>341</v>
       </c>
@@ -3377,7 +5725,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="E69" t="s">
         <v>436</v>
       </c>
@@ -3385,7 +5733,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="E70" t="s">
         <v>330</v>
       </c>
@@ -3393,7 +5741,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="E71" t="s">
         <v>437</v>
       </c>
@@ -3401,7 +5749,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="72" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="E72" t="s">
         <v>288</v>
       </c>
@@ -3409,7 +5757,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="73" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="E73" t="s">
         <v>370</v>
       </c>
@@ -3417,7 +5765,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="E74" t="s">
         <v>306</v>
       </c>
@@ -3425,7 +5773,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="E75" t="s">
         <v>312</v>
       </c>
@@ -3433,7 +5781,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="76" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="E76" t="s">
         <v>317</v>
       </c>
@@ -3441,240 +5789,243 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="E77" t="s">
-        <v>358</v>
+        <v>456</v>
       </c>
       <c r="U77" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="E78" t="s">
-        <v>296</v>
+        <v>358</v>
       </c>
       <c r="U78" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="E79" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="U79" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="80" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="E80" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="U80" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="81" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="E81" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="U81" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="82" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="E82" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="U82" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="83" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="E83" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="U83" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="E84" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="U84" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="85" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="E85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U85" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="E86" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="U86" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="87" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="E87" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="U87" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="E88" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="U88" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="E89" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="U89" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="E90" t="s">
-        <v>303</v>
+        <v>366</v>
       </c>
       <c r="U90" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="E91" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U91" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="92">
+      <c r="E92" t="s">
+        <v>304</v>
+      </c>
       <c r="U92" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="U93" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="U94" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="U95" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="U96" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="U97" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="U98" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="U99" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="U100" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="U101" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="102" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="U102" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="103" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="U103" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="U104" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="U105" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="U106" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="107" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="U107" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="U108" t="s">
         <v>117</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O1007"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="true" topLeftCell="A2" workbookViewId="0" zoomScale="100" zoomScaleNormal="125" zoomScalePageLayoutView="125">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.83203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.6640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="10" width="18" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="5" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.83203125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="12" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="16.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="11.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="9.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="32.6640625" collapsed="true"/>
+    <col min="5" max="10" customWidth="true" style="4" width="18.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="2" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="5" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="2" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="12" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3704,7 +6055,7 @@
       <c r="N1" s="27"/>
       <c r="O1" s="28"/>
     </row>
-    <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>164</v>
       </c>
@@ -3724,7 +6075,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="31"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
       <c r="D3" s="2"/>
       <c r="E3" s="7"/>
@@ -3734,7 +6085,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:15" s="13" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="13" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>247</v>
       </c>
@@ -3779,7 +6130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>171</v>
       </c>
@@ -3806,7 +6157,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6"/>
       <c r="C6" s="6" t="s">
@@ -3831,7 +6182,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7"/>
       <c r="C7" s="6" t="s">
@@ -3856,7 +6207,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8"/>
       <c r="C8" s="6" t="s">
@@ -3881,7 +6232,7 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9"/>
       <c r="C9" s="6" t="s">
@@ -3906,7 +6257,7 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10"/>
       <c r="C10" s="6" t="s">
@@ -3931,7 +6282,7 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11"/>
       <c r="C11" s="6" t="s">
@@ -3956,7 +6307,7 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12"/>
       <c r="C12" s="6" t="s">
@@ -3979,7 +6330,7 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13"/>
       <c r="C13" s="6" t="s">
@@ -4004,7 +6355,7 @@
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14"/>
       <c r="C14" s="6" t="s">
@@ -4029,7 +6380,7 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15"/>
       <c r="C15" s="6" t="s">
@@ -4052,7 +6403,7 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16"/>
       <c r="C16" s="6" t="s">
@@ -4077,7 +6428,7 @@
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17"/>
       <c r="C17" s="6" t="s">
@@ -4102,7 +6453,7 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18"/>
       <c r="C18" s="6" t="s">
@@ -4127,7 +6478,7 @@
       <c r="N18"/>
       <c r="O18"/>
     </row>
-    <row r="19" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19" s="6" t="s">
@@ -4152,7 +6503,7 @@
       <c r="N19"/>
       <c r="O19"/>
     </row>
-    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20" s="6" t="s">
@@ -4177,7 +6528,7 @@
       <c r="N20"/>
       <c r="O20"/>
     </row>
-    <row r="21" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21" s="6" t="s">
@@ -4202,7 +6553,7 @@
       <c r="N21"/>
       <c r="O21"/>
     </row>
-    <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22" s="6" t="s">
@@ -4227,7 +6578,7 @@
       <c r="N22"/>
       <c r="O22"/>
     </row>
-    <row r="23" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23"/>
       <c r="C23" s="6" t="s">
@@ -4252,7 +6603,7 @@
       <c r="N23"/>
       <c r="O23"/>
     </row>
-    <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24"/>
       <c r="C24" s="6" t="s">
@@ -4277,7 +6628,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25"/>
       <c r="C25" s="6" t="s">
@@ -4302,7 +6653,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26"/>
       <c r="C26" s="6" t="s">
@@ -4327,7 +6678,7 @@
       <c r="N26"/>
       <c r="O26"/>
     </row>
-    <row r="27" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27"/>
       <c r="C27" s="6" t="s">
@@ -4352,7 +6703,7 @@
       <c r="N27"/>
       <c r="O27"/>
     </row>
-    <row r="28" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="14"/>
       <c r="C28" s="6" t="s">
@@ -4377,7 +6728,7 @@
       <c r="N28"/>
       <c r="O28"/>
     </row>
-    <row r="29" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29"/>
       <c r="C29" s="6" t="s">
@@ -4402,7 +6753,7 @@
       <c r="N29"/>
       <c r="O29"/>
     </row>
-    <row r="30" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30"/>
       <c r="C30" s="6" t="s">
@@ -4427,64 +6778,64 @@
       <c r="N30"/>
       <c r="O30"/>
     </row>
-    <row r="31" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
     </row>
-    <row r="32" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
     </row>
-    <row r="33" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
     </row>
-    <row r="34" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
     </row>
-    <row r="35" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
     </row>
-    <row r="36" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="49" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="49" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:15" s="16" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="36" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="37" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="38" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="39" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="40" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="41" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="42" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="43" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="44" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="45" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="47" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="48" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="49" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="50" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="51" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="52" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="53" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="49" r="54" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="49" r="55" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="56" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="57" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="58" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="59" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="60" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="61" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="62" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="63" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="64" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="65" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="66" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="67" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="68" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="69" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="70" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="71" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="72" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="73" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="74" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="75" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="76" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="77" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="78" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customFormat="1" customHeight="1" ht="48" r="79" s="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="6"/>
@@ -4501,936 +6852,936 @@
       <c r="N79" s="7"/>
       <c r="O79" s="2"/>
     </row>
-    <row r="80" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1005" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1006" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1007" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="80" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="81" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="82" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="83" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="84" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="85" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="86" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="87" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="88" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="89" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="90" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="91" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="92" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="93" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="94" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="95" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="96" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="97" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="98" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="99" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="100" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="101" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="102" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="103" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="104" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="105" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="106" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="107" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="108" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="109" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="110" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="111" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="112" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="113" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="114" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="115" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="116" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="117" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="118" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="119" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="120" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="121" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="122" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="123" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="124" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="125" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="126" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="127" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="128" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="129" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="130" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="131" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="132" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="133" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="134" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="135" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="136" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="137" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="138" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="139" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="140" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="141" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="142" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="143" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="144" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="145" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="146" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="147" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="148" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="149" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="150" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="151" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="152" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="153" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="154" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="155" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="156" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="157" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="158" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="159" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="160" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="161" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="162" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="163" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="164" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="165" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="166" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="167" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="168" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="169" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="170" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="171" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="172" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="173" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="174" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="175" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="176" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="177" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="178" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="179" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="180" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="181" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="182" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="183" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="184" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="185" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="186" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="187" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="188" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="189" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="190" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="191" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="192" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="193" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="194" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="195" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="196" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="197" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="198" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="199" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="200" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="201" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="202" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="203" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="204" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="205" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="206" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="207" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="208" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="209" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="210" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="211" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="212" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="213" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="214" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="215" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="216" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="217" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="218" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="219" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="220" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="221" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="222" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="223" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="224" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="225" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="226" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="227" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="228" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="229" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="230" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="231" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="232" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="233" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="234" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="235" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="236" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="237" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="238" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="239" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="240" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="241" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="242" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="243" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="244" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="245" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="246" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="247" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="248" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="249" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="250" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="251" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="252" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="253" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="254" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="255" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="256" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="257" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="258" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="259" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="260" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="261" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="262" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="263" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="264" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="265" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="266" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="267" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="268" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="269" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="270" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="271" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="272" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="273" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="274" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="275" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="276" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="277" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="278" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="279" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="280" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="281" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="282" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="283" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="284" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="285" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="286" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="287" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="288" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="289" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="290" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="291" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="292" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="293" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="294" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="295" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="296" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="297" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="298" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="299" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="300" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="301" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="302" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="303" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="304" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="305" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="306" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="307" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="308" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="309" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="310" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="311" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="312" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="313" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="314" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="315" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="316" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="317" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="318" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="319" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="320" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="321" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="322" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="323" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="324" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="325" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="326" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="327" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="328" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="329" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="330" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="331" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="332" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="333" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="334" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="335" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="336" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="337" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="338" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="339" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="340" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="341" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="342" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="343" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="344" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="345" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="346" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="347" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="348" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="349" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="350" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="351" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="352" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="353" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="354" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="355" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="356" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="357" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="358" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="359" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="360" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="361" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="362" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="363" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="364" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="365" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="366" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="367" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="368" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="369" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="370" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="371" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="372" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="373" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="374" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="375" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="376" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="377" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="378" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="379" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="380" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="381" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="382" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="383" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="384" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="385" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="386" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="387" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="388" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="389" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="390" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="391" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="392" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="393" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="394" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="395" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="396" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="397" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="398" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="399" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="400" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="401" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="402" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="403" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="404" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="405" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="406" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="407" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="408" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="409" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="410" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="411" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="412" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="413" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="414" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="415" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="416" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="417" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="418" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="419" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="420" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="421" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="422" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="423" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="424" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="425" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="426" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="427" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="428" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="429" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="430" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="431" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="432" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="433" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="434" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="435" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="436" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="437" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="438" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="439" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="440" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="441" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="442" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="443" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="444" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="445" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="446" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="447" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="448" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="449" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="450" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="451" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="452" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="453" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="454" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="455" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="456" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="457" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="458" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="459" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="460" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="461" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="462" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="463" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="464" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="465" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="466" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="467" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="468" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="469" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="470" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="471" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="472" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="473" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="474" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="475" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="476" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="477" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="478" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="479" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="480" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="481" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="482" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="483" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="484" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="485" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="486" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="487" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="488" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="489" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="490" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="491" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="492" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="493" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="494" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="495" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="496" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="497" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="498" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="499" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="500" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="501" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="502" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="503" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="504" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="505" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="506" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="507" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="508" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="509" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="510" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="511" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="512" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="513" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="514" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="515" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="516" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="517" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="518" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="519" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="520" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="521" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="522" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="523" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="524" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="525" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="526" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="527" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="528" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="529" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="530" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="531" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="532" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="533" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="534" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="535" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="536" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="537" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="538" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="539" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="540" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="541" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="542" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="543" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="544" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="545" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="546" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="547" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="548" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="549" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="550" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="551" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="552" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="553" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="554" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="555" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="556" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="557" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="558" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="559" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="560" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="561" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="562" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="563" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="564" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="565" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="566" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="567" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="568" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="569" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="570" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="571" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="572" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="573" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="574" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="575" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="576" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="577" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="578" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="579" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="580" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="581" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="582" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="583" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="584" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="585" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="586" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="587" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="588" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="589" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="590" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="591" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="592" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="593" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="594" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="595" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="596" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="597" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="598" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="599" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="600" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="601" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="602" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="603" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="604" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="605" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="606" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="607" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="608" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="609" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="610" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="611" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="612" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="613" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="614" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="615" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="616" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="617" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="618" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="619" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="620" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="621" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="622" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="623" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="624" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="625" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="626" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="627" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="628" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="629" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="630" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="631" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="632" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="633" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="634" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="635" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="636" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="637" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="638" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="639" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="640" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="641" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="642" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="643" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="644" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="645" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="646" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="647" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="648" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="999" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1000" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1001" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1002" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1003" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1004" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1005" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1006" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1007" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection deleteColumns="0" deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -5438,25 +7789,25 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D705" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D705" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C707" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C707" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10806"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{03E75100-EA69-CA4B-9C12-D2D24BBC78E3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
+  <xr:revisionPtr documentId="13_ncr:1_{DF62826A-161A-AD46-A2E6-C700F30F1432}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="10280" windowWidth="33600" xWindow="9260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-20560"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="10280" windowWidth="33600" xWindow="9260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$108</definedName>
+    <definedName name="web">'#system'!$U$2:$U$111</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="465">
   <si>
     <t>description</t>
   </si>
@@ -349,9 +349,6 @@
     <t>saveLocation(var)</t>
   </si>
   <si>
-    <t>savePageAsFile(sessionIdName,url,fileName)</t>
-  </si>
-  <si>
     <t>scrollLeft(locator,pixel)</t>
   </si>
   <si>
@@ -1378,9 +1375,6 @@
     <t>saveTableRowsRange(var,beginRow,endRow)</t>
   </si>
   <si>
-    <t>assertBetween(num,min,max)</t>
-  </si>
-  <si>
     <t>clear(vars)</t>
   </si>
   <si>
@@ -1444,34 +1438,25 @@
     <t>assertEqual(num1,num2)</t>
   </si>
   <si>
-    <t>average(variableName,array)</t>
-  </si>
-  <si>
-    <t>ceiling(variableName)</t>
-  </si>
-  <si>
-    <t>decrement(variableName,amount)</t>
-  </si>
-  <si>
-    <t>floor(variableName)</t>
-  </si>
-  <si>
-    <t>increment(variableName,amount)</t>
-  </si>
-  <si>
-    <t>max(variableName,array)</t>
-  </si>
-  <si>
-    <t>min(variableName,array)</t>
-  </si>
-  <si>
-    <t>round(variableName,closestDigit)</t>
-  </si>
-  <si>
     <t>delete(url,body,output)</t>
   </si>
   <si>
     <t>decrement(var,amount)</t>
+  </si>
+  <si>
+    <t>assertTextMatches(text,minMatch,scrollTo)</t>
+  </si>
+  <si>
+    <t>jsSelect(locator,text)</t>
+  </si>
+  <si>
+    <t>savePageAsFile(sessionIdName,url,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1464,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="72" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1840,102 +1825,8 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
   </fonts>
-  <fills count="112">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2413,161 +2304,8 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="121">
+  <borders count="93">
     <border>
       <left/>
       <right/>
@@ -2666,288 +2404,6 @@
       <top/>
       <bottom/>
       <diagonal/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -3809,7 +3265,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="77">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4019,94 +3475,49 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="72" fillId="60" fontId="42" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="42" fillId="60" borderId="72" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="76" fillId="63" fontId="44" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="44" fillId="63" borderId="76" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="80" fillId="66" fontId="45" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="45" fillId="66" borderId="80" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="47" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="47" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="84" fillId="72" fontId="49" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="49" fillId="72" borderId="84" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="88" fillId="75" fontId="50" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="50" fillId="75" borderId="88" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="78" fontId="51" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="51" fillId="78" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="78" fontId="52" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="52" fillId="78" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="53" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="53" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="54" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="54" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="55" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="55" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="87" borderId="100" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="90" borderId="104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="93" borderId="108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="99" borderId="112" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="102" borderId="116" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="105" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="105" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4438,7 +3849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA108"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4454,61 +3865,61 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I1" t="s">
         <v>144</v>
       </c>
-      <c r="H1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I1" t="s">
-        <v>145</v>
-      </c>
       <c r="J1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="R1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="S1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="T1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="U1" t="s">
         <v>30</v>
@@ -4520,93 +3931,93 @@
         <v>32</v>
       </c>
       <c r="X1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="Z1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" t="s">
         <v>397</v>
-      </c>
-      <c r="B2" t="s">
-        <v>398</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="N2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="R2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="S2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="U2" t="s">
         <v>41</v>
       </c>
       <c r="V2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y2" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="Z2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
@@ -4614,144 +4025,144 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="N3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="R3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="S3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U3" t="s">
         <v>42</v>
       </c>
       <c r="V3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Y3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Z3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
       </c>
       <c r="N4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="R4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="V4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="Z4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5">
@@ -4759,472 +4170,472 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M5" t="s">
         <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="R5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="S5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Z5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M6" t="s">
         <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="S6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U6" t="s">
         <v>43</v>
       </c>
       <c r="V6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Z6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M7" t="s">
         <v>24</v>
       </c>
       <c r="N7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="P7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="S7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U7" t="s">
         <v>44</v>
       </c>
       <c r="W7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Y7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Z7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="S8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U8" t="s">
         <v>45</v>
       </c>
       <c r="W8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="X8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Z8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="S9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="U9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M10" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="N10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="U10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Z10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U11" t="s">
+        <v>283</v>
+      </c>
+      <c r="X11" t="s">
         <v>284</v>
       </c>
-      <c r="X11" t="s">
-        <v>285</v>
-      </c>
       <c r="Z11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M12" t="s">
         <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U12" t="s">
         <v>46</v>
       </c>
       <c r="X12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="X13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="U14" t="s">
         <v>47</v>
       </c>
       <c r="X14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U15" t="s">
         <v>48</v>
       </c>
       <c r="X15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U16" t="s">
         <v>49</v>
       </c>
       <c r="X16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U17" t="s">
         <v>50</v>
@@ -5232,16 +4643,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U18" t="s">
         <v>51</v>
@@ -5249,16 +4660,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U19" t="s">
         <v>52</v>
@@ -5266,16 +4677,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U20" t="s">
         <v>53</v>
@@ -5286,13 +4697,13 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U21" t="s">
         <v>54</v>
@@ -5303,10 +4714,10 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="U22" t="s">
         <v>55</v>
@@ -5317,10 +4728,10 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U23" t="s">
         <v>56</v>
@@ -5328,13 +4739,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U24" t="s">
         <v>57</v>
@@ -5342,13 +4753,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C25" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U25" t="s">
         <v>58</v>
@@ -5356,13 +4767,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="U26" t="s">
         <v>59</v>
@@ -5373,10 +4784,10 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28">
@@ -5384,7 +4795,7 @@
         <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="U28" t="s">
         <v>60</v>
@@ -5392,10 +4803,10 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="U29" t="s">
         <v>61</v>
@@ -5403,10 +4814,10 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U30" t="s">
         <v>62</v>
@@ -5414,10 +4825,10 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U31" t="s">
         <v>63</v>
@@ -5428,7 +4839,7 @@
         <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U32" t="s">
         <v>64</v>
@@ -5436,10 +4847,10 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U33" t="s">
         <v>65</v>
@@ -5447,15 +4858,15 @@
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="U35" t="s">
         <v>66</v>
@@ -5463,538 +4874,553 @@
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="U37" t="s">
-        <v>419</v>
+        <v>460</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U38" t="s">
-        <v>67</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="U41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U44" t="s">
-        <v>239</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U45" t="s">
-        <v>73</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="U48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="U49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="U50" t="s">
-        <v>372</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U51" t="s">
-        <v>78</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="U55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="U56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="U58" t="s">
-        <v>240</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U59" t="s">
-        <v>415</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="U60" t="s">
-        <v>85</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="U62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U63" t="s">
-        <v>88</v>
+        <v>461</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U64" t="s">
-        <v>223</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="U65" t="s">
-        <v>224</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U66" t="s">
-        <v>89</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U67" t="s">
-        <v>90</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="U68" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="U69" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U70" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U71" t="s">
-        <v>225</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U72" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U73" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U74" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U75" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U76" t="s">
-        <v>94</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="U77" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U79" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U80" t="s">
-        <v>231</v>
+        <v>462</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U81" t="s">
-        <v>232</v>
+        <v>464</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U82" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U83" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U84" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U85" t="s">
-        <v>96</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U86" t="s">
-        <v>409</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U87" t="s">
-        <v>97</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="U88" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U89" t="s">
-        <v>99</v>
+        <v>408</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U90" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U91" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U92" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>117</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="U109" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="U110" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="U111" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -6006,7 +5432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1007"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A2" workbookViewId="0" zoomScale="100" zoomScaleNormal="125" zoomScalePageLayoutView="125">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -6039,10 +5465,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>420</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>421</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>16</v>
@@ -6057,7 +5483,7 @@
     </row>
     <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -6087,13 +5513,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="13" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>2</v>
@@ -6132,20 +5558,20 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -6161,16 +5587,16 @@
       <c r="A6" s="19"/>
       <c r="B6"/>
       <c r="C6" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>342</v>
+        <v>457</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -6186,16 +5612,16 @@
       <c r="A7" s="19"/>
       <c r="B7"/>
       <c r="C7" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -6211,16 +5637,16 @@
       <c r="A8" s="19"/>
       <c r="B8"/>
       <c r="C8" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -6236,16 +5662,16 @@
       <c r="A9" s="19"/>
       <c r="B9"/>
       <c r="C9" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -6261,16 +5687,16 @@
       <c r="A10" s="19"/>
       <c r="B10"/>
       <c r="C10" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -6286,16 +5712,16 @@
       <c r="A11" s="19"/>
       <c r="B11"/>
       <c r="C11" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>342</v>
+        <v>457</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -6311,13 +5737,13 @@
       <c r="A12" s="19"/>
       <c r="B12"/>
       <c r="C12" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
@@ -6334,16 +5760,16 @@
       <c r="A13" s="19"/>
       <c r="B13"/>
       <c r="C13" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>342</v>
+        <v>457</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -6362,13 +5788,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -6384,13 +5810,13 @@
       <c r="A15" s="19"/>
       <c r="B15"/>
       <c r="C15" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
@@ -6407,16 +5833,16 @@
       <c r="A16" s="19"/>
       <c r="B16"/>
       <c r="C16" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>342</v>
+        <v>457</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -6432,16 +5858,16 @@
       <c r="A17" s="19"/>
       <c r="B17"/>
       <c r="C17" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -6457,16 +5883,16 @@
       <c r="A18" s="19"/>
       <c r="B18"/>
       <c r="C18" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>342</v>
+        <v>457</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
@@ -6482,16 +5908,16 @@
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -6507,16 +5933,16 @@
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>342</v>
+        <v>457</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -6532,16 +5958,16 @@
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -6557,16 +5983,16 @@
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>342</v>
+        <v>457</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -6582,16 +6008,16 @@
       <c r="A23" s="19"/>
       <c r="B23"/>
       <c r="C23" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
@@ -6607,16 +6033,16 @@
       <c r="A24" s="19"/>
       <c r="B24"/>
       <c r="C24" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>342</v>
+        <v>457</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
@@ -6635,13 +6061,13 @@
         <v>13</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
@@ -6657,16 +6083,16 @@
       <c r="A26" s="19"/>
       <c r="B26"/>
       <c r="C26" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -6682,16 +6108,16 @@
       <c r="A27" s="19"/>
       <c r="B27"/>
       <c r="C27" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>342</v>
+        <v>457</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -6710,13 +6136,13 @@
         <v>13</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
@@ -6732,16 +6158,16 @@
       <c r="A29" s="19"/>
       <c r="B29"/>
       <c r="C29" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
@@ -6757,16 +6183,16 @@
       <c r="A30" s="19"/>
       <c r="B30"/>
       <c r="C30" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>342</v>
+        <v>457</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="466">
   <si>
     <t>description</t>
   </si>
@@ -1457,6 +1457,9 @@
   </si>
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1467,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="72" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1825,8 +1828,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2304,8 +2401,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="93">
+  <borders count="121">
     <border>
       <left/>
       <right/>
@@ -2404,6 +2654,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -3265,7 +3797,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="92">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3475,49 +4007,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="60" borderId="72" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="72" fillId="60" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="63" borderId="76" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="76" fillId="63" fontId="44" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="66" borderId="80" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="80" fillId="66" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="47" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="72" borderId="84" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="84" fillId="72" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="75" borderId="88" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="88" fillId="75" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="78" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="78" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="78" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="78" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="87" borderId="100" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="90" borderId="104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="93" borderId="108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="99" borderId="112" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="102" borderId="116" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="105" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="105" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3849,7 +4426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5061,7 +5638,7 @@
         <v>362</v>
       </c>
       <c r="U59" t="s">
-        <v>239</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60">
@@ -5069,7 +5646,7 @@
         <v>335</v>
       </c>
       <c r="U60" t="s">
-        <v>414</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61">
@@ -5077,7 +5654,7 @@
         <v>336</v>
       </c>
       <c r="U61" t="s">
-        <v>85</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62">
@@ -5085,7 +5662,7 @@
         <v>394</v>
       </c>
       <c r="U62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63">
@@ -5093,7 +5670,7 @@
         <v>395</v>
       </c>
       <c r="U63" t="s">
-        <v>461</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64">
@@ -5101,7 +5678,7 @@
         <v>370</v>
       </c>
       <c r="U64" t="s">
-        <v>87</v>
+        <v>461</v>
       </c>
     </row>
     <row r="65">
@@ -5109,7 +5686,7 @@
         <v>339</v>
       </c>
       <c r="U65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66">
@@ -5117,7 +5694,7 @@
         <v>294</v>
       </c>
       <c r="U66" t="s">
-        <v>222</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67">
@@ -5125,7 +5702,7 @@
         <v>378</v>
       </c>
       <c r="U67" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68">
@@ -5133,7 +5710,7 @@
         <v>340</v>
       </c>
       <c r="U68" t="s">
-        <v>89</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69">
@@ -5141,7 +5718,7 @@
         <v>435</v>
       </c>
       <c r="U69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70">
@@ -5149,7 +5726,7 @@
         <v>329</v>
       </c>
       <c r="U70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71">
@@ -5157,7 +5734,7 @@
         <v>436</v>
       </c>
       <c r="U71" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72">
@@ -5165,7 +5742,7 @@
         <v>287</v>
       </c>
       <c r="U72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73">
@@ -5173,7 +5750,7 @@
         <v>369</v>
       </c>
       <c r="U73" t="s">
-        <v>224</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74">
@@ -5181,7 +5758,7 @@
         <v>305</v>
       </c>
       <c r="U74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75">
@@ -5189,7 +5766,7 @@
         <v>311</v>
       </c>
       <c r="U75" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76">
@@ -5197,7 +5774,7 @@
         <v>316</v>
       </c>
       <c r="U76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77">
@@ -5205,7 +5782,7 @@
         <v>454</v>
       </c>
       <c r="U77" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78">
@@ -5213,7 +5790,7 @@
         <v>357</v>
       </c>
       <c r="U78" t="s">
-        <v>94</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79">
@@ -5221,7 +5798,7 @@
         <v>295</v>
       </c>
       <c r="U79" t="s">
-        <v>228</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80">
@@ -5229,7 +5806,7 @@
         <v>306</v>
       </c>
       <c r="U80" t="s">
-        <v>462</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81">
@@ -5237,7 +5814,7 @@
         <v>312</v>
       </c>
       <c r="U81" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="82">
@@ -5245,7 +5822,7 @@
         <v>301</v>
       </c>
       <c r="U82" t="s">
-        <v>229</v>
+        <v>464</v>
       </c>
     </row>
     <row r="83">
@@ -5253,7 +5830,7 @@
         <v>296</v>
       </c>
       <c r="U83" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84">
@@ -5261,7 +5838,7 @@
         <v>313</v>
       </c>
       <c r="U84" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85">
@@ -5269,7 +5846,7 @@
         <v>297</v>
       </c>
       <c r="U85" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="86">
@@ -5277,7 +5854,7 @@
         <v>298</v>
       </c>
       <c r="U86" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="87">
@@ -5285,7 +5862,7 @@
         <v>330</v>
       </c>
       <c r="U87" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88">
@@ -5293,7 +5870,7 @@
         <v>337</v>
       </c>
       <c r="U88" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
     </row>
     <row r="89">
@@ -5301,7 +5878,7 @@
         <v>331</v>
       </c>
       <c r="U89" t="s">
-        <v>408</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90">
@@ -5309,7 +5886,7 @@
         <v>365</v>
       </c>
       <c r="U90" t="s">
-        <v>96</v>
+        <v>408</v>
       </c>
     </row>
     <row r="91">
@@ -5317,7 +5894,7 @@
         <v>302</v>
       </c>
       <c r="U91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92">
@@ -5325,101 +5902,106 @@
         <v>303</v>
       </c>
       <c r="U92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -19,16 +19,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,8 +42,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="474">
   <si>
     <t>description</t>
   </si>
@@ -1460,6 +1460,30 @@
   </si>
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1491,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="72" x14ac:knownFonts="1">
+  <fonts count="87" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1922,8 +1946,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2554,8 +2672,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="121">
+  <borders count="149">
     <border>
       <left/>
       <right/>
@@ -2654,6 +2925,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -3797,7 +4350,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="107">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4052,49 +4605,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="87" borderId="100" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="100" fillId="87" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="90" borderId="104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="104" fillId="90" fontId="59" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="93" borderId="108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="108" fillId="93" fontId="60" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="99" borderId="112" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="112" fillId="99" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="102" borderId="116" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="116" fillId="102" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="105" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="120" fillId="105" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="105" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="120" fillId="105" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="114" borderId="128" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="117" borderId="132" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="120" borderId="136" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="126" borderId="140" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="129" borderId="144" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="132" borderId="148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="132" borderId="148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4426,7 +5024,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4752,6 +5350,9 @@
       <c r="C5" t="s">
         <v>249</v>
       </c>
+      <c r="D5" t="s">
+        <v>466</v>
+      </c>
       <c r="E5" t="s">
         <v>361</v>
       </c>
@@ -4845,7 +5446,7 @@
         <v>43</v>
       </c>
       <c r="V6" t="s">
-        <v>121</v>
+        <v>472</v>
       </c>
       <c r="W6" t="s">
         <v>126</v>
@@ -4900,6 +5501,9 @@
       <c r="U7" t="s">
         <v>44</v>
       </c>
+      <c r="V7" t="s">
+        <v>473</v>
+      </c>
       <c r="W7" t="s">
         <v>130</v>
       </c>
@@ -4950,6 +5554,9 @@
       <c r="U8" t="s">
         <v>45</v>
       </c>
+      <c r="V8" t="s">
+        <v>121</v>
+      </c>
       <c r="W8" t="s">
         <v>127</v>
       </c>
@@ -5018,7 +5625,7 @@
         <v>149</v>
       </c>
       <c r="K10" t="s">
-        <v>218</v>
+        <v>468</v>
       </c>
       <c r="M10" t="s">
         <v>459</v>
@@ -5053,7 +5660,7 @@
         <v>150</v>
       </c>
       <c r="K11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M11" t="s">
         <v>166</v>
@@ -5085,7 +5692,7 @@
         <v>195</v>
       </c>
       <c r="K12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M12" t="s">
         <v>26</v>
@@ -5113,6 +5720,9 @@
       <c r="I13" t="s">
         <v>196</v>
       </c>
+      <c r="K13" t="s">
+        <v>220</v>
+      </c>
       <c r="M13" t="s">
         <v>167</v>
       </c>
@@ -5263,7 +5873,7 @@
         <v>321</v>
       </c>
       <c r="I20" t="s">
-        <v>153</v>
+        <v>467</v>
       </c>
       <c r="U20" t="s">
         <v>53</v>
@@ -5280,7 +5890,7 @@
         <v>322</v>
       </c>
       <c r="I21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U21" t="s">
         <v>54</v>
@@ -5296,6 +5906,9 @@
       <c r="E22" t="s">
         <v>323</v>
       </c>
+      <c r="I22" t="s">
+        <v>154</v>
+      </c>
       <c r="U22" t="s">
         <v>55</v>
       </c>
@@ -5526,7 +6139,7 @@
         <v>367</v>
       </c>
       <c r="U45" t="s">
-        <v>238</v>
+        <v>469</v>
       </c>
     </row>
     <row r="46">
@@ -5534,7 +6147,7 @@
         <v>236</v>
       </c>
       <c r="U46" t="s">
-        <v>73</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47">
@@ -5542,7 +6155,7 @@
         <v>326</v>
       </c>
       <c r="U47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48">
@@ -5550,7 +6163,7 @@
         <v>364</v>
       </c>
       <c r="U48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49">
@@ -5558,7 +6171,7 @@
         <v>393</v>
       </c>
       <c r="U49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
@@ -5566,7 +6179,7 @@
         <v>327</v>
       </c>
       <c r="U50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
@@ -5574,7 +6187,7 @@
         <v>381</v>
       </c>
       <c r="U51" t="s">
-        <v>371</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
@@ -5582,7 +6195,7 @@
         <v>356</v>
       </c>
       <c r="U52" t="s">
-        <v>78</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53">
@@ -5590,7 +6203,7 @@
         <v>293</v>
       </c>
       <c r="U53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
@@ -5598,7 +6211,7 @@
         <v>317</v>
       </c>
       <c r="U54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
@@ -5606,7 +6219,7 @@
         <v>318</v>
       </c>
       <c r="U55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
@@ -5614,7 +6227,7 @@
         <v>319</v>
       </c>
       <c r="U56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57">
@@ -5622,7 +6235,7 @@
         <v>328</v>
       </c>
       <c r="U57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58">
@@ -5630,7 +6243,7 @@
         <v>338</v>
       </c>
       <c r="U58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59">
@@ -5638,7 +6251,7 @@
         <v>362</v>
       </c>
       <c r="U59" t="s">
-        <v>465</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60">
@@ -5646,7 +6259,7 @@
         <v>335</v>
       </c>
       <c r="U60" t="s">
-        <v>239</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61">
@@ -5654,7 +6267,7 @@
         <v>336</v>
       </c>
       <c r="U61" t="s">
-        <v>414</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62">
@@ -5662,7 +6275,7 @@
         <v>394</v>
       </c>
       <c r="U62" t="s">
-        <v>85</v>
+        <v>414</v>
       </c>
     </row>
     <row r="63">
@@ -5670,7 +6283,7 @@
         <v>395</v>
       </c>
       <c r="U63" t="s">
-        <v>86</v>
+        <v>470</v>
       </c>
     </row>
     <row r="64">
@@ -5678,7 +6291,7 @@
         <v>370</v>
       </c>
       <c r="U64" t="s">
-        <v>461</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65">
@@ -5686,7 +6299,7 @@
         <v>339</v>
       </c>
       <c r="U65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66">
@@ -5694,7 +6307,7 @@
         <v>294</v>
       </c>
       <c r="U66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67">
@@ -5702,7 +6315,7 @@
         <v>378</v>
       </c>
       <c r="U67" t="s">
-        <v>222</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68">
@@ -5710,7 +6323,7 @@
         <v>340</v>
       </c>
       <c r="U68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69">
@@ -5718,7 +6331,7 @@
         <v>435</v>
       </c>
       <c r="U69" t="s">
-        <v>89</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70">
@@ -5726,7 +6339,7 @@
         <v>329</v>
       </c>
       <c r="U70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71">
@@ -5734,7 +6347,7 @@
         <v>436</v>
       </c>
       <c r="U71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
@@ -5742,7 +6355,7 @@
         <v>287</v>
       </c>
       <c r="U72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73">
@@ -5750,7 +6363,7 @@
         <v>369</v>
       </c>
       <c r="U73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74">
@@ -5758,7 +6371,7 @@
         <v>305</v>
       </c>
       <c r="U74" t="s">
-        <v>224</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75">
@@ -5766,7 +6379,7 @@
         <v>311</v>
       </c>
       <c r="U75" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76">
@@ -5774,7 +6387,7 @@
         <v>316</v>
       </c>
       <c r="U76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77">
@@ -5782,7 +6395,7 @@
         <v>454</v>
       </c>
       <c r="U77" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78">
@@ -5790,7 +6403,7 @@
         <v>357</v>
       </c>
       <c r="U78" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79">
@@ -5798,7 +6411,7 @@
         <v>295</v>
       </c>
       <c r="U79" t="s">
-        <v>94</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80">
@@ -5806,7 +6419,7 @@
         <v>306</v>
       </c>
       <c r="U80" t="s">
-        <v>228</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81">
@@ -5814,7 +6427,7 @@
         <v>312</v>
       </c>
       <c r="U81" t="s">
-        <v>462</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82">
@@ -5822,7 +6435,7 @@
         <v>301</v>
       </c>
       <c r="U82" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="83">
@@ -5830,7 +6443,7 @@
         <v>296</v>
       </c>
       <c r="U83" t="s">
-        <v>229</v>
+        <v>464</v>
       </c>
     </row>
     <row r="84">
@@ -5838,7 +6451,7 @@
         <v>313</v>
       </c>
       <c r="U84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85">
@@ -5846,7 +6459,7 @@
         <v>297</v>
       </c>
       <c r="U85" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="86">
@@ -5854,7 +6467,7 @@
         <v>298</v>
       </c>
       <c r="U86" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87">
@@ -5862,7 +6475,7 @@
         <v>330</v>
       </c>
       <c r="U87" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88">
@@ -5870,7 +6483,7 @@
         <v>337</v>
       </c>
       <c r="U88" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89">
@@ -5878,7 +6491,7 @@
         <v>331</v>
       </c>
       <c r="U89" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90">
@@ -5886,7 +6499,7 @@
         <v>365</v>
       </c>
       <c r="U90" t="s">
-        <v>408</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91">
@@ -5894,7 +6507,7 @@
         <v>302</v>
       </c>
       <c r="U91" t="s">
-        <v>96</v>
+        <v>408</v>
       </c>
     </row>
     <row r="92">
@@ -5902,106 +6515,116 @@
         <v>303</v>
       </c>
       <c r="U92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>110</v>
+        <v>471</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3272" uniqueCount="474">
   <si>
     <t>description</t>
   </si>
@@ -1491,7 +1491,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="87" x14ac:knownFonts="1">
+  <fonts count="102" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2040,8 +2040,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2825,8 +2919,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="149">
+  <borders count="177">
     <border>
       <left/>
       <right/>
@@ -2925,6 +3172,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -4350,7 +4879,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="122">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4650,49 +5179,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="114" borderId="128" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="128" fillId="114" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="117" borderId="132" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="132" fillId="117" fontId="74" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="120" borderId="136" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="136" fillId="120" fontId="75" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="126" borderId="140" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="140" fillId="126" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="129" borderId="144" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="144" fillId="129" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="132" borderId="148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="148" fillId="132" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="132" borderId="148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="148" fillId="132" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="141" borderId="156" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="144" borderId="160" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="147" borderId="164" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="153" borderId="168" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="156" borderId="172" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="159" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="159" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3272" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3727" uniqueCount="474">
   <si>
     <t>description</t>
   </si>
@@ -1491,7 +1491,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="102" x14ac:knownFonts="1">
+  <fonts count="117" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2134,8 +2134,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3072,8 +3166,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="177">
+  <borders count="205">
     <border>
       <left/>
       <right/>
@@ -3172,6 +3419,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -4879,7 +5408,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="137">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5224,49 +5753,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="141" borderId="156" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="156" fillId="141" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="144" borderId="160" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="160" fillId="144" fontId="89" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="147" borderId="164" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="164" fillId="147" fontId="90" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="92" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="153" borderId="168" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="168" fillId="153" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="156" borderId="172" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="172" fillId="156" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="159" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="176" fillId="159" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="159" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="176" fillId="159" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="168" borderId="184" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="171" borderId="188" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="174" borderId="192" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="180" borderId="196" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="183" borderId="200" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="186" borderId="204" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="186" borderId="204" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -28,7 +28,7 @@
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3727" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4183" uniqueCount="474">
   <si>
     <t>description</t>
   </si>
@@ -1491,7 +1491,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="117" x14ac:knownFonts="1">
+  <fonts count="132" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2228,8 +2228,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3319,8 +3413,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="205">
+  <borders count="233">
     <border>
       <left/>
       <right/>
@@ -3419,6 +3666,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -5408,7 +5937,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="152">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5798,49 +6327,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="168" borderId="184" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="184" fillId="168" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="171" borderId="188" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="188" fillId="171" fontId="104" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="174" borderId="192" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="192" fillId="174" fontId="105" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="107" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="180" borderId="196" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="196" fillId="180" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="183" borderId="200" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="200" fillId="183" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="186" borderId="204" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="204" fillId="186" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="186" borderId="204" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="204" fillId="186" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="195" borderId="212" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="198" borderId="216" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="201" borderId="220" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="207" borderId="224" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="210" borderId="228" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="213" borderId="232" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="213" borderId="232" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6629,7 +7203,7 @@
         <v>194</v>
       </c>
       <c r="K7" t="s">
-        <v>215</v>
+        <v>341</v>
       </c>
       <c r="M7" t="s">
         <v>24</v>
@@ -6685,7 +7259,7 @@
         <v>148</v>
       </c>
       <c r="K8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M8" t="s">
         <v>164</v>
@@ -6735,7 +7309,7 @@
         <v>415</v>
       </c>
       <c r="K9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M9" t="s">
         <v>165</v>
@@ -6773,7 +7347,7 @@
         <v>149</v>
       </c>
       <c r="K10" t="s">
-        <v>468</v>
+        <v>217</v>
       </c>
       <c r="M10" t="s">
         <v>459</v>
@@ -6808,7 +7382,7 @@
         <v>150</v>
       </c>
       <c r="K11" t="s">
-        <v>218</v>
+        <v>468</v>
       </c>
       <c r="M11" t="s">
         <v>166</v>
@@ -6840,7 +7414,7 @@
         <v>195</v>
       </c>
       <c r="K12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M12" t="s">
         <v>26</v>
@@ -6869,7 +7443,7 @@
         <v>196</v>
       </c>
       <c r="K13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M13" t="s">
         <v>167</v>
@@ -6896,6 +7470,9 @@
       </c>
       <c r="I14" t="s">
         <v>197</v>
+      </c>
+      <c r="K14" t="s">
+        <v>220</v>
       </c>
       <c r="M14" t="s">
         <v>168</v>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -23,7 +23,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4183" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4641" uniqueCount="476">
   <si>
     <t>description</t>
   </si>
@@ -1484,6 +1484,12 @@
   </si>
   <si>
     <t>replyOK(text)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1497,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="132" x14ac:knownFonts="1">
+  <fonts count="147" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2322,8 +2328,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3566,8 +3666,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="233">
+  <borders count="261">
     <border>
       <left/>
       <right/>
@@ -3666,6 +3919,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -5937,7 +6472,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="167">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6372,49 +6907,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="195" borderId="212" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="212" fillId="195" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="198" borderId="216" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="216" fillId="198" fontId="119" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="201" borderId="220" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="220" fillId="201" fontId="120" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="122" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="207" borderId="224" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="224" fillId="207" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="210" borderId="228" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="228" fillId="210" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="213" borderId="232" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="232" fillId="213" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="213" borderId="232" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="232" fillId="213" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="222" borderId="240" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="225" borderId="244" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="228" borderId="248" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="234" borderId="252" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="237" borderId="256" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="240" borderId="260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="240" borderId="260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6934,7 +7514,7 @@
         <v>204</v>
       </c>
       <c r="F3" t="s">
-        <v>353</v>
+        <v>474</v>
       </c>
       <c r="G3" t="s">
         <v>146</v>
@@ -7008,7 +7588,7 @@
         <v>412</v>
       </c>
       <c r="F4" t="s">
-        <v>354</v>
+        <v>475</v>
       </c>
       <c r="H4" t="s">
         <v>376</v>
@@ -7079,7 +7659,7 @@
         <v>361</v>
       </c>
       <c r="F5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="H5" t="s">
         <v>373</v>
@@ -7141,7 +7721,7 @@
         <v>413</v>
       </c>
       <c r="F6" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="I6" t="s">
         <v>147</v>
@@ -7197,7 +7777,7 @@
         <v>391</v>
       </c>
       <c r="F7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I7" t="s">
         <v>194</v>
@@ -7253,7 +7833,7 @@
         <v>392</v>
       </c>
       <c r="F8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I8" t="s">
         <v>148</v>
@@ -7305,6 +7885,9 @@
       <c r="E9" t="s">
         <v>332</v>
       </c>
+      <c r="F9" t="s">
+        <v>349</v>
+      </c>
       <c r="I9" t="s">
         <v>415</v>
       </c>
@@ -7342,6 +7925,9 @@
       </c>
       <c r="E10" t="s">
         <v>377</v>
+      </c>
+      <c r="F10" t="s">
+        <v>350</v>
       </c>
       <c r="I10" t="s">
         <v>149</v>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -18,12 +18,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4641" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5565" uniqueCount="481">
   <si>
     <t>description</t>
   </si>
@@ -1490,6 +1490,21 @@
   </si>
   <si>
     <t>json(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1512,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="147" x14ac:knownFonts="1">
+  <fonts count="177" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2422,8 +2437,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3819,8 +4022,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="261">
+  <borders count="317">
     <border>
       <left/>
       <right/>
@@ -3919,6 +4428,570 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -6472,7 +7545,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="197">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6952,49 +8025,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="222" borderId="240" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="240" fillId="222" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="225" borderId="244" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="244" fillId="225" fontId="134" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="228" borderId="248" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="248" fillId="228" fontId="135" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="137" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="234" borderId="252" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="252" fillId="234" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="237" borderId="256" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="256" fillId="237" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="240" borderId="260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="260" fillId="240" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="240" borderId="260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="260" fillId="240" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="268" fillId="249" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="272" fillId="252" fontId="149" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="276" fillId="255" fontId="150" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="151" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="152" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="280" fillId="261" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="284" fillId="264" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="288" fillId="267" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="288" fillId="267" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="158" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="276" borderId="296" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="279" borderId="300" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="282" borderId="304" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="288" borderId="308" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="291" borderId="312" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="294" borderId="316" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="294" borderId="316" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7434,7 +8597,7 @@
         <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>203</v>
+        <v>477</v>
       </c>
       <c r="G2" t="s">
         <v>145</v>
@@ -7514,7 +8677,7 @@
         <v>204</v>
       </c>
       <c r="F3" t="s">
-        <v>474</v>
+        <v>203</v>
       </c>
       <c r="G3" t="s">
         <v>146</v>
@@ -7588,7 +8751,7 @@
         <v>412</v>
       </c>
       <c r="F4" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="H4" t="s">
         <v>376</v>
@@ -7659,7 +8822,7 @@
         <v>361</v>
       </c>
       <c r="F5" t="s">
-        <v>353</v>
+        <v>479</v>
       </c>
       <c r="H5" t="s">
         <v>373</v>
@@ -7721,7 +8884,7 @@
         <v>413</v>
       </c>
       <c r="F6" t="s">
-        <v>354</v>
+        <v>475</v>
       </c>
       <c r="I6" t="s">
         <v>147</v>
@@ -7777,7 +8940,7 @@
         <v>391</v>
       </c>
       <c r="F7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="I7" t="s">
         <v>194</v>
@@ -7833,7 +8996,7 @@
         <v>392</v>
       </c>
       <c r="F8" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="I8" t="s">
         <v>148</v>
@@ -7886,7 +9049,7 @@
         <v>332</v>
       </c>
       <c r="F9" t="s">
-        <v>349</v>
+        <v>480</v>
       </c>
       <c r="I9" t="s">
         <v>415</v>
@@ -7927,7 +9090,7 @@
         <v>377</v>
       </c>
       <c r="F10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I10" t="s">
         <v>149</v>
@@ -7964,6 +9127,9 @@
       <c r="E11" t="s">
         <v>299</v>
       </c>
+      <c r="F11" t="s">
+        <v>348</v>
+      </c>
       <c r="I11" t="s">
         <v>150</v>
       </c>
@@ -7996,6 +9162,9 @@
       <c r="E12" t="s">
         <v>288</v>
       </c>
+      <c r="F12" t="s">
+        <v>349</v>
+      </c>
       <c r="I12" t="s">
         <v>195</v>
       </c>
@@ -8025,6 +9194,9 @@
       <c r="E13" t="s">
         <v>342</v>
       </c>
+      <c r="F13" t="s">
+        <v>350</v>
+      </c>
       <c r="I13" t="s">
         <v>196</v>
       </c>
@@ -8229,7 +9401,7 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>250</v>
+        <v>476</v>
       </c>
       <c r="E23" t="s">
         <v>315</v>
@@ -8243,7 +9415,7 @@
         <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E24" t="s">
         <v>304</v>
@@ -8257,7 +9429,7 @@
         <v>448</v>
       </c>
       <c r="C25" t="s">
-        <v>444</v>
+        <v>251</v>
       </c>
       <c r="E25" t="s">
         <v>156</v>
@@ -8271,7 +9443,7 @@
         <v>252</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>444</v>
       </c>
       <c r="E26" t="s">
         <v>307</v>
@@ -8282,7 +9454,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="E27" t="s">
         <v>291</v>
@@ -8293,7 +9465,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
         <v>308</v>
@@ -8304,7 +9476,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
         <v>309</v>
@@ -8315,7 +9487,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E30" t="s">
         <v>241</v>
@@ -8326,7 +9498,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E31" t="s">
         <v>300</v>
@@ -8337,7 +9509,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="E32" t="s">
         <v>310</v>
@@ -8348,7 +9520,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
         <v>285</v>
@@ -8358,6 +9530,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>155</v>
+      </c>
       <c r="E34" t="s">
         <v>355</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5565" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6491" uniqueCount="483">
   <si>
     <t>description</t>
   </si>
@@ -1505,6 +1505,12 @@
   </si>
   <si>
     <t>setPassword(file,password)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1518,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="177" x14ac:knownFonts="1">
+  <fonts count="207" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2625,8 +2631,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="301">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4328,8 +4522,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="317">
+  <borders count="373">
     <border>
       <left/>
       <right/>
@@ -4428,6 +4928,570 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -7545,7 +8609,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="227">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8115,49 +9179,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="276" borderId="296" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="296" fillId="276" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="279" borderId="300" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="300" fillId="279" fontId="164" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="282" borderId="304" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="304" fillId="282" fontId="165" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="166" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="167" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="288" borderId="308" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="308" fillId="288" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="291" borderId="312" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="312" fillId="291" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="294" borderId="316" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="316" fillId="294" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="294" borderId="316" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="316" fillId="294" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="174" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="324" fillId="303" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="328" fillId="306" fontId="179" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="332" fillId="309" fontId="180" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="181" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="182" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="336" fillId="315" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="340" fillId="318" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="344" fillId="321" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="344" fillId="321" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="191" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="330" borderId="352" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="333" borderId="356" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="336" borderId="360" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="342" borderId="364" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="345" borderId="368" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="348" borderId="372" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="348" borderId="372" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8489,7 +9643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9881,7 +11035,7 @@
         <v>454</v>
       </c>
       <c r="U77" t="s">
-        <v>226</v>
+        <v>482</v>
       </c>
     </row>
     <row r="78">
@@ -9889,7 +11043,7 @@
         <v>357</v>
       </c>
       <c r="U78" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79">
@@ -9897,7 +11051,7 @@
         <v>295</v>
       </c>
       <c r="U79" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80">
@@ -9905,7 +11059,7 @@
         <v>306</v>
       </c>
       <c r="U80" t="s">
-        <v>94</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81">
@@ -9913,7 +11067,7 @@
         <v>312</v>
       </c>
       <c r="U81" t="s">
-        <v>228</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82">
@@ -9921,7 +11075,7 @@
         <v>301</v>
       </c>
       <c r="U82" t="s">
-        <v>462</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83">
@@ -9929,7 +11083,7 @@
         <v>296</v>
       </c>
       <c r="U83" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="84">
@@ -9937,7 +11091,7 @@
         <v>313</v>
       </c>
       <c r="U84" t="s">
-        <v>229</v>
+        <v>464</v>
       </c>
     </row>
     <row r="85">
@@ -9945,7 +11099,7 @@
         <v>297</v>
       </c>
       <c r="U85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="86">
@@ -9953,7 +11107,7 @@
         <v>298</v>
       </c>
       <c r="U86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87">
@@ -9961,7 +11115,7 @@
         <v>330</v>
       </c>
       <c r="U87" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="88">
@@ -9969,7 +11123,7 @@
         <v>337</v>
       </c>
       <c r="U88" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89">
@@ -9977,7 +11131,7 @@
         <v>331</v>
       </c>
       <c r="U89" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90">
@@ -9985,7 +11139,7 @@
         <v>365</v>
       </c>
       <c r="U90" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91">
@@ -9993,7 +11147,7 @@
         <v>302</v>
       </c>
       <c r="U91" t="s">
-        <v>408</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92">
@@ -10001,116 +11155,121 @@
         <v>303</v>
       </c>
       <c r="U92" t="s">
-        <v>96</v>
+        <v>408</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>471</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>109</v>
+        <v>471</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6491" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6955" uniqueCount="484">
   <si>
     <t>description</t>
   </si>
@@ -1511,6 +1511,9 @@
   </si>
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1521,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="207" x14ac:knownFonts="1">
+  <fonts count="222" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2819,8 +2822,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4828,8 +4925,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="373">
+  <borders count="401">
     <border>
       <left/>
       <right/>
@@ -4928,6 +5178,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -8609,7 +9141,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="242">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9269,49 +9801,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="330" borderId="352" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="352" fillId="330" fontId="192" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="193" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="333" borderId="356" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="356" fillId="333" fontId="194" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="336" borderId="360" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="360" fillId="336" fontId="195" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="196" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="197" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="199" fillId="342" borderId="364" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="200" fillId="345" borderId="368" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="201" fillId="348" borderId="372" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="202" fillId="348" borderId="372" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="203" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="204" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="205" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="198" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="364" fillId="342" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="368" fillId="345" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="372" fillId="348" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="372" fillId="348" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="206" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="357" borderId="380" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="360" borderId="384" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="363" borderId="388" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="369" borderId="392" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="372" borderId="396" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="375" borderId="400" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="375" borderId="400" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9643,7 +10220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10979,7 +11556,7 @@
         <v>329</v>
       </c>
       <c r="U70" t="s">
-        <v>89</v>
+        <v>483</v>
       </c>
     </row>
     <row r="71">
@@ -10987,7 +11564,7 @@
         <v>436</v>
       </c>
       <c r="U71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72">
@@ -10995,7 +11572,7 @@
         <v>287</v>
       </c>
       <c r="U72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73">
@@ -11003,7 +11580,7 @@
         <v>369</v>
       </c>
       <c r="U73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74">
@@ -11011,7 +11588,7 @@
         <v>305</v>
       </c>
       <c r="U74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75">
@@ -11019,7 +11596,7 @@
         <v>311</v>
       </c>
       <c r="U75" t="s">
-        <v>224</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76">
@@ -11027,7 +11604,7 @@
         <v>316</v>
       </c>
       <c r="U76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77">
@@ -11035,7 +11612,7 @@
         <v>454</v>
       </c>
       <c r="U77" t="s">
-        <v>482</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78">
@@ -11043,7 +11620,7 @@
         <v>357</v>
       </c>
       <c r="U78" t="s">
-        <v>226</v>
+        <v>482</v>
       </c>
     </row>
     <row r="79">
@@ -11051,7 +11628,7 @@
         <v>295</v>
       </c>
       <c r="U79" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80">
@@ -11059,7 +11636,7 @@
         <v>306</v>
       </c>
       <c r="U80" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81">
@@ -11067,7 +11644,7 @@
         <v>312</v>
       </c>
       <c r="U81" t="s">
-        <v>94</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82">
@@ -11075,7 +11652,7 @@
         <v>301</v>
       </c>
       <c r="U82" t="s">
-        <v>228</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83">
@@ -11083,7 +11660,7 @@
         <v>296</v>
       </c>
       <c r="U83" t="s">
-        <v>462</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84">
@@ -11091,7 +11668,7 @@
         <v>313</v>
       </c>
       <c r="U84" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="85">
@@ -11099,7 +11676,7 @@
         <v>297</v>
       </c>
       <c r="U85" t="s">
-        <v>229</v>
+        <v>464</v>
       </c>
     </row>
     <row r="86">
@@ -11107,7 +11684,7 @@
         <v>298</v>
       </c>
       <c r="U86" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87">
@@ -11115,7 +11692,7 @@
         <v>330</v>
       </c>
       <c r="U87" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88">
@@ -11123,7 +11700,7 @@
         <v>337</v>
       </c>
       <c r="U88" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89">
@@ -11131,7 +11708,7 @@
         <v>331</v>
       </c>
       <c r="U89" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90">
@@ -11139,7 +11716,7 @@
         <v>365</v>
       </c>
       <c r="U90" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91">
@@ -11147,7 +11724,7 @@
         <v>302</v>
       </c>
       <c r="U91" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92">
@@ -11155,121 +11732,126 @@
         <v>303</v>
       </c>
       <c r="U92" t="s">
-        <v>408</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>96</v>
+        <v>408</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>471</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>109</v>
+        <v>471</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -23,7 +23,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6955" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7420" uniqueCount="485">
   <si>
     <t>description</t>
   </si>
@@ -1514,6 +1514,9 @@
   </si>
   <si>
     <t>openHttpBasic(url,username,password)</t>
+  </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
 </sst>
 </file>
@@ -1521,7 +1524,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="222" x14ac:knownFonts="1">
+  <fonts count="237" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2916,8 +2919,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="382">
+  <fills count="409">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5078,8 +5175,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="401">
+  <borders count="429">
     <border>
       <left/>
       <right/>
@@ -5178,6 +5428,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -9141,7 +9673,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="257">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9846,49 +10378,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="357" borderId="380" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="380" fillId="357" fontId="207" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="360" borderId="384" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="384" fillId="360" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="363" borderId="388" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="388" fillId="363" fontId="210" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="211" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="212" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="214" fillId="369" borderId="392" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="215" fillId="372" borderId="396" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="216" fillId="375" borderId="400" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="217" fillId="375" borderId="400" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="218" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="219" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="220" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="213" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="392" fillId="369" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="396" fillId="372" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="400" fillId="375" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="400" fillId="375" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="384" borderId="408" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="387" borderId="412" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="390" borderId="416" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="396" borderId="420" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="399" borderId="424" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="402" borderId="428" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="402" borderId="428" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10553,7 +11130,7 @@
         <v>361</v>
       </c>
       <c r="F5" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="H5" t="s">
         <v>373</v>
@@ -10615,7 +11192,7 @@
         <v>413</v>
       </c>
       <c r="F6" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="I6" t="s">
         <v>147</v>
@@ -10671,7 +11248,7 @@
         <v>391</v>
       </c>
       <c r="F7" t="s">
-        <v>353</v>
+        <v>475</v>
       </c>
       <c r="I7" t="s">
         <v>194</v>
@@ -10727,7 +11304,7 @@
         <v>392</v>
       </c>
       <c r="F8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I8" t="s">
         <v>148</v>
@@ -10780,7 +11357,7 @@
         <v>332</v>
       </c>
       <c r="F9" t="s">
-        <v>480</v>
+        <v>354</v>
       </c>
       <c r="I9" t="s">
         <v>415</v>
@@ -10821,7 +11398,7 @@
         <v>377</v>
       </c>
       <c r="F10" t="s">
-        <v>347</v>
+        <v>480</v>
       </c>
       <c r="I10" t="s">
         <v>149</v>
@@ -10859,7 +11436,7 @@
         <v>299</v>
       </c>
       <c r="F11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I11" t="s">
         <v>150</v>
@@ -10894,7 +11471,7 @@
         <v>288</v>
       </c>
       <c r="F12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I12" t="s">
         <v>195</v>
@@ -10926,7 +11503,7 @@
         <v>342</v>
       </c>
       <c r="F13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I13" t="s">
         <v>196</v>
@@ -10956,6 +11533,9 @@
       </c>
       <c r="E14" t="s">
         <v>289</v>
+      </c>
+      <c r="F14" t="s">
+        <v>350</v>
       </c>
       <c r="I14" t="s">
         <v>197</v>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7420" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8351" uniqueCount="486">
   <si>
     <t>description</t>
   </si>
@@ -1517,6 +1517,9 @@
   </si>
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
+  <si>
+    <t>rename(target,newName)</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1527,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="237" x14ac:knownFonts="1">
+  <fonts count="267" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3013,8 +3016,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="409">
+  <fills count="463">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5328,8 +5519,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="429">
+  <borders count="485">
     <border>
       <left/>
       <right/>
@@ -5428,6 +5925,570 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -9673,7 +10734,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="287">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10423,49 +11484,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="221" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="384" borderId="408" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="408" fillId="384" fontId="222" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="387" borderId="412" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="412" fillId="387" fontId="224" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="390" borderId="416" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="416" fillId="390" fontId="225" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="226" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="227" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="229" fillId="396" borderId="420" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="230" fillId="399" borderId="424" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="231" fillId="402" borderId="428" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="232" fillId="402" borderId="428" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="233" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="234" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="235" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="228" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="420" fillId="396" fontId="229" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="424" fillId="399" fontId="230" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="428" fillId="402" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="428" fillId="402" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="236" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="436" fillId="411" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="238" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="440" fillId="414" fontId="239" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="444" fillId="417" fontId="240" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="241" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="242" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="243" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="448" fillId="423" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="452" fillId="426" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="456" fillId="429" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="456" fillId="429" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="438" borderId="464" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="441" borderId="468" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="444" borderId="472" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="450" borderId="476" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="453" borderId="480" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="456" borderId="484" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="456" borderId="484" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11538,7 +12689,7 @@
         <v>350</v>
       </c>
       <c r="I14" t="s">
-        <v>197</v>
+        <v>485</v>
       </c>
       <c r="K14" t="s">
         <v>220</v>
@@ -11567,7 +12718,7 @@
         <v>290</v>
       </c>
       <c r="I15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M15" t="s">
         <v>169</v>
@@ -11593,7 +12744,7 @@
         <v>343</v>
       </c>
       <c r="I16" t="s">
-        <v>405</v>
+        <v>198</v>
       </c>
       <c r="N16" t="s">
         <v>277</v>
@@ -11616,7 +12767,7 @@
         <v>205</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>405</v>
       </c>
       <c r="U17" t="s">
         <v>50</v>
@@ -11633,7 +12784,7 @@
         <v>206</v>
       </c>
       <c r="I18" t="s">
-        <v>417</v>
+        <v>151</v>
       </c>
       <c r="U18" t="s">
         <v>51</v>
@@ -11650,7 +12801,7 @@
         <v>320</v>
       </c>
       <c r="I19" t="s">
-        <v>152</v>
+        <v>417</v>
       </c>
       <c r="U19" t="s">
         <v>52</v>
@@ -11667,7 +12818,7 @@
         <v>321</v>
       </c>
       <c r="I20" t="s">
-        <v>467</v>
+        <v>152</v>
       </c>
       <c r="U20" t="s">
         <v>53</v>
@@ -11684,7 +12835,7 @@
         <v>322</v>
       </c>
       <c r="I21" t="s">
-        <v>153</v>
+        <v>467</v>
       </c>
       <c r="U21" t="s">
         <v>54</v>
@@ -11701,7 +12852,7 @@
         <v>323</v>
       </c>
       <c r="I22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U22" t="s">
         <v>55</v>
@@ -11716,6 +12867,9 @@
       </c>
       <c r="E23" t="s">
         <v>315</v>
+      </c>
+      <c r="I23" t="s">
+        <v>154</v>
       </c>
       <c r="U23" t="s">
         <v>56</v>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8351" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8819" uniqueCount="488">
   <si>
     <t>description</t>
   </si>
@@ -1520,6 +1520,12 @@
   </si>
   <si>
     <t>rename(target,newName)</t>
+  </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1533,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="267" x14ac:knownFonts="1">
+  <fonts count="282" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3204,8 +3210,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="463">
+  <fills count="490">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5825,8 +5925,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="485">
+  <borders count="513">
     <border>
       <left/>
       <right/>
@@ -5925,6 +6178,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -10734,7 +11269,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="302">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11574,49 +12109,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="438" borderId="464" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="464" fillId="438" fontId="252" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="441" borderId="468" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="468" fillId="441" fontId="254" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="444" borderId="472" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="472" fillId="444" fontId="255" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="256" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="257" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="259" fillId="450" borderId="476" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="260" fillId="453" borderId="480" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="261" fillId="456" borderId="484" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="262" fillId="456" borderId="484" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="263" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="264" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="265" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="258" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="476" fillId="450" fontId="259" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="480" fillId="453" fontId="260" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="484" fillId="456" fontId="261" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="484" fillId="456" fontId="262" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="263" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="266" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="465" borderId="492" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="468" borderId="496" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="471" borderId="500" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="477" borderId="504" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="480" borderId="508" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="483" borderId="512" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="483" borderId="512" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12127,7 +12707,7 @@
         <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>486</v>
       </c>
       <c r="D3" t="s">
         <v>390</v>
@@ -12201,7 +12781,7 @@
         <v>399</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>202</v>
@@ -12272,7 +12852,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>487</v>
       </c>
       <c r="D5" t="s">
         <v>466</v>
@@ -12337,7 +12917,7 @@
         <v>401</v>
       </c>
       <c r="C6" t="s">
-        <v>344</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>413</v>
@@ -12393,7 +12973,7 @@
         <v>402</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="E7" t="s">
         <v>391</v>
@@ -12449,7 +13029,7 @@
         <v>403</v>
       </c>
       <c r="C8" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E8" t="s">
         <v>392</v>
@@ -12502,7 +13082,7 @@
         <v>404</v>
       </c>
       <c r="C9" t="s">
-        <v>280</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
         <v>332</v>
@@ -12543,7 +13123,7 @@
         <v>358</v>
       </c>
       <c r="C10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E10" t="s">
         <v>377</v>
@@ -12581,7 +13161,7 @@
         <v>210</v>
       </c>
       <c r="C11" t="s">
-        <v>366</v>
+        <v>280</v>
       </c>
       <c r="E11" t="s">
         <v>299</v>
@@ -12616,7 +13196,7 @@
         <v>221</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>345</v>
       </c>
       <c r="E12" t="s">
         <v>288</v>
@@ -12648,7 +13228,7 @@
         <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>366</v>
       </c>
       <c r="E13" t="s">
         <v>342</v>
@@ -12680,7 +13260,7 @@
         <v>264</v>
       </c>
       <c r="C14" t="s">
-        <v>410</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
         <v>289</v>
@@ -12712,7 +13292,7 @@
         <v>209</v>
       </c>
       <c r="C15" t="s">
-        <v>411</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
         <v>290</v>
@@ -12738,7 +13318,7 @@
         <v>425</v>
       </c>
       <c r="C16" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="E16" t="s">
         <v>343</v>
@@ -12761,7 +13341,7 @@
         <v>446</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>411</v>
       </c>
       <c r="E17" t="s">
         <v>205</v>
@@ -12778,7 +13358,7 @@
         <v>439</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>437</v>
       </c>
       <c r="E18" t="s">
         <v>206</v>
@@ -12795,7 +13375,7 @@
         <v>382</v>
       </c>
       <c r="C19" t="s">
-        <v>281</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
         <v>320</v>
@@ -12812,7 +13392,7 @@
         <v>421</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
         <v>321</v>
@@ -12829,7 +13409,7 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>346</v>
+        <v>281</v>
       </c>
       <c r="E21" t="s">
         <v>322</v>
@@ -12846,7 +13426,7 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
         <v>323</v>
@@ -12863,7 +13443,7 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>476</v>
+        <v>346</v>
       </c>
       <c r="E23" t="s">
         <v>315</v>
@@ -12880,7 +13460,7 @@
         <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c r="E24" t="s">
         <v>304</v>
@@ -12894,7 +13474,7 @@
         <v>448</v>
       </c>
       <c r="C25" t="s">
-        <v>251</v>
+        <v>476</v>
       </c>
       <c r="E25" t="s">
         <v>156</v>
@@ -12908,7 +13488,7 @@
         <v>252</v>
       </c>
       <c r="C26" t="s">
-        <v>444</v>
+        <v>250</v>
       </c>
       <c r="E26" t="s">
         <v>307</v>
@@ -12919,7 +13499,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>159</v>
+        <v>251</v>
       </c>
       <c r="E27" t="s">
         <v>291</v>
@@ -12930,7 +13510,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>38</v>
+        <v>444</v>
       </c>
       <c r="E28" t="s">
         <v>308</v>
@@ -12941,7 +13521,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="E29" t="s">
         <v>309</v>
@@ -12952,7 +13532,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
         <v>241</v>
@@ -12963,7 +13543,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
         <v>300</v>
@@ -12974,7 +13554,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E32" t="s">
         <v>310</v>
@@ -12985,7 +13565,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="E33" t="s">
         <v>285</v>
@@ -12996,7 +13576,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E34" t="s">
         <v>355</v>
@@ -13006,6 +13586,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
       <c r="E35" t="s">
         <v>333</v>
       </c>
@@ -13014,6 +13597,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>155</v>
+      </c>
       <c r="E36" t="s">
         <v>286</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8819" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9288" uniqueCount="489">
   <si>
     <t>description</t>
   </si>
@@ -1526,6 +1526,9 @@
   </si>
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
+  <si>
+    <t>deselect(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1533,7 +1536,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="282" x14ac:knownFonts="1">
+  <fonts count="297" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3304,8 +3307,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="490">
+  <fills count="517">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6078,8 +6175,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="513">
+  <borders count="541">
     <border>
       <left/>
       <right/>
@@ -6178,6 +6428,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -11269,7 +11801,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="317">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12154,49 +12686,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="465" borderId="492" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="492" fillId="465" fontId="267" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="268" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="468" borderId="496" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="496" fillId="468" fontId="269" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="471" borderId="500" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="500" fillId="471" fontId="270" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="271" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="272" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="274" fillId="477" borderId="504" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="275" fillId="480" borderId="508" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="276" fillId="483" borderId="512" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="277" fillId="483" borderId="512" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="278" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="279" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="280" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="273" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="504" fillId="477" fontId="274" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="508" fillId="480" fontId="275" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="512" fillId="483" fontId="276" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="512" fillId="483" fontId="277" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="278" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="279" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="492" borderId="520" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="495" borderId="524" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="498" borderId="528" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="504" borderId="532" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="507" borderId="536" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="510" borderId="540" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="510" borderId="540" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12528,7 +13105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13740,7 +14317,7 @@
         <v>293</v>
       </c>
       <c r="U53" t="s">
-        <v>78</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54">
@@ -13748,7 +14325,7 @@
         <v>317</v>
       </c>
       <c r="U54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55">
@@ -13756,7 +14333,7 @@
         <v>318</v>
       </c>
       <c r="U55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
@@ -13764,7 +14341,7 @@
         <v>319</v>
       </c>
       <c r="U56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
@@ -13772,7 +14349,7 @@
         <v>328</v>
       </c>
       <c r="U57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58">
@@ -13780,7 +14357,7 @@
         <v>338</v>
       </c>
       <c r="U58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59">
@@ -13788,7 +14365,7 @@
         <v>362</v>
       </c>
       <c r="U59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60">
@@ -13796,7 +14373,7 @@
         <v>335</v>
       </c>
       <c r="U60" t="s">
-        <v>465</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61">
@@ -13804,7 +14381,7 @@
         <v>336</v>
       </c>
       <c r="U61" t="s">
-        <v>239</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62">
@@ -13812,7 +14389,7 @@
         <v>394</v>
       </c>
       <c r="U62" t="s">
-        <v>414</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63">
@@ -13820,7 +14397,7 @@
         <v>395</v>
       </c>
       <c r="U63" t="s">
-        <v>470</v>
+        <v>414</v>
       </c>
     </row>
     <row r="64">
@@ -13828,7 +14405,7 @@
         <v>370</v>
       </c>
       <c r="U64" t="s">
-        <v>85</v>
+        <v>470</v>
       </c>
     </row>
     <row r="65">
@@ -13836,7 +14413,7 @@
         <v>339</v>
       </c>
       <c r="U65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66">
@@ -13844,7 +14421,7 @@
         <v>294</v>
       </c>
       <c r="U66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67">
@@ -13852,7 +14429,7 @@
         <v>378</v>
       </c>
       <c r="U67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68">
@@ -13860,7 +14437,7 @@
         <v>340</v>
       </c>
       <c r="U68" t="s">
-        <v>222</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69">
@@ -13868,7 +14445,7 @@
         <v>435</v>
       </c>
       <c r="U69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70">
@@ -13876,7 +14453,7 @@
         <v>329</v>
       </c>
       <c r="U70" t="s">
-        <v>483</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71">
@@ -13884,7 +14461,7 @@
         <v>436</v>
       </c>
       <c r="U71" t="s">
-        <v>89</v>
+        <v>483</v>
       </c>
     </row>
     <row r="72">
@@ -13892,7 +14469,7 @@
         <v>287</v>
       </c>
       <c r="U72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73">
@@ -13900,7 +14477,7 @@
         <v>369</v>
       </c>
       <c r="U73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74">
@@ -13908,7 +14485,7 @@
         <v>305</v>
       </c>
       <c r="U74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75">
@@ -13916,7 +14493,7 @@
         <v>311</v>
       </c>
       <c r="U75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76">
@@ -13924,7 +14501,7 @@
         <v>316</v>
       </c>
       <c r="U76" t="s">
-        <v>224</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77">
@@ -13932,7 +14509,7 @@
         <v>454</v>
       </c>
       <c r="U77" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78">
@@ -13940,7 +14517,7 @@
         <v>357</v>
       </c>
       <c r="U78" t="s">
-        <v>482</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79">
@@ -13948,7 +14525,7 @@
         <v>295</v>
       </c>
       <c r="U79" t="s">
-        <v>226</v>
+        <v>482</v>
       </c>
     </row>
     <row r="80">
@@ -13956,7 +14533,7 @@
         <v>306</v>
       </c>
       <c r="U80" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="81">
@@ -13964,7 +14541,7 @@
         <v>312</v>
       </c>
       <c r="U81" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="82">
@@ -13972,7 +14549,7 @@
         <v>301</v>
       </c>
       <c r="U82" t="s">
-        <v>94</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83">
@@ -13980,7 +14557,7 @@
         <v>296</v>
       </c>
       <c r="U83" t="s">
-        <v>228</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84">
@@ -13988,7 +14565,7 @@
         <v>313</v>
       </c>
       <c r="U84" t="s">
-        <v>462</v>
+        <v>228</v>
       </c>
     </row>
     <row r="85">
@@ -13996,7 +14573,7 @@
         <v>297</v>
       </c>
       <c r="U85" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="86">
@@ -14004,7 +14581,7 @@
         <v>298</v>
       </c>
       <c r="U86" t="s">
-        <v>229</v>
+        <v>464</v>
       </c>
     </row>
     <row r="87">
@@ -14012,7 +14589,7 @@
         <v>330</v>
       </c>
       <c r="U87" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88">
@@ -14020,7 +14597,7 @@
         <v>337</v>
       </c>
       <c r="U88" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89">
@@ -14028,7 +14605,7 @@
         <v>331</v>
       </c>
       <c r="U89" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90">
@@ -14036,7 +14613,7 @@
         <v>365</v>
       </c>
       <c r="U90" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91">
@@ -14044,7 +14621,7 @@
         <v>302</v>
       </c>
       <c r="U91" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92">
@@ -14052,126 +14629,131 @@
         <v>303</v>
       </c>
       <c r="U92" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>408</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>96</v>
+        <v>408</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>471</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>109</v>
+        <v>471</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
+    <definedName name="io">'#system'!$I$2:$I$24</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -45,7 +45,7 @@
     <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$17</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
   </definedNames>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9288" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9759" uniqueCount="491">
   <si>
     <t>description</t>
   </si>
@@ -1529,6 +1529,12 @@
   </si>
   <si>
     <t>deselect(locator,text)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1542,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="297" x14ac:knownFonts="1">
+  <fonts count="313" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3401,8 +3407,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="517">
+  <fills count="544">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6328,8 +6435,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="541">
+  <borders count="569">
     <border>
       <left/>
       <right/>
@@ -6428,6 +6688,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -11801,7 +12343,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="333">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12731,49 +13273,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="492" borderId="520" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="520" fillId="492" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="283" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="495" borderId="524" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="524" fillId="495" fontId="284" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="498" borderId="528" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="528" fillId="498" fontId="285" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="286" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="287" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="289" fillId="504" borderId="532" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="290" fillId="507" borderId="536" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="291" fillId="510" borderId="540" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="292" fillId="510" borderId="540" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="293" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="294" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="295" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="288" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="532" fillId="504" fontId="289" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="536" fillId="507" fontId="290" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="540" fillId="510" fontId="291" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="540" fillId="510" fontId="292" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="293" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="294" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="296" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="519" borderId="548" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="522" borderId="552" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="525" borderId="556" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="528" borderId="556" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="534" borderId="560" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="537" borderId="564" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="540" borderId="568" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="540" borderId="568" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13444,7 +14034,7 @@
         <v>373</v>
       </c>
       <c r="I5" t="s">
-        <v>201</v>
+        <v>489</v>
       </c>
       <c r="K5" t="s">
         <v>213</v>
@@ -13503,7 +14093,7 @@
         <v>479</v>
       </c>
       <c r="I6" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="K6" t="s">
         <v>214</v>
@@ -13559,7 +14149,7 @@
         <v>475</v>
       </c>
       <c r="I7" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="K7" t="s">
         <v>341</v>
@@ -13615,7 +14205,7 @@
         <v>353</v>
       </c>
       <c r="I8" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="K8" t="s">
         <v>215</v>
@@ -13668,7 +14258,7 @@
         <v>354</v>
       </c>
       <c r="I9" t="s">
-        <v>415</v>
+        <v>148</v>
       </c>
       <c r="K9" t="s">
         <v>216</v>
@@ -13709,7 +14299,7 @@
         <v>480</v>
       </c>
       <c r="I10" t="s">
-        <v>149</v>
+        <v>415</v>
       </c>
       <c r="K10" t="s">
         <v>217</v>
@@ -13747,7 +14337,7 @@
         <v>347</v>
       </c>
       <c r="I11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K11" t="s">
         <v>468</v>
@@ -13782,7 +14372,7 @@
         <v>348</v>
       </c>
       <c r="I12" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="K12" t="s">
         <v>218</v>
@@ -13814,7 +14404,7 @@
         <v>349</v>
       </c>
       <c r="I13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K13" t="s">
         <v>219</v>
@@ -13846,7 +14436,7 @@
         <v>350</v>
       </c>
       <c r="I14" t="s">
-        <v>485</v>
+        <v>196</v>
       </c>
       <c r="K14" t="s">
         <v>220</v>
@@ -13875,7 +14465,7 @@
         <v>290</v>
       </c>
       <c r="I15" t="s">
-        <v>197</v>
+        <v>485</v>
       </c>
       <c r="M15" t="s">
         <v>169</v>
@@ -13901,7 +14491,7 @@
         <v>343</v>
       </c>
       <c r="I16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N16" t="s">
         <v>277</v>
@@ -13924,10 +14514,13 @@
         <v>205</v>
       </c>
       <c r="I17" t="s">
-        <v>405</v>
+        <v>198</v>
       </c>
       <c r="U17" t="s">
         <v>50</v>
+      </c>
+      <c r="X17" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="18">
@@ -13941,7 +14534,7 @@
         <v>206</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>405</v>
       </c>
       <c r="U18" t="s">
         <v>51</v>
@@ -13958,7 +14551,7 @@
         <v>320</v>
       </c>
       <c r="I19" t="s">
-        <v>417</v>
+        <v>151</v>
       </c>
       <c r="U19" t="s">
         <v>52</v>
@@ -13975,7 +14568,7 @@
         <v>321</v>
       </c>
       <c r="I20" t="s">
-        <v>152</v>
+        <v>417</v>
       </c>
       <c r="U20" t="s">
         <v>53</v>
@@ -13992,7 +14585,7 @@
         <v>322</v>
       </c>
       <c r="I21" t="s">
-        <v>467</v>
+        <v>152</v>
       </c>
       <c r="U21" t="s">
         <v>54</v>
@@ -14009,7 +14602,7 @@
         <v>323</v>
       </c>
       <c r="I22" t="s">
-        <v>153</v>
+        <v>467</v>
       </c>
       <c r="U22" t="s">
         <v>55</v>
@@ -14026,7 +14619,7 @@
         <v>315</v>
       </c>
       <c r="I23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U23" t="s">
         <v>56</v>
@@ -14041,6 +14634,9 @@
       </c>
       <c r="E24" t="s">
         <v>304</v>
+      </c>
+      <c r="I24" t="s">
+        <v>154</v>
       </c>
       <c r="U24" t="s">
         <v>57</v>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -18,36 +18,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$24</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$17</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9759" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10234" uniqueCount="494">
   <si>
     <t>description</t>
   </si>
@@ -1535,6 +1536,15 @@
   </si>
   <si>
     <t>upload(url,body,fileParams,var)</t>
+  </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1552,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="313" x14ac:knownFonts="1">
+  <fonts count="329" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3508,8 +3518,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="544">
+  <fills count="571">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6588,8 +6699,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="569">
+  <borders count="597">
     <border>
       <left/>
       <right/>
@@ -6688,6 +6952,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -12343,7 +12889,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="333">
+  <cellXfs count="349">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13318,52 +13864,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="519" borderId="548" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="548" fillId="519" fontId="297" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="298" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="522" borderId="552" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="552" fillId="522" fontId="299" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="525" borderId="556" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="556" fillId="525" fontId="300" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="528" borderId="556" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="556" fillId="528" fontId="301" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="302" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="531" fontId="303" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="305" fillId="534" borderId="560" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="306" fillId="537" borderId="564" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="307" fillId="540" borderId="568" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="308" fillId="540" borderId="568" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="309" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="310" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="311" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="304" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="560" fillId="534" fontId="305" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="564" fillId="537" fontId="306" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="568" fillId="540" fontId="307" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="568" fillId="540" fontId="308" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="309" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="312" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="546" borderId="576" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="549" borderId="580" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="552" borderId="584" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="555" borderId="584" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="561" borderId="588" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="564" borderId="592" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="567" borderId="596" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="567" borderId="596" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13695,7 +14289,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13714,75 +14308,78 @@
         <v>396</v>
       </c>
       <c r="C1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>199</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>200</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>143</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>372</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>144</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>358</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>210</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>221</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>128</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>264</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>209</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>425</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>446</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>439</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>382</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>421</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>30</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>32</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>131</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>448</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>252</v>
       </c>
     </row>
@@ -13794,1562 +14391,1571 @@
         <v>397</v>
       </c>
       <c r="C2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>201</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>157</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>477</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>145</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>374</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>341</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>409</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>455</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>438</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>456</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>278</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>242</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>426</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>447</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>445</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>406</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>422</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>41</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>117</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>122</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>132</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>458</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>491</v>
       </c>
       <c r="B3" t="s">
         <v>398</v>
       </c>
       <c r="C3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D3" t="s">
         <v>486</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>390</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>204</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>203</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>146</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>375</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>366</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>359</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>211</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>457</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>265</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>243</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>427</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>441</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>407</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>423</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>42</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>118</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>123</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>389</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>133</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>399</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>202</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>412</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>478</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>376</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>263</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>360</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>212</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>19</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>266</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>244</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>428</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>442</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>383</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>424</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>379</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>119</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>124</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>133</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>449</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
         <v>400</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>487</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>466</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>361</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>484</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>373</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>489</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>213</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>21</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>267</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>245</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>429</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>443</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>384</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>380</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>120</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>125</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>134</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>450</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>401</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>413</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>479</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>201</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>214</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>22</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>268</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>416</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>430</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>386</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>43</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>472</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>126</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>135</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>451</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="B7" t="s">
         <v>402</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>249</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>391</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>475</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>147</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>341</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>24</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>269</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>440</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>431</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>385</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>44</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>473</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>130</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>136</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>452</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>372</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
         <v>403</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>344</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>392</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>353</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>194</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>215</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>164</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>270</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>432</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>387</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>45</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>121</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>127</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>137</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>453</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>372</v>
       </c>
       <c r="B9" t="s">
         <v>404</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>332</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>354</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>148</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>216</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>165</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>271</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>433</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>388</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>234</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>207</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>358</v>
-      </c>
-      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" t="s">
         <v>341</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>377</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>480</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>415</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>217</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>459</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>272</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>434</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>282</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>208</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11" t="s">
         <v>280</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>299</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>347</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>149</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>468</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>166</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>273</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>283</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>284</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" t="s">
         <v>345</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>288</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>348</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>150</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>218</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>26</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>274</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>46</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" t="s">
         <v>366</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>342</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>349</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>195</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>219</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>167</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>279</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>351</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>264</v>
-      </c>
-      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>289</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>350</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>196</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>220</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>168</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>275</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>47</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>290</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>485</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>169</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>276</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>48</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>425</v>
-      </c>
-      <c r="C16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" t="s">
         <v>410</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>343</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>197</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>277</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>49</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>446</v>
-      </c>
-      <c r="C17" t="s">
+        <v>425</v>
+      </c>
+      <c r="D17" t="s">
         <v>411</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>205</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>198</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>50</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>439</v>
-      </c>
-      <c r="C18" t="s">
+        <v>446</v>
+      </c>
+      <c r="D18" t="s">
         <v>437</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>206</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>405</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>382</v>
-      </c>
-      <c r="C19" t="s">
+        <v>439</v>
+      </c>
+      <c r="D19" t="s">
         <v>35</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>320</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>151</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>421</v>
-      </c>
-      <c r="C20" t="s">
+        <v>382</v>
+      </c>
+      <c r="D20" t="s">
         <v>36</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>321</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>417</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s">
+        <v>421</v>
+      </c>
+      <c r="D21" t="s">
         <v>281</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>322</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>152</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
         <v>37</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>323</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>467</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
         <v>346</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>315</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>153</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
         <v>129</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>304</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>154</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>448</v>
-      </c>
-      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" t="s">
         <v>476</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>156</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>252</v>
-      </c>
-      <c r="C26" t="s">
+        <v>448</v>
+      </c>
+      <c r="D26" t="s">
         <v>250</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>307</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27">
-      <c r="C27" t="s">
+      <c r="A27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D27" t="s">
         <v>251</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>291</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>444</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>308</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>159</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>309</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>38</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>241</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>39</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>300</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>160</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>310</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>161</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>285</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>162</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>355</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>40</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>333</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>155</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>286</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>334</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>292</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>158</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>237</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>314</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>324</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>325</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>368</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>367</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>236</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>326</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>364</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>393</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>327</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>381</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>356</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>293</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>317</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>318</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>319</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>328</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>338</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>362</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>335</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>336</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="62">
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>394</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="63">
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>395</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="64">
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>370</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="65">
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>339</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="66">
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>294</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="67">
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>378</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="68">
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>340</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="69">
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>435</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="70">
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>329</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="71">
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>436</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="72">
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>287</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="73">
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>369</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="74">
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>305</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>311</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>316</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>454</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>357</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>295</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>306</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>312</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>301</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>296</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>313</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>297</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>298</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>330</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>337</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>331</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>365</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>302</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="92">
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>303</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="93">
-      <c r="U93" t="s">
+      <c r="V93" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="94">
-      <c r="U94" t="s">
+      <c r="V94" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="95">
-      <c r="U95" t="s">
+      <c r="V95" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="96">
-      <c r="U96" t="s">
+      <c r="V96" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="97">
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="98">
-      <c r="U98" t="s">
+      <c r="V98" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="99">
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="100">
-      <c r="U100" t="s">
+      <c r="V100" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="101">
-      <c r="U101" t="s">
+      <c r="V101" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="102">
-      <c r="U102" t="s">
+      <c r="V102" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="103">
-      <c r="U103" t="s">
+      <c r="V103" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="104">
-      <c r="U104" t="s">
+      <c r="V104" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="105">
-      <c r="U105" t="s">
+      <c r="V105" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="106">
-      <c r="U106" t="s">
+      <c r="V106" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="107">
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="108">
-      <c r="U108" t="s">
+      <c r="V108" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="109">
-      <c r="U109" t="s">
+      <c r="V109" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="110">
-      <c r="U110" t="s">
+      <c r="V110" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="111">
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="112">
-      <c r="U112" t="s">
+      <c r="V112" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="113">
-      <c r="U113" t="s">
+      <c r="V113" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="114">
-      <c r="U114" t="s">
+      <c r="V114" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="115">
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="116">
-      <c r="U116" t="s">
+      <c r="V116" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="117">
-      <c r="U117" t="s">
+      <c r="V117" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10234" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10710" uniqueCount="496">
   <si>
     <t>description</t>
   </si>
@@ -1545,6 +1545,12 @@
   </si>
   <si>
     <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
   </si>
 </sst>
 </file>
@@ -1552,7 +1558,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="329" x14ac:knownFonts="1">
+  <fonts count="345" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3619,8 +3625,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="571">
+  <fills count="598">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6852,8 +6959,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="597">
+  <borders count="625">
     <border>
       <left/>
       <right/>
@@ -6952,6 +7212,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -12889,7 +13431,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="349">
+  <cellXfs count="365">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13912,52 +14454,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="546" borderId="576" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="576" fillId="546" fontId="313" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="549" borderId="580" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="580" fillId="549" fontId="315" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="552" borderId="584" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="584" fillId="552" fontId="316" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="555" borderId="584" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="584" fillId="555" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="318" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="558" fontId="319" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="321" fillId="561" borderId="588" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="322" fillId="564" borderId="592" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="323" fillId="567" borderId="596" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="324" fillId="567" borderId="596" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="325" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="326" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="327" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="320" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="588" fillId="561" fontId="321" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="592" fillId="564" fontId="322" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="596" fillId="567" fontId="323" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="596" fillId="567" fontId="324" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="325" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="326" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="327" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="328" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="573" borderId="604" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="576" borderId="608" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="579" borderId="612" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="582" borderId="612" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="588" borderId="616" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="591" borderId="620" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="594" borderId="624" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="594" borderId="624" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14289,7 +14879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14391,7 +14981,7 @@
         <v>397</v>
       </c>
       <c r="C2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -15503,7 +16093,7 @@
         <v>381</v>
       </c>
       <c r="V51" t="s">
-        <v>77</v>
+        <v>495</v>
       </c>
     </row>
     <row r="52">
@@ -15511,7 +16101,7 @@
         <v>356</v>
       </c>
       <c r="V52" t="s">
-        <v>371</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
@@ -15519,7 +16109,7 @@
         <v>293</v>
       </c>
       <c r="V53" t="s">
-        <v>488</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54">
@@ -15527,7 +16117,7 @@
         <v>317</v>
       </c>
       <c r="V54" t="s">
-        <v>78</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55">
@@ -15535,7 +16125,7 @@
         <v>318</v>
       </c>
       <c r="V55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56">
@@ -15543,7 +16133,7 @@
         <v>319</v>
       </c>
       <c r="V56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
@@ -15551,7 +16141,7 @@
         <v>328</v>
       </c>
       <c r="V57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58">
@@ -15559,7 +16149,7 @@
         <v>338</v>
       </c>
       <c r="V58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
@@ -15567,7 +16157,7 @@
         <v>362</v>
       </c>
       <c r="V59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60">
@@ -15575,7 +16165,7 @@
         <v>335</v>
       </c>
       <c r="V60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61">
@@ -15583,7 +16173,7 @@
         <v>336</v>
       </c>
       <c r="V61" t="s">
-        <v>465</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62">
@@ -15591,7 +16181,7 @@
         <v>394</v>
       </c>
       <c r="V62" t="s">
-        <v>239</v>
+        <v>465</v>
       </c>
     </row>
     <row r="63">
@@ -15599,7 +16189,7 @@
         <v>395</v>
       </c>
       <c r="V63" t="s">
-        <v>414</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64">
@@ -15607,7 +16197,7 @@
         <v>370</v>
       </c>
       <c r="V64" t="s">
-        <v>470</v>
+        <v>414</v>
       </c>
     </row>
     <row r="65">
@@ -15615,7 +16205,7 @@
         <v>339</v>
       </c>
       <c r="V65" t="s">
-        <v>85</v>
+        <v>470</v>
       </c>
     </row>
     <row r="66">
@@ -15623,7 +16213,7 @@
         <v>294</v>
       </c>
       <c r="V66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67">
@@ -15631,7 +16221,7 @@
         <v>378</v>
       </c>
       <c r="V67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68">
@@ -15639,7 +16229,7 @@
         <v>340</v>
       </c>
       <c r="V68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69">
@@ -15647,7 +16237,7 @@
         <v>435</v>
       </c>
       <c r="V69" t="s">
-        <v>222</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70">
@@ -15655,7 +16245,7 @@
         <v>329</v>
       </c>
       <c r="V70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71">
@@ -15663,7 +16253,7 @@
         <v>436</v>
       </c>
       <c r="V71" t="s">
-        <v>483</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72">
@@ -15671,7 +16261,7 @@
         <v>287</v>
       </c>
       <c r="V72" t="s">
-        <v>89</v>
+        <v>483</v>
       </c>
     </row>
     <row r="73">
@@ -15679,7 +16269,7 @@
         <v>369</v>
       </c>
       <c r="V73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74">
@@ -15687,7 +16277,7 @@
         <v>305</v>
       </c>
       <c r="V74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75">
@@ -15695,7 +16285,7 @@
         <v>311</v>
       </c>
       <c r="V75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76">
@@ -15703,7 +16293,7 @@
         <v>316</v>
       </c>
       <c r="V76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77">
@@ -15711,7 +16301,7 @@
         <v>454</v>
       </c>
       <c r="V77" t="s">
-        <v>224</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78">
@@ -15719,7 +16309,7 @@
         <v>357</v>
       </c>
       <c r="V78" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79">
@@ -15727,7 +16317,7 @@
         <v>295</v>
       </c>
       <c r="V79" t="s">
-        <v>482</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80">
@@ -15735,7 +16325,7 @@
         <v>306</v>
       </c>
       <c r="V80" t="s">
-        <v>226</v>
+        <v>482</v>
       </c>
     </row>
     <row r="81">
@@ -15743,7 +16333,7 @@
         <v>312</v>
       </c>
       <c r="V81" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82">
@@ -15751,7 +16341,7 @@
         <v>301</v>
       </c>
       <c r="V82" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83">
@@ -15759,7 +16349,7 @@
         <v>296</v>
       </c>
       <c r="V83" t="s">
-        <v>94</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84">
@@ -15767,7 +16357,7 @@
         <v>313</v>
       </c>
       <c r="V84" t="s">
-        <v>228</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85">
@@ -15775,7 +16365,7 @@
         <v>297</v>
       </c>
       <c r="V85" t="s">
-        <v>462</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86">
@@ -15783,7 +16373,7 @@
         <v>298</v>
       </c>
       <c r="V86" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="87">
@@ -15791,7 +16381,7 @@
         <v>330</v>
       </c>
       <c r="V87" t="s">
-        <v>229</v>
+        <v>464</v>
       </c>
     </row>
     <row r="88">
@@ -15799,7 +16389,7 @@
         <v>337</v>
       </c>
       <c r="V88" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89">
@@ -15807,7 +16397,7 @@
         <v>331</v>
       </c>
       <c r="V89" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90">
@@ -15815,7 +16405,7 @@
         <v>365</v>
       </c>
       <c r="V90" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="91">
@@ -15823,7 +16413,7 @@
         <v>302</v>
       </c>
       <c r="V91" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92">
@@ -15831,131 +16421,136 @@
         <v>303</v>
       </c>
       <c r="V92" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>408</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>96</v>
+        <v>408</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>471</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>109</v>
+        <v>471</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="V118" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -25,7 +25,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10710" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12142" uniqueCount="499">
   <si>
     <t>description</t>
   </si>
@@ -1551,6 +1551,15 @@
   </si>
   <si>
     <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveDiff(baseline,actual,saveTo)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -1558,7 +1567,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="345" x14ac:knownFonts="1">
+  <fonts count="393" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3726,8 +3735,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="598">
+  <fills count="679">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7112,8 +7424,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="625">
+  <borders count="709">
     <border>
       <left/>
       <right/>
@@ -7212,6 +7983,852 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -13431,7 +15048,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="365">
+  <cellXfs count="413">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14502,52 +16119,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="573" borderId="604" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="604" fillId="573" fontId="329" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="330" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="576" borderId="608" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="608" fillId="576" fontId="331" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="579" borderId="612" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="612" fillId="579" fontId="332" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="582" borderId="612" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="612" fillId="582" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="334" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="585" fontId="335" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="337" fillId="588" borderId="616" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="338" fillId="591" borderId="620" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="339" fillId="594" borderId="624" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="340" fillId="594" borderId="624" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="341" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="342" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="343" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="336" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="616" fillId="588" fontId="337" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="620" fillId="591" fontId="338" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="624" fillId="594" fontId="339" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="624" fillId="594" fontId="340" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="341" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="342" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="343" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="344" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="632" fillId="600" fontId="345" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="346" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="636" fillId="603" fontId="347" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="640" fillId="606" fontId="348" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="640" fillId="609" fontId="349" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="350" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="612" fontId="351" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="352" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="644" fillId="615" fontId="353" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="648" fillId="618" fontId="354" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="652" fillId="621" fontId="355" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="652" fillId="621" fontId="356" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="357" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="358" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="359" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="360" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="660" fillId="627" fontId="361" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="362" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="664" fillId="630" fontId="363" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="668" fillId="633" fontId="364" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="668" fillId="636" fontId="365" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="366" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="639" fontId="367" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="368" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="672" fillId="642" fontId="369" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="676" fillId="645" fontId="370" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="680" fillId="648" fontId="371" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="680" fillId="648" fontId="372" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="373" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="374" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="375" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="376" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="654" borderId="688" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="657" borderId="692" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="660" borderId="696" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="663" borderId="696" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="669" borderId="700" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="672" borderId="704" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="675" borderId="708" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="675" borderId="708" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14999,7 +16760,7 @@
         <v>145</v>
       </c>
       <c r="I2" t="s">
-        <v>374</v>
+        <v>498</v>
       </c>
       <c r="J2" t="s">
         <v>341</v>
@@ -15082,7 +16843,7 @@
         <v>146</v>
       </c>
       <c r="I3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J3" t="s">
         <v>366</v>
@@ -15153,7 +16914,7 @@
         <v>478</v>
       </c>
       <c r="I4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J4" t="s">
         <v>263</v>
@@ -15224,7 +16985,7 @@
         <v>484</v>
       </c>
       <c r="I5" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="J5" t="s">
         <v>489</v>
@@ -15284,6 +17045,9 @@
       </c>
       <c r="G6" t="s">
         <v>479</v>
+      </c>
+      <c r="I6" t="s">
+        <v>373</v>
       </c>
       <c r="J6" t="s">
         <v>201</v>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12142" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12620" uniqueCount="500">
   <si>
     <t>description</t>
   </si>
@@ -1560,6 +1560,9 @@
   </si>
   <si>
     <t>colorbit(source,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
   </si>
 </sst>
 </file>
@@ -1567,7 +1570,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="393" x14ac:knownFonts="1">
+  <fonts count="409" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4038,8 +4041,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="679">
+  <fills count="706">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7883,8 +7987,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="709">
+  <borders count="737">
     <border>
       <left/>
       <right/>
@@ -7983,6 +8240,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -15048,7 +15587,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="413">
+  <cellXfs count="429">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16263,52 +16802,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="654" borderId="688" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="688" fillId="654" fontId="377" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="657" borderId="692" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="692" fillId="657" fontId="379" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="660" borderId="696" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="696" fillId="660" fontId="380" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="663" borderId="696" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="696" fillId="663" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="382" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="666" fontId="383" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="385" fillId="669" borderId="700" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="386" fillId="672" borderId="704" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="387" fillId="675" borderId="708" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="388" fillId="675" borderId="708" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="389" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="390" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="391" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="384" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="700" fillId="669" fontId="385" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="704" fillId="672" fontId="386" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="708" fillId="675" fontId="387" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="708" fillId="675" fontId="388" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="389" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="390" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="391" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="392" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="681" borderId="716" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="684" borderId="720" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="687" borderId="724" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="690" borderId="724" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="696" borderId="728" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="699" borderId="732" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="702" borderId="736" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="702" borderId="736" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16640,7 +17227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -18033,7 +18620,7 @@
         <v>369</v>
       </c>
       <c r="V73" t="s">
-        <v>89</v>
+        <v>499</v>
       </c>
     </row>
     <row r="74">
@@ -18041,7 +18628,7 @@
         <v>305</v>
       </c>
       <c r="V74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75">
@@ -18049,7 +18636,7 @@
         <v>311</v>
       </c>
       <c r="V75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76">
@@ -18057,7 +18644,7 @@
         <v>316</v>
       </c>
       <c r="V76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77">
@@ -18065,7 +18652,7 @@
         <v>454</v>
       </c>
       <c r="V77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78">
@@ -18073,7 +18660,7 @@
         <v>357</v>
       </c>
       <c r="V78" t="s">
-        <v>224</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79">
@@ -18081,7 +18668,7 @@
         <v>295</v>
       </c>
       <c r="V79" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80">
@@ -18089,7 +18676,7 @@
         <v>306</v>
       </c>
       <c r="V80" t="s">
-        <v>482</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81">
@@ -18097,7 +18684,7 @@
         <v>312</v>
       </c>
       <c r="V81" t="s">
-        <v>226</v>
+        <v>482</v>
       </c>
     </row>
     <row r="82">
@@ -18105,7 +18692,7 @@
         <v>301</v>
       </c>
       <c r="V82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83">
@@ -18113,7 +18700,7 @@
         <v>296</v>
       </c>
       <c r="V83" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84">
@@ -18121,7 +18708,7 @@
         <v>313</v>
       </c>
       <c r="V84" t="s">
-        <v>94</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85">
@@ -18129,7 +18716,7 @@
         <v>297</v>
       </c>
       <c r="V85" t="s">
-        <v>228</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86">
@@ -18137,7 +18724,7 @@
         <v>298</v>
       </c>
       <c r="V86" t="s">
-        <v>462</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87">
@@ -18145,7 +18732,7 @@
         <v>330</v>
       </c>
       <c r="V87" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="88">
@@ -18153,7 +18740,7 @@
         <v>337</v>
       </c>
       <c r="V88" t="s">
-        <v>229</v>
+        <v>464</v>
       </c>
     </row>
     <row r="89">
@@ -18161,7 +18748,7 @@
         <v>331</v>
       </c>
       <c r="V89" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90">
@@ -18169,7 +18756,7 @@
         <v>365</v>
       </c>
       <c r="V90" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91">
@@ -18177,7 +18764,7 @@
         <v>302</v>
       </c>
       <c r="V91" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="92">
@@ -18185,136 +18772,141 @@
         <v>303</v>
       </c>
       <c r="V92" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>408</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>96</v>
+        <v>408</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>471</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>109</v>
+        <v>471</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12620" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14059" uniqueCount="503">
   <si>
     <t>description</t>
   </si>
@@ -1563,6 +1563,15 @@
   </si>
   <si>
     <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1579,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="409" x14ac:knownFonts="1">
+  <fonts count="457" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4142,8 +4151,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="706">
+  <fills count="787">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8140,8 +8452,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="737">
+  <borders count="821">
     <border>
       <left/>
       <right/>
@@ -8240,6 +9011,852 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -15587,7 +17204,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="429">
+  <cellXfs count="477">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16850,52 +18467,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="681" borderId="716" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="716" fillId="681" fontId="393" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="684" borderId="720" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="720" fillId="684" fontId="395" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="687" borderId="724" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="724" fillId="687" fontId="396" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="690" borderId="724" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="724" fillId="690" fontId="397" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="398" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="399" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="401" fillId="696" borderId="728" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="402" fillId="699" borderId="732" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="403" fillId="702" borderId="736" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="404" fillId="702" borderId="736" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="405" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="406" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="407" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="400" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="728" fillId="696" fontId="401" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="732" fillId="699" fontId="402" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="736" fillId="702" fontId="403" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="736" fillId="702" fontId="404" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="405" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="406" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="407" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="408" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="744" fillId="708" fontId="409" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="410" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="748" fillId="711" fontId="411" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="752" fillId="714" fontId="412" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="752" fillId="717" fontId="413" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="414" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="415" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="416" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="756" fillId="723" fontId="417" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="760" fillId="726" fontId="418" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="764" fillId="729" fontId="419" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="764" fillId="729" fontId="420" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="421" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="422" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="423" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="424" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="772" fillId="735" fontId="425" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="426" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="776" fillId="738" fontId="427" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="780" fillId="741" fontId="428" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="780" fillId="744" fontId="429" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="430" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="747" fontId="431" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="432" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="784" fillId="750" fontId="433" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="788" fillId="753" fontId="434" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="792" fillId="756" fontId="435" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="792" fillId="756" fontId="436" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="437" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="759" fontId="438" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="439" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="440" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="762" borderId="800" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="765" borderId="804" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="768" borderId="808" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="771" borderId="808" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="777" borderId="812" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="780" borderId="816" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="783" borderId="820" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="783" borderId="820" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18095,7 +19856,7 @@
         <v>320</v>
       </c>
       <c r="J19" t="s">
-        <v>151</v>
+        <v>502</v>
       </c>
       <c r="V19" t="s">
         <v>52</v>
@@ -18112,7 +19873,7 @@
         <v>321</v>
       </c>
       <c r="J20" t="s">
-        <v>417</v>
+        <v>151</v>
       </c>
       <c r="V20" t="s">
         <v>53</v>
@@ -18129,7 +19890,7 @@
         <v>322</v>
       </c>
       <c r="J21" t="s">
-        <v>152</v>
+        <v>417</v>
       </c>
       <c r="V21" t="s">
         <v>54</v>
@@ -18146,7 +19907,7 @@
         <v>323</v>
       </c>
       <c r="J22" t="s">
-        <v>467</v>
+        <v>152</v>
       </c>
       <c r="V22" t="s">
         <v>55</v>
@@ -18163,7 +19924,7 @@
         <v>315</v>
       </c>
       <c r="J23" t="s">
-        <v>153</v>
+        <v>467</v>
       </c>
       <c r="V23" t="s">
         <v>56</v>
@@ -18180,7 +19941,7 @@
         <v>304</v>
       </c>
       <c r="J24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V24" t="s">
         <v>57</v>
@@ -18196,6 +19957,9 @@
       <c r="F25" t="s">
         <v>156</v>
       </c>
+      <c r="J25" t="s">
+        <v>154</v>
+      </c>
       <c r="V25" t="s">
         <v>58</v>
       </c>
@@ -18230,7 +19994,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="F28" t="s">
         <v>308</v>
@@ -18241,7 +20005,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>159</v>
+        <v>501</v>
       </c>
       <c r="F29" t="s">
         <v>309</v>
@@ -18252,7 +20016,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>38</v>
+        <v>444</v>
       </c>
       <c r="F30" t="s">
         <v>241</v>
@@ -18263,7 +20027,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="F31" t="s">
         <v>300</v>
@@ -18274,7 +20038,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
         <v>310</v>
@@ -18285,7 +20049,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s">
         <v>285</v>
@@ -18296,7 +20060,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F34" t="s">
         <v>355</v>
@@ -18307,7 +20071,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="F35" t="s">
         <v>333</v>
@@ -18318,7 +20082,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F36" t="s">
         <v>286</v>
@@ -18328,6 +20092,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
       <c r="F37" t="s">
         <v>334</v>
       </c>
@@ -18336,6 +20103,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>155</v>
+      </c>
       <c r="F38" t="s">
         <v>292</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -28,7 +28,7 @@
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14059" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15024" uniqueCount="505">
   <si>
     <t>description</t>
   </si>
@@ -1572,6 +1572,12 @@
   </si>
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
   </si>
 </sst>
 </file>
@@ -1579,7 +1585,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="457" x14ac:knownFonts="1">
+  <fonts count="489" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4454,8 +4460,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="787">
+  <fills count="841">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8911,8 +9119,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="821">
+  <borders count="877">
     <border>
       <left/>
       <right/>
@@ -9011,6 +9525,570 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -17204,7 +18282,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="477">
+  <cellXfs count="509">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18611,52 +19689,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="440" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="762" borderId="800" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="800" fillId="762" fontId="441" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="442" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="765" borderId="804" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="804" fillId="765" fontId="443" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="768" borderId="808" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="808" fillId="768" fontId="444" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="771" borderId="808" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="808" fillId="771" fontId="445" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="446" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="774" fontId="447" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="449" fillId="777" borderId="812" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="450" fillId="780" borderId="816" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="451" fillId="783" borderId="820" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="452" fillId="783" borderId="820" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="453" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="454" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="455" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="448" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="812" fillId="777" fontId="449" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="816" fillId="780" fontId="450" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="820" fillId="783" fontId="451" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="820" fillId="783" fontId="452" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="453" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="786" fontId="454" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="455" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="456" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="828" fillId="789" fontId="457" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="458" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="832" fillId="792" fontId="459" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="836" fillId="795" fontId="460" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="836" fillId="798" fontId="461" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="462" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="801" fontId="463" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="464" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="840" fillId="804" fontId="465" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="844" fillId="807" fontId="466" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="848" fillId="810" fontId="467" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="848" fillId="810" fontId="468" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="469" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="470" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="471" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="472" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="816" borderId="856" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="819" borderId="860" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="822" borderId="864" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="825" borderId="864" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="831" borderId="868" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="834" borderId="872" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="837" borderId="876" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="837" borderId="876" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19645,7 +20819,7 @@
         <v>149</v>
       </c>
       <c r="L11" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="N11" t="s">
         <v>166</v>
@@ -19680,7 +20854,7 @@
         <v>150</v>
       </c>
       <c r="L12" t="s">
-        <v>218</v>
+        <v>468</v>
       </c>
       <c r="N12" t="s">
         <v>26</v>
@@ -19712,7 +20886,7 @@
         <v>195</v>
       </c>
       <c r="L13" t="s">
-        <v>219</v>
+        <v>503</v>
       </c>
       <c r="N13" t="s">
         <v>167</v>
@@ -19744,7 +20918,7 @@
         <v>196</v>
       </c>
       <c r="L14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N14" t="s">
         <v>168</v>
@@ -19772,6 +20946,9 @@
       <c r="J15" t="s">
         <v>485</v>
       </c>
+      <c r="L15" t="s">
+        <v>219</v>
+      </c>
       <c r="N15" t="s">
         <v>169</v>
       </c>
@@ -19797,6 +20974,9 @@
       </c>
       <c r="J16" t="s">
         <v>197</v>
+      </c>
+      <c r="L16" t="s">
+        <v>220</v>
       </c>
       <c r="O16" t="s">
         <v>277</v>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -42,12 +42,12 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
     <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15024" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15510" uniqueCount="508">
   <si>
     <t>description</t>
   </si>
@@ -1578,6 +1578,15 @@
   </si>
   <si>
     <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
   </si>
 </sst>
 </file>
@@ -1585,7 +1594,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="489" x14ac:knownFonts="1">
+  <fonts count="505" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4662,8 +4671,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="841">
+  <fills count="868">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9425,8 +9535,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="877">
+  <borders count="905">
     <border>
       <left/>
       <right/>
@@ -9525,6 +9788,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -18282,7 +18827,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="509">
+  <cellXfs count="525">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19785,52 +20330,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="472" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="816" borderId="856" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="856" fillId="816" fontId="473" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="474" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="475" fillId="819" borderId="860" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="860" fillId="819" fontId="475" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="476" fillId="822" borderId="864" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="864" fillId="822" fontId="476" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="477" fillId="825" borderId="864" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="864" fillId="825" fontId="477" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="478" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="479" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="828" fontId="479" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="481" fillId="831" borderId="868" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="482" fillId="834" borderId="872" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="483" fillId="837" borderId="876" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="484" fillId="837" borderId="876" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="485" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="486" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="487" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="480" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="868" fillId="831" fontId="481" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="872" fillId="834" fontId="482" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="876" fillId="837" fontId="483" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="876" fillId="837" fontId="484" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="485" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="840" fontId="486" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="487" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="488" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="843" borderId="884" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="846" borderId="888" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="849" borderId="892" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="852" borderId="892" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="858" borderId="896" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="861" borderId="900" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="864" borderId="904" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="864" borderId="904" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20162,7 +20755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20761,7 +21354,7 @@
         <v>207</v>
       </c>
       <c r="AA9" t="s">
-        <v>260</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10">
@@ -20799,7 +21392,7 @@
         <v>208</v>
       </c>
       <c r="AA10" t="s">
-        <v>261</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11">
@@ -20834,7 +21427,7 @@
         <v>284</v>
       </c>
       <c r="AA11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12">
@@ -20868,6 +21461,9 @@
       <c r="Y12" t="s">
         <v>138</v>
       </c>
+      <c r="AA12" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -20900,6 +21496,9 @@
       <c r="Y13" t="s">
         <v>139</v>
       </c>
+      <c r="AA13" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -21490,7 +22089,7 @@
         <v>395</v>
       </c>
       <c r="V63" t="s">
-        <v>239</v>
+        <v>505</v>
       </c>
     </row>
     <row r="64">
@@ -21498,7 +22097,7 @@
         <v>370</v>
       </c>
       <c r="V64" t="s">
-        <v>414</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65">
@@ -21506,7 +22105,7 @@
         <v>339</v>
       </c>
       <c r="V65" t="s">
-        <v>470</v>
+        <v>414</v>
       </c>
     </row>
     <row r="66">
@@ -21514,7 +22113,7 @@
         <v>294</v>
       </c>
       <c r="V66" t="s">
-        <v>85</v>
+        <v>470</v>
       </c>
     </row>
     <row r="67">
@@ -21522,7 +22121,7 @@
         <v>378</v>
       </c>
       <c r="V67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68">
@@ -21530,7 +22129,7 @@
         <v>340</v>
       </c>
       <c r="V68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69">
@@ -21538,7 +22137,7 @@
         <v>435</v>
       </c>
       <c r="V69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70">
@@ -21546,7 +22145,7 @@
         <v>329</v>
       </c>
       <c r="V70" t="s">
-        <v>222</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71">
@@ -21554,7 +22153,7 @@
         <v>436</v>
       </c>
       <c r="V71" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72">
@@ -21562,7 +22161,7 @@
         <v>287</v>
       </c>
       <c r="V72" t="s">
-        <v>483</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73">
@@ -21570,7 +22169,7 @@
         <v>369</v>
       </c>
       <c r="V73" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="74">
@@ -21578,7 +22177,7 @@
         <v>305</v>
       </c>
       <c r="V74" t="s">
-        <v>89</v>
+        <v>499</v>
       </c>
     </row>
     <row r="75">
@@ -21586,7 +22185,7 @@
         <v>311</v>
       </c>
       <c r="V75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76">
@@ -21594,7 +22193,7 @@
         <v>316</v>
       </c>
       <c r="V76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77">
@@ -21602,7 +22201,7 @@
         <v>454</v>
       </c>
       <c r="V77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78">
@@ -21610,7 +22209,7 @@
         <v>357</v>
       </c>
       <c r="V78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79">
@@ -21618,7 +22217,7 @@
         <v>295</v>
       </c>
       <c r="V79" t="s">
-        <v>224</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80">
@@ -21626,7 +22225,7 @@
         <v>306</v>
       </c>
       <c r="V80" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81">
@@ -21634,7 +22233,7 @@
         <v>312</v>
       </c>
       <c r="V81" t="s">
-        <v>482</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82">
@@ -21642,7 +22241,7 @@
         <v>301</v>
       </c>
       <c r="V82" t="s">
-        <v>226</v>
+        <v>482</v>
       </c>
     </row>
     <row r="83">
@@ -21650,7 +22249,7 @@
         <v>296</v>
       </c>
       <c r="V83" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84">
@@ -21658,7 +22257,7 @@
         <v>313</v>
       </c>
       <c r="V84" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="85">
@@ -21666,7 +22265,7 @@
         <v>297</v>
       </c>
       <c r="V85" t="s">
-        <v>94</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86">
@@ -21674,7 +22273,7 @@
         <v>298</v>
       </c>
       <c r="V86" t="s">
-        <v>228</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87">
@@ -21682,7 +22281,7 @@
         <v>330</v>
       </c>
       <c r="V87" t="s">
-        <v>462</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88">
@@ -21690,7 +22289,7 @@
         <v>337</v>
       </c>
       <c r="V88" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="89">
@@ -21698,7 +22297,7 @@
         <v>331</v>
       </c>
       <c r="V89" t="s">
-        <v>229</v>
+        <v>464</v>
       </c>
     </row>
     <row r="90">
@@ -21706,7 +22305,7 @@
         <v>365</v>
       </c>
       <c r="V90" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91">
@@ -21714,7 +22313,7 @@
         <v>302</v>
       </c>
       <c r="V91" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92">
@@ -21722,141 +22321,146 @@
         <v>303</v>
       </c>
       <c r="V92" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>408</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>96</v>
+        <v>408</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>471</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>109</v>
+        <v>471</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119">
       <c r="V119" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="V120" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC1CB34-2035-E348-86F2-488CCED077F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{AFC1CB34-2035-E348-86F2-488CCED077F5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="31560" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="31560" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="number_showcase" sheetId="2" r:id="rId2"/>
-    <sheet name="arrays" sheetId="5" r:id="rId3"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="number_showcase" r:id="rId2" sheetId="2"/>
+    <sheet name="arrays" r:id="rId3" sheetId="5"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -26,30 +26,31 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="527">
   <si>
     <t>description</t>
   </si>
@@ -1621,13 +1622,38 @@
   </si>
   <si>
     <t>${average}</t>
+  </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1706,8 +1732,109 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1726,8 +1853,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1827,153 +2107,483 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="48">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="4"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="5"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="6"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="7"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="8"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="9"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="10"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2037,7 +2647,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2062,10 +2672,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2100,7 +2710,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2135,7 +2745,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2229,21 +2839,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2260,7 +2870,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2312,26 +2922,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC122"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2369,52 +2979,55 @@
         <v>210</v>
       </c>
       <c r="M1" t="s">
+        <v>519</v>
+      </c>
+      <c r="N1" t="s">
         <v>221</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>128</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>264</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>209</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>425</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>446</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>439</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>382</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>421</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>31</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>131</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>448</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>396</v>
       </c>
@@ -2452,52 +3065,55 @@
         <v>455</v>
       </c>
       <c r="M2" t="s">
+        <v>522</v>
+      </c>
+      <c r="N2" t="s">
         <v>438</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>456</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>278</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>242</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>426</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>447</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>445</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>406</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>422</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>41</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>117</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>122</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>132</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>458</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>487</v>
       </c>
@@ -2520,7 +3136,7 @@
         <v>203</v>
       </c>
       <c r="H3" t="s">
-        <v>146</v>
+        <v>520</v>
       </c>
       <c r="I3" t="s">
         <v>374</v>
@@ -2534,47 +3150,50 @@
       <c r="L3" t="s">
         <v>211</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>523</v>
+      </c>
+      <c r="O3" t="s">
         <v>457</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>265</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>243</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>427</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>441</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>407</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>423</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>42</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>118</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>123</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>389</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>133</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2593,6 +3212,9 @@
       <c r="G4" t="s">
         <v>475</v>
       </c>
+      <c r="H4" t="s">
+        <v>521</v>
+      </c>
       <c r="I4" t="s">
         <v>375</v>
       </c>
@@ -2605,47 +3227,50 @@
       <c r="L4" t="s">
         <v>212</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>524</v>
+      </c>
+      <c r="O4" t="s">
         <v>19</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>266</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>244</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>428</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>442</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>383</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>424</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>379</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>119</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>124</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>133</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>449</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>199</v>
       </c>
@@ -2673,44 +3298,44 @@
       <c r="L5" t="s">
         <v>213</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>21</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>267</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>245</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>429</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>443</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>384</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>380</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>120</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>125</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>134</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>450</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2735,41 +3360,41 @@
       <c r="L6" t="s">
         <v>214</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>22</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>268</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>416</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>430</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>386</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>43</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>470</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>126</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>135</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>451</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -2791,41 +3416,41 @@
       <c r="L7" t="s">
         <v>341</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>24</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>269</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>440</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>431</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>385</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>44</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>471</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>130</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>136</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>452</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>143</v>
       </c>
@@ -2847,38 +3472,38 @@
       <c r="L8" t="s">
         <v>215</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>164</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>270</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>432</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>387</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>45</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>121</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>127</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>137</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>453</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>372</v>
       </c>
@@ -2900,29 +3525,29 @@
       <c r="L9" t="s">
         <v>216</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>165</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>271</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>433</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>388</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>234</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>207</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>144</v>
       </c>
@@ -2941,26 +3566,26 @@
       <c r="L10" t="s">
         <v>217</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>459</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>272</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>434</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>282</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>208</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>358</v>
       </c>
@@ -2979,23 +3604,23 @@
       <c r="L11" t="s">
         <v>497</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>166</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>273</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>283</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>284</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>210</v>
       </c>
@@ -3014,25 +3639,25 @@
       <c r="L12" t="s">
         <v>466</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>26</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>274</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>46</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>138</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
-        <v>221</v>
+        <v>519</v>
       </c>
       <c r="D13" t="s">
         <v>366</v>
@@ -3049,25 +3674,25 @@
       <c r="L13" t="s">
         <v>496</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>167</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>279</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>351</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>139</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>221</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
@@ -3084,22 +3709,22 @@
       <c r="L14" t="s">
         <v>218</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>168</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>275</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>47</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
         <v>34</v>
@@ -3113,22 +3738,22 @@
       <c r="L15" t="s">
         <v>219</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>169</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>276</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>48</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="D16" t="s">
         <v>410</v>
@@ -3142,19 +3767,19 @@
       <c r="L16" t="s">
         <v>220</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>277</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>49</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
-        <v>425</v>
+        <v>209</v>
       </c>
       <c r="D17" t="s">
         <v>411</v>
@@ -3165,16 +3790,16 @@
       <c r="J17" t="s">
         <v>198</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>50</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="D18" t="s">
         <v>437</v>
@@ -3185,13 +3810,13 @@
       <c r="J18" t="s">
         <v>405</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
@@ -3202,13 +3827,13 @@
       <c r="J19" t="s">
         <v>495</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
-        <v>382</v>
+        <v>439</v>
       </c>
       <c r="D20" t="s">
         <v>36</v>
@@ -3219,13 +3844,13 @@
       <c r="J20" t="s">
         <v>151</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="D21" t="s">
         <v>281</v>
@@ -3236,13 +3861,13 @@
       <c r="J21" t="s">
         <v>417</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="D22" t="s">
         <v>37</v>
@@ -3253,13 +3878,13 @@
       <c r="J22" t="s">
         <v>152</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
         <v>346</v>
@@ -3270,13 +3895,13 @@
       <c r="J23" t="s">
         <v>465</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
         <v>129</v>
@@ -3287,13 +3912,13 @@
       <c r="J24" t="s">
         <v>153</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
         <v>473</v>
@@ -3304,13 +3929,13 @@
       <c r="J25" t="s">
         <v>154</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
-        <v>448</v>
+        <v>131</v>
       </c>
       <c r="D26" t="s">
         <v>250</v>
@@ -3318,13 +3943,13 @@
       <c r="F26" t="s">
         <v>307</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
-        <v>252</v>
+        <v>448</v>
       </c>
       <c r="D27" t="s">
         <v>251</v>
@@ -3332,733 +3957,746 @@
       <c r="F27" t="s">
         <v>291</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28">
+      <c r="A28" t="s">
+        <v>252</v>
+      </c>
       <c r="D28" t="s">
         <v>493</v>
       </c>
       <c r="F28" t="s">
         <v>308</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="D29" t="s">
         <v>494</v>
       </c>
       <c r="F29" t="s">
         <v>309</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="D30" t="s">
         <v>444</v>
       </c>
       <c r="F30" t="s">
         <v>241</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="D31" t="s">
         <v>159</v>
       </c>
       <c r="F31" t="s">
         <v>300</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="D32" t="s">
         <v>38</v>
       </c>
       <c r="F32" t="s">
         <v>310</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="D33" t="s">
         <v>39</v>
       </c>
       <c r="F33" t="s">
         <v>285</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="D34" t="s">
         <v>160</v>
       </c>
       <c r="F34" t="s">
         <v>355</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="35" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="D35" t="s">
         <v>161</v>
       </c>
       <c r="F35" t="s">
         <v>333</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="D36" t="s">
         <v>162</v>
       </c>
       <c r="F36" t="s">
         <v>286</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="37" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="D37" t="s">
         <v>40</v>
       </c>
       <c r="F37" t="s">
         <v>334</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="38" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="D38" t="s">
         <v>155</v>
       </c>
       <c r="F38" t="s">
         <v>292</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="39" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="F39" t="s">
         <v>158</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="F40" t="s">
         <v>237</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="F41" t="s">
         <v>314</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="F42" t="s">
         <v>324</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="F43" t="s">
         <v>325</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="F44" t="s">
         <v>368</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="F45" t="s">
         <v>367</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="46" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="F46" t="s">
         <v>236</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="47" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="F47" t="s">
         <v>326</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="F48" t="s">
         <v>364</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="F49" t="s">
         <v>393</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="F50" t="s">
         <v>327</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="F51" t="s">
         <v>381</v>
       </c>
-      <c r="V51" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="52" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W51" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="F52" t="s">
         <v>356</v>
       </c>
-      <c r="V52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W52" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="F53" t="s">
         <v>293</v>
       </c>
-      <c r="V53" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="54" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="F54" t="s">
         <v>317</v>
       </c>
-      <c r="V54" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="55" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W54" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="F55" t="s">
         <v>318</v>
       </c>
-      <c r="V55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W55" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="F56" t="s">
         <v>319</v>
       </c>
-      <c r="V56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="F57" t="s">
         <v>328</v>
       </c>
-      <c r="V57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="F58" t="s">
         <v>338</v>
       </c>
-      <c r="V58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="F59" t="s">
         <v>362</v>
       </c>
-      <c r="V59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="F60" t="s">
         <v>335</v>
       </c>
-      <c r="V60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="F61" t="s">
         <v>336</v>
       </c>
-      <c r="V61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="F62" t="s">
         <v>394</v>
       </c>
-      <c r="V62" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="63" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="F63" t="s">
         <v>395</v>
       </c>
-      <c r="V63" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="64" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W63" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="F64" t="s">
         <v>370</v>
       </c>
-      <c r="V64" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="65" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W64" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="F65" t="s">
         <v>339</v>
       </c>
-      <c r="V65" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="66" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W65" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="F66" t="s">
         <v>294</v>
       </c>
-      <c r="V66" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="67" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W66" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="F67" t="s">
         <v>378</v>
       </c>
-      <c r="V67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W67" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="F68" t="s">
         <v>340</v>
       </c>
-      <c r="V68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W68" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="F69" t="s">
         <v>435</v>
       </c>
-      <c r="V69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="F70" t="s">
         <v>329</v>
       </c>
-      <c r="V70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W70" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="F71" t="s">
         <v>436</v>
       </c>
-      <c r="V71" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="72" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="F72" t="s">
         <v>287</v>
       </c>
-      <c r="V72" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="73" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W72" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="F73" t="s">
         <v>369</v>
       </c>
-      <c r="V73" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="74" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W73" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="F74" t="s">
         <v>305</v>
       </c>
-      <c r="V74" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="75" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W74" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="F75" t="s">
         <v>311</v>
       </c>
-      <c r="V75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W75" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="F76" t="s">
         <v>316</v>
       </c>
-      <c r="V76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W76" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="F77" t="s">
         <v>454</v>
       </c>
-      <c r="V77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W77" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="F78" t="s">
         <v>357</v>
       </c>
-      <c r="V78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W78" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="F79" t="s">
         <v>295</v>
       </c>
-      <c r="V79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W79" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="F80" t="s">
         <v>306</v>
       </c>
-      <c r="V80" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="81" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W80" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="F81" t="s">
         <v>312</v>
       </c>
-      <c r="V81" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="82" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W81" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="F82" t="s">
         <v>301</v>
       </c>
-      <c r="V82" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="83" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W82" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="F83" t="s">
         <v>296</v>
       </c>
-      <c r="V83" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="84" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W83" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="F84" t="s">
         <v>313</v>
       </c>
-      <c r="V84" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="85" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W84" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="F85" t="s">
         <v>297</v>
       </c>
-      <c r="V85" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="86" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W85" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="F86" t="s">
         <v>298</v>
       </c>
-      <c r="V86" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="87" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W86" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="F87" t="s">
         <v>330</v>
       </c>
-      <c r="V87" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="88" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W87" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="F88" t="s">
         <v>337</v>
       </c>
-      <c r="V88" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="89" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="F89" t="s">
         <v>331</v>
       </c>
-      <c r="V89" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="90" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W89" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="F90" t="s">
         <v>365</v>
       </c>
-      <c r="V90" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="91" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W90" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="F91" t="s">
         <v>302</v>
       </c>
-      <c r="V91" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="92" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="W91" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="F92" t="s">
         <v>303</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="93" spans="6:22" x14ac:dyDescent="0.2">
-      <c r="V93" t="s">
+    <row r="95">
+      <c r="W95" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="94" spans="6:22" x14ac:dyDescent="0.2">
-      <c r="V94" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="95" spans="6:22" x14ac:dyDescent="0.2">
-      <c r="V95" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="96" spans="6:22" x14ac:dyDescent="0.2">
-      <c r="V96" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V97" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="98" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V98" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V99" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V100" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V101" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V102" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V103" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V104" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V105" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V106" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V107" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V108" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V109" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V110" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V111" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="112" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V112" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V113" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V114" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V115" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V116" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V117" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V118" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V119" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="120" spans="22:22" x14ac:dyDescent="0.2">
-      <c r="V120" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O1007"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P1007"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="125" zoomScalePageLayoutView="125" zoomScale="100" tabSelected="true">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.83203125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="19.33203125" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="5" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.83203125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="12" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="16.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="11.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="32.83203125" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="4" width="19.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="18.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="2" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="5" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="2" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="12" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -4088,7 +4726,7 @@
       <c r="N1" s="27"/>
       <c r="O1" s="28"/>
     </row>
-    <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>163</v>
       </c>
@@ -4108,7 +4746,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="31"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
       <c r="D3" s="2"/>
       <c r="E3" s="7"/>
@@ -4118,7 +4756,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:15" s="13" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="13" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>246</v>
       </c>
@@ -4163,7 +4801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>170</v>
       </c>
@@ -4190,7 +4828,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6"/>
       <c r="C6" s="6" t="s">
@@ -4215,7 +4853,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7"/>
       <c r="C7" s="6" t="s">
@@ -4240,7 +4878,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8"/>
       <c r="C8" s="6" t="s">
@@ -4265,7 +4903,7 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9"/>
       <c r="C9" s="6" t="s">
@@ -4290,7 +4928,7 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10"/>
       <c r="C10" s="6" t="s">
@@ -4315,7 +4953,7 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11"/>
       <c r="C11" s="6" t="s">
@@ -4340,7 +4978,7 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12"/>
       <c r="C12" s="6" t="s">
@@ -4363,7 +5001,7 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13"/>
       <c r="C13" s="6" t="s">
@@ -4388,7 +5026,7 @@
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14"/>
       <c r="C14" s="6" t="s">
@@ -4413,7 +5051,7 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15"/>
       <c r="C15" s="6" t="s">
@@ -4436,7 +5074,7 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16"/>
       <c r="C16" s="6" t="s">
@@ -4461,7 +5099,7 @@
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17"/>
       <c r="C17" s="6" t="s">
@@ -4486,7 +5124,7 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18"/>
       <c r="C18" s="6" t="s">
@@ -4511,7 +5149,7 @@
       <c r="N18"/>
       <c r="O18"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19" s="6" t="s">
@@ -4536,7 +5174,7 @@
       <c r="N19"/>
       <c r="O19"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20" s="6" t="s">
@@ -4561,7 +5199,7 @@
       <c r="N20"/>
       <c r="O20"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21" s="6" t="s">
@@ -4586,7 +5224,7 @@
       <c r="N21"/>
       <c r="O21"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22" s="6" t="s">
@@ -4611,7 +5249,7 @@
       <c r="N22"/>
       <c r="O22"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23"/>
       <c r="C23" s="6" t="s">
@@ -4636,7 +5274,7 @@
       <c r="N23"/>
       <c r="O23"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24"/>
       <c r="C24" s="6" t="s">
@@ -4661,7 +5299,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25"/>
       <c r="C25" s="6" t="s">
@@ -4686,7 +5324,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26"/>
       <c r="C26" s="6" t="s">
@@ -4711,7 +5349,7 @@
       <c r="N26"/>
       <c r="O26"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27"/>
       <c r="C27" s="6" t="s">
@@ -4736,7 +5374,7 @@
       <c r="N27"/>
       <c r="O27"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="14"/>
       <c r="C28" s="6" t="s">
@@ -4761,7 +5399,7 @@
       <c r="N28"/>
       <c r="O28"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29"/>
       <c r="C29" s="6" t="s">
@@ -4786,7 +5424,7 @@
       <c r="N29"/>
       <c r="O29"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30"/>
       <c r="C30" s="6" t="s">
@@ -4811,10 +5449,11 @@
       <c r="N30"/>
       <c r="O30"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
         <v>501</v>
       </c>
+      <c r="B31"/>
       <c r="C31" s="6" t="s">
         <v>13</v>
       </c>
@@ -4827,9 +5466,16 @@
       <c r="F31" s="4" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+    </row>
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
+      <c r="B32"/>
       <c r="C32" s="6" t="s">
         <v>128</v>
       </c>
@@ -4842,9 +5488,16 @@
       <c r="F32" s="4" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+    </row>
+    <row customHeight="1" ht="23" r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
+      <c r="B33"/>
       <c r="C33" s="6" t="s">
         <v>128</v>
       </c>
@@ -4857,9 +5510,16 @@
       <c r="F33" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+    </row>
+    <row customHeight="1" ht="23" r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
+      <c r="B34"/>
       <c r="C34" s="6" t="s">
         <v>128</v>
       </c>
@@ -4872,9 +5532,16 @@
       <c r="F34" s="4" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+    </row>
+    <row customHeight="1" ht="23" r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
+      <c r="B35"/>
       <c r="C35" s="6" t="s">
         <v>128</v>
       </c>
@@ -4887,51 +5554,57 @@
       <c r="F35" s="4" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:15" s="16" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+    </row>
+    <row customHeight="1" ht="23" r="36" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="37" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="38" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="39" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="40" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="41" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="42" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="43" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="44" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="45" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="46" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="47" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="48" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="49" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="50" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="51" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="52" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="53" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="54" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="55" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="56" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="57" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="58" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="59" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="60" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="61" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="62" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="63" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="64" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="65" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="66" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="67" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="68" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="69" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="70" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="71" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="72" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="73" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="74" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="75" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="76" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="77" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="78" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customFormat="1" customHeight="1" ht="48" r="79" s="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="6"/>
@@ -4948,936 +5621,936 @@
       <c r="N79" s="7"/>
       <c r="O79" s="2"/>
     </row>
-    <row r="80" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1005" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1006" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1007" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="80" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="81" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="82" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="83" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="84" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="85" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="86" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="87" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="88" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="89" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="90" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="91" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="92" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="93" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="94" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="95" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="96" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="97" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="98" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="99" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="100" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="101" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="102" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="103" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="104" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="105" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="106" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="107" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="108" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="109" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="110" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="111" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="112" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="113" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="114" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="115" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="116" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="117" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="118" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="119" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="120" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="121" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="122" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="123" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="124" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="125" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="126" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="127" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="128" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="129" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="130" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="131" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="132" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="133" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="134" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="135" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="136" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="137" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="138" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="139" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="140" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="141" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="142" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="143" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="144" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="145" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="146" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="147" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="148" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="149" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="150" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="151" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="152" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="153" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="154" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="155" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="156" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="157" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="158" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="159" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="160" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="161" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="162" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="163" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="164" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="165" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="166" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="167" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="168" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="169" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="170" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="171" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="172" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="173" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="174" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="175" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="176" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="177" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="178" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="179" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="180" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="181" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="182" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="183" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="184" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="185" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="186" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="187" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="188" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="189" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="190" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="191" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="192" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="193" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="194" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="195" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="196" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="197" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="198" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="199" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="200" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="201" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="202" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="203" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="204" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="205" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="206" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="207" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="208" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="209" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="210" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="211" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="212" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="213" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="214" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="215" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="216" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="217" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="218" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="219" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="220" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="221" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="222" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="223" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="224" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="225" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="226" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="227" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="228" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="229" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="230" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="231" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="232" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="233" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="234" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="235" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="236" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="237" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="238" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="239" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="240" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="241" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="242" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="243" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="244" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="245" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="246" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="247" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="248" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="249" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="250" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="251" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="252" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="253" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="254" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="255" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="256" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="257" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="258" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="259" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="260" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="261" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="262" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="263" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="264" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="265" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="266" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="267" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="268" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="269" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="270" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="271" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="272" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="273" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="274" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="275" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="276" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="277" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="278" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="279" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="280" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="281" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="282" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="283" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="284" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="285" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="286" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="287" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="288" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="289" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="290" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="291" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="292" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="293" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="294" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="295" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="296" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="297" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="298" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="299" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="300" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="301" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="302" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="303" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="304" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="305" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="306" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="307" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="308" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="309" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="310" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="311" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="312" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="313" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="314" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="315" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="316" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="317" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="318" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="319" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="320" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="321" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="322" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="323" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="324" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="325" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="326" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="327" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="328" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="329" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="330" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="331" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="332" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="333" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="334" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="335" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="336" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="337" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="338" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="339" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="340" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="341" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="342" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="343" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="344" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="345" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="346" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="347" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="348" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="349" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="350" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="351" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="352" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="353" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="354" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="355" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="356" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="357" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="358" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="359" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="360" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="361" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="362" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="363" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="364" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="365" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="366" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="367" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="368" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="369" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="370" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="371" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="372" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="373" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="374" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="375" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="376" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="377" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="378" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="379" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="380" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="381" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="382" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="383" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="384" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="385" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="386" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="387" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="388" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="389" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="390" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="391" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="392" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="393" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="394" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="395" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="396" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="397" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="398" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="399" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="400" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="401" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="402" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="403" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="404" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="405" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="406" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="407" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="408" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="409" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="410" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="411" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="412" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="413" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="414" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="415" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="416" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="417" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="418" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="419" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="420" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="421" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="422" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="423" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="424" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="425" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="426" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="427" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="428" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="429" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="430" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="431" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="432" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="433" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="434" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="435" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="436" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="437" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="438" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="439" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="440" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="441" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="442" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="443" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="444" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="445" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="446" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="447" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="448" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="449" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="450" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="451" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="452" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="453" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="454" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="455" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="456" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="457" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="458" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="459" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="460" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="461" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="462" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="463" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="464" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="465" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="466" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="467" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="468" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="469" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="470" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="471" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="472" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="473" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="474" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="475" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="476" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="477" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="478" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="479" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="480" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="481" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="482" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="483" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="484" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="485" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="486" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="487" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="488" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="489" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="490" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="491" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="492" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="493" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="494" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="495" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="496" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="497" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="498" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="499" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="500" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="501" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="502" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="503" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="504" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="505" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="506" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="507" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="508" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="509" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="510" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="511" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="512" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="513" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="514" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="515" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="516" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="517" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="518" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="519" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="520" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="521" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="522" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="523" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="524" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="525" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="526" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="527" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="528" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="529" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="530" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="531" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="532" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="533" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="534" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="535" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="536" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="537" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="538" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="539" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="540" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="541" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="542" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="543" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="544" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="545" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="546" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="547" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="548" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="549" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="550" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="551" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="552" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="553" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="554" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="555" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="556" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="557" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="558" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="559" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="560" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="561" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="562" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="563" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="564" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="565" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="566" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="567" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="568" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="569" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="570" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="571" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="572" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="573" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="574" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="575" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="576" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="577" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="578" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="579" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="580" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="581" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="582" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="583" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="584" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="585" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="586" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="587" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="588" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="589" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="590" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="591" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="592" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="593" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="594" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="595" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="596" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="597" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="598" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="599" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="600" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="601" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="602" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="603" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="604" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="605" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="606" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="607" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="608" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="609" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="610" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="611" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="612" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="613" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="614" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="615" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="616" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="617" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="618" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="619" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="620" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="621" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="622" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="623" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="624" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="625" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="626" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="627" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="628" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="629" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="630" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="631" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="632" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="633" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="634" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="635" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="636" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="637" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="638" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="639" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="640" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="641" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="642" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="643" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="644" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="645" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="646" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="647" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="648" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="999" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1000" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1001" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1002" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1003" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1004" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1005" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1006" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1007" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection deleteColumns="0" deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -5885,53 +6558,53 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D705" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D705" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C707" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C707" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5BF67B-8603-7D4C-A8B7-40CA6EE94211}">
-  <dimension ref="A1:O1007"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5BF67B-8603-7D4C-A8B7-40CA6EE94211}">
+  <dimension ref="A1:P1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScaleNormal="125" zoomScalePageLayoutView="125" zoomScale="100">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.83203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.6640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="10" width="18" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="5" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.83203125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="12" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="16.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="11.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="9.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="32.6640625" collapsed="true"/>
+    <col min="5" max="10" customWidth="true" style="4" width="18.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="2" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="5" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="2" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="12" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -5961,7 +6634,7 @@
       <c r="N1" s="27"/>
       <c r="O1" s="28"/>
     </row>
-    <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>163</v>
       </c>
@@ -5981,7 +6654,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="31"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
       <c r="D3" s="2"/>
       <c r="E3" s="7"/>
@@ -5991,7 +6664,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:15" s="13" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="13" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>246</v>
       </c>
@@ -6036,7 +6709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>509</v>
       </c>
@@ -6063,7 +6736,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6"/>
       <c r="C6" s="6" t="s">
@@ -6088,7 +6761,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7"/>
       <c r="C7" s="6" t="s">
@@ -6113,7 +6786,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8"/>
       <c r="C8" s="6" t="s">
@@ -6138,7 +6811,7 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9"/>
       <c r="C9" s="6" t="s">
@@ -6163,7 +6836,7 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10"/>
       <c r="C10" s="6" t="s">
@@ -6188,7 +6861,7 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11"/>
       <c r="C11" s="6" t="s">
@@ -6213,7 +6886,7 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12"/>
       <c r="F12"/>
@@ -6227,7 +6900,7 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13"/>
       <c r="G13"/>
@@ -6240,7 +6913,7 @@
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14"/>
       <c r="G14"/>
@@ -6253,7 +6926,7 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15"/>
       <c r="F15"/>
@@ -6267,7 +6940,7 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16"/>
       <c r="G16"/>
@@ -6280,7 +6953,7 @@
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17"/>
       <c r="G17"/>
@@ -6293,7 +6966,7 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18"/>
       <c r="G18"/>
@@ -6306,7 +6979,7 @@
       <c r="N18"/>
       <c r="O18"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="G19"/>
@@ -6319,7 +6992,7 @@
       <c r="N19"/>
       <c r="O19"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="G20"/>
@@ -6332,7 +7005,7 @@
       <c r="N20"/>
       <c r="O20"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="G21"/>
@@ -6345,7 +7018,7 @@
       <c r="N21"/>
       <c r="O21"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="G22"/>
@@ -6358,7 +7031,7 @@
       <c r="N22"/>
       <c r="O22"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23"/>
       <c r="G23"/>
@@ -6371,7 +7044,7 @@
       <c r="N23"/>
       <c r="O23"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24"/>
       <c r="G24"/>
@@ -6384,7 +7057,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25"/>
       <c r="G25"/>
@@ -6397,7 +7070,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26"/>
       <c r="G26"/>
@@ -6410,7 +7083,7 @@
       <c r="N26"/>
       <c r="O26"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27"/>
       <c r="G27"/>
@@ -6423,7 +7096,7 @@
       <c r="N27"/>
       <c r="O27"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="14"/>
       <c r="G28"/>
@@ -6436,7 +7109,7 @@
       <c r="N28"/>
       <c r="O28"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29"/>
       <c r="G29"/>
@@ -6449,7 +7122,7 @@
       <c r="N29"/>
       <c r="O29"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30"/>
       <c r="G30"/>
@@ -6462,65 +7135,65 @@
       <c r="N30"/>
       <c r="O30"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
     </row>
-    <row r="33" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
     </row>
-    <row r="34" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
     </row>
-    <row r="35" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
     </row>
-    <row r="36" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:15" s="16" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="37" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="38" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="39" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="40" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="41" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="42" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="43" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="44" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="45" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="46" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="47" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="48" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="49" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="50" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="51" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="52" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="53" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="54" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="55" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="56" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="57" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="58" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="59" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="23" r="60" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="61" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="62" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="63" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="64" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="65" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="66" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="67" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="68" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="69" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="70" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="71" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="72" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="73" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="74" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="75" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="76" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="77" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="78" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customFormat="1" customHeight="1" ht="48" r="79" s="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="6"/>
@@ -6537,936 +7210,936 @@
       <c r="N79" s="7"/>
       <c r="O79" s="2"/>
     </row>
-    <row r="80" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1005" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1006" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1007" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="80" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="81" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="82" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="83" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="84" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="85" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="86" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="87" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="88" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="89" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="90" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="91" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="92" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="93" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="94" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="95" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="96" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="97" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="98" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="99" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="100" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="101" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="102" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="103" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="104" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="105" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="106" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="107" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="108" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="109" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="110" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="111" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="112" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="113" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="114" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="115" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="116" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="117" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="118" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="119" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="120" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="121" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="122" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="123" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="124" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="125" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="126" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="127" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="128" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="129" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="130" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="131" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="132" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="133" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="134" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="135" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="136" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="137" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="138" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="139" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="140" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="141" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="142" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="143" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="144" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="145" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="146" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="147" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="148" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="149" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="150" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="151" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="152" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="153" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="154" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="155" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="156" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="157" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="158" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="159" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="160" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="161" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="162" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="163" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="164" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="165" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="166" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="167" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="168" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="169" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="170" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="171" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="172" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="173" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="174" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="175" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="176" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="177" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="178" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="179" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="180" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="181" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="182" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="183" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="184" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="185" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="186" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="187" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="188" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="189" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="190" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="191" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="192" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="193" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="194" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="195" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="196" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="197" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="198" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="199" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="200" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="201" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="202" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="203" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="204" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="205" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="206" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="207" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="208" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="209" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="210" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="211" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="212" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="213" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="214" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="215" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="216" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="217" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="218" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="219" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="220" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="221" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="222" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="223" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="224" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="225" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="226" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="227" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="228" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="229" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="230" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="231" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="232" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="233" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="234" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="235" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="236" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="237" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="238" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="239" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="240" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="241" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="242" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="243" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="244" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="245" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="246" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="247" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="248" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="249" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="250" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="251" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="252" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="253" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="254" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="255" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="256" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="257" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="258" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="259" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="260" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="261" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="262" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="263" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="264" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="265" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="266" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="267" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="268" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="269" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="270" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="271" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="272" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="273" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="274" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="275" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="276" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="277" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="278" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="279" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="280" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="281" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="282" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="283" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="284" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="285" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="286" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="287" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="288" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="289" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="290" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="291" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="292" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="293" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="294" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="295" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="296" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="297" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="298" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="299" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="300" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="301" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="302" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="303" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="304" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="305" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="306" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="307" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="308" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="309" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="310" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="311" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="312" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="313" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="314" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="315" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="316" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="317" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="318" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="319" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="320" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="321" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="322" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="323" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="324" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="325" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="326" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="327" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="328" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="329" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="330" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="331" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="332" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="333" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="334" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="335" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="336" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="337" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="338" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="339" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="340" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="341" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="342" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="343" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="344" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="345" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="346" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="347" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="348" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="349" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="350" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="351" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="352" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="353" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="354" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="355" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="356" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="357" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="358" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="359" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="360" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="361" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="362" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="363" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="364" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="365" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="366" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="367" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="368" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="369" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="370" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="371" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="372" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="373" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="374" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="375" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="376" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="377" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="378" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="379" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="380" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="381" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="382" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="383" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="384" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="385" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="386" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="387" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="388" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="389" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="390" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="391" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="392" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="393" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="394" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="395" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="396" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="397" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="398" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="399" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="400" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="401" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="402" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="403" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="404" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="405" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="406" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="407" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="408" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="409" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="410" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="411" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="412" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="413" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="414" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="415" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="416" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="417" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="418" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="419" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="420" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="421" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="422" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="423" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="424" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="425" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="426" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="427" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="428" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="429" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="430" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="431" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="432" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="433" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="434" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="435" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="436" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="437" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="438" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="439" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="440" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="441" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="442" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="443" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="444" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="445" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="446" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="447" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="448" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="449" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="450" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="451" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="452" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="453" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="454" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="455" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="456" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="457" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="458" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="459" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="460" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="461" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="462" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="463" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="464" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="465" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="466" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="467" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="468" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="469" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="470" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="471" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="472" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="473" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="474" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="475" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="476" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="477" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="478" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="479" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="480" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="481" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="482" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="483" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="484" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="485" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="486" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="487" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="488" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="489" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="490" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="491" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="492" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="493" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="494" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="495" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="496" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="497" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="498" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="499" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="500" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="501" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="502" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="503" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="504" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="505" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="506" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="507" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="508" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="509" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="510" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="511" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="512" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="513" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="514" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="515" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="516" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="517" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="518" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="519" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="520" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="521" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="522" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="523" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="524" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="525" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="526" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="527" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="528" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="529" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="530" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="531" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="532" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="533" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="534" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="535" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="536" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="537" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="538" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="539" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="540" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="541" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="542" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="543" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="544" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="545" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="546" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="547" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="548" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="549" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="550" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="551" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="552" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="553" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="554" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="555" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="556" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="557" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="558" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="559" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="560" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="561" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="562" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="563" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="564" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="565" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="566" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="567" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="568" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="569" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="570" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="571" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="572" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="573" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="574" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="575" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="576" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="577" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="578" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="579" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="580" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="581" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="582" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="583" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="584" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="585" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="586" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="587" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="588" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="589" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="590" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="591" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="592" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="593" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="594" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="595" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="596" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="597" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="598" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="599" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="600" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="601" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="602" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="603" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="604" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="605" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="606" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="607" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="608" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="609" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="610" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="611" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="612" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="613" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="614" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="615" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="616" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="617" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="618" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="619" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="620" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="621" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="622" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="623" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="624" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="625" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="626" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="627" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="628" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="629" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="630" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="631" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="632" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="633" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="634" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="635" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="636" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="637" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="638" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="639" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="640" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="641" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="642" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="643" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="644" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="645" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="646" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="647" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="648" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="999" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1000" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1001" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1002" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1003" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1004" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1005" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1006" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1007" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection deleteColumns="0" deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -7474,25 +8147,25 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C707" xr:uid="{AC9E7581-607F-7F48-A55B-3DB222DD4556}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C707" type="list" xr:uid="{AC9E7581-607F-7F48-A55B-3DB222DD4556}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D705" xr:uid="{580F2216-6BE5-6843-B3F9-7CAAA832B142}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D705" type="list" xr:uid="{580F2216-6BE5-6843-B3F9-7CAAA832B142}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{AFC1CB34-2035-E348-86F2-488CCED077F5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="31560" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="31560" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="528">
   <si>
     <t>description</t>
   </si>
@@ -1646,6 +1646,9 @@
   </si>
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +1656,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1833,8 +1836,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2006,8 +2110,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -2389,6 +2646,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2403,7 +2942,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="64">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2523,52 +3062,100 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="6" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="9" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="12" fontId="15" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="15" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="18" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="21" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="24" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="27" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="27" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="44" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="52" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="52" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="48" borderId="56" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="51" borderId="60" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="54" borderId="64" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="54" borderId="64" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2932,7 +3519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC122"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3862,7 +4449,7 @@
         <v>417</v>
       </c>
       <c r="W21" t="s">
-        <v>54</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22">
@@ -4676,7 +5263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1007"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="125" zoomScalePageLayoutView="125" zoomScale="100" tabSelected="true">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -6585,7 +7172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5BF67B-8603-7D4C-A8B7-40CA6EE94211}">
   <dimension ref="A1:P1007"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScaleNormal="125" zoomScalePageLayoutView="125" zoomScale="100">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="528">
   <si>
     <t>description</t>
   </si>
@@ -1656,7 +1656,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1937,8 +1937,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2263,8 +2364,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="65">
+  <borders count="93">
     <border>
       <left/>
       <right/>
@@ -2928,6 +3182,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2942,7 +3478,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="80">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3110,52 +3646,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="44" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="44" fillId="33" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="48" fillId="36" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="52" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="52" fillId="39" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="52" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="52" fillId="42" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="34" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="48" borderId="56" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="56" fillId="48" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="51" borderId="60" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="60" fillId="51" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="54" borderId="64" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="64" fillId="54" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="54" borderId="64" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="64" fillId="54" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="60" borderId="72" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="63" borderId="76" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="66" borderId="80" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="69" borderId="80" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="75" borderId="84" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="78" borderId="88" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="81" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="81" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -20,37 +20,38 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3655" uniqueCount="533">
   <si>
     <t>description</t>
   </si>
@@ -1649,6 +1650,21 @@
   </si>
   <si>
     <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1672,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="60" x14ac:knownFonts="1">
+  <fonts count="108" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2038,8 +2054,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2517,8 +2836,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="93">
+  <borders count="177">
     <border>
       <left/>
       <right/>
@@ -2617,6 +3395,852 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -3478,7 +5102,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="128">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3694,52 +5318,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="60" borderId="72" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="72" fillId="60" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="63" borderId="76" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="76" fillId="63" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="66" borderId="80" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="80" fillId="66" fontId="47" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="69" borderId="80" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="80" fillId="69" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="50" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="75" borderId="84" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="84" fillId="75" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="78" borderId="88" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="88" fillId="78" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="81" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="81" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="81" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="81" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="100" fillId="87" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="104" fillId="90" fontId="62" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="108" fillId="93" fontId="63" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="108" fillId="96" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="66" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="112" fillId="102" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="116" fillId="105" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="120" fillId="108" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="120" fillId="108" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="128" fillId="114" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="132" fillId="117" fontId="78" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="136" fillId="120" fontId="79" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="136" fillId="123" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="82" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="140" fillId="129" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="144" fillId="132" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="148" fillId="135" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="148" fillId="135" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="141" borderId="156" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="144" borderId="160" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="147" borderId="164" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="150" borderId="164" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="156" borderId="168" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="159" borderId="172" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="162" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="162" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4101,7 +5869,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4123,78 +5891,81 @@
         <v>487</v>
       </c>
       <c r="D1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>199</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>200</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>143</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>372</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>144</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>358</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>210</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>519</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>221</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>128</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>264</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>209</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>425</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>446</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>439</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>382</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>421</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>131</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>448</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4209,78 +5980,81 @@
         <v>489</v>
       </c>
       <c r="D2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>201</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>157</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>474</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>145</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>491</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>341</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>409</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>455</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>522</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>438</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>456</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>278</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>242</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>426</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>447</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>445</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>406</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>422</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>41</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>117</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>122</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>132</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>458</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4295,1546 +6069,1558 @@
         <v>488</v>
       </c>
       <c r="D3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E3" t="s">
         <v>482</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>390</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>204</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>203</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>520</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>374</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>366</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>359</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>211</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>523</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>457</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>265</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>243</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>427</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>441</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>407</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>423</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>42</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>118</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>123</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>389</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>133</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>528</v>
       </c>
       <c r="B4" t="s">
         <v>399</v>
       </c>
       <c r="D4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>202</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>412</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>475</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>521</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>375</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>263</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>360</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>212</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>524</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>19</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>266</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>244</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>428</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>442</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>383</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>424</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>379</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>119</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>124</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>133</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>449</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>400</v>
       </c>
       <c r="D5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E5" t="s">
         <v>483</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>464</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>361</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>480</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>376</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>485</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>213</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>21</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>267</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>245</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>429</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>443</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>384</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>380</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>120</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>125</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>134</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>450</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="B6" t="s">
         <v>401</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>413</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>476</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>373</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>201</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>214</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>22</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>268</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>416</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>430</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>386</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>43</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>470</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>126</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>135</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>451</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>402</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>249</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>391</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>472</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>147</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>341</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>24</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>269</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>440</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>431</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>385</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>44</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>471</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>130</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>136</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>452</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="B8" t="s">
         <v>403</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>344</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>392</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>353</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>194</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>215</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>164</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>270</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>432</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>387</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>45</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>121</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>127</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>137</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>453</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>372</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
         <v>404</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>332</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>354</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>148</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>216</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>165</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>271</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>433</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>388</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>234</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>207</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" t="s">
+        <v>372</v>
+      </c>
+      <c r="E10" t="s">
         <v>341</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>377</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>477</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>415</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>217</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>459</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>272</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>434</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>282</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>208</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>358</v>
-      </c>
-      <c r="D11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" t="s">
         <v>280</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>299</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>347</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>149</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>497</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>166</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>273</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>283</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>284</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" t="s">
+        <v>358</v>
+      </c>
+      <c r="E12" t="s">
         <v>345</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>288</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>348</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>150</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>466</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>26</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>274</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>46</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>138</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>519</v>
-      </c>
-      <c r="D13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" t="s">
         <v>366</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>342</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>349</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>195</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>496</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>167</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>279</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>351</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>139</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>221</v>
-      </c>
-      <c r="D14" t="s">
+        <v>519</v>
+      </c>
+      <c r="E14" t="s">
         <v>25</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>289</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>350</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>196</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>218</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>168</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>275</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>47</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" t="s">
         <v>34</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>290</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>481</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>219</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>169</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>276</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>48</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>264</v>
-      </c>
-      <c r="D16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" t="s">
         <v>410</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>343</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>197</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>220</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>277</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>49</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>209</v>
-      </c>
-      <c r="D17" t="s">
+        <v>264</v>
+      </c>
+      <c r="E17" t="s">
         <v>411</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>205</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>198</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>50</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>425</v>
-      </c>
-      <c r="D18" t="s">
+        <v>209</v>
+      </c>
+      <c r="E18" t="s">
         <v>437</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>206</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>405</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>446</v>
-      </c>
-      <c r="D19" t="s">
+        <v>425</v>
+      </c>
+      <c r="E19" t="s">
         <v>35</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>320</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>495</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>439</v>
-      </c>
-      <c r="D20" t="s">
+        <v>446</v>
+      </c>
+      <c r="E20" t="s">
         <v>36</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>321</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>151</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>382</v>
-      </c>
-      <c r="D21" t="s">
+        <v>439</v>
+      </c>
+      <c r="E21" t="s">
         <v>281</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>322</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>417</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>421</v>
-      </c>
-      <c r="D22" t="s">
+        <v>382</v>
+      </c>
+      <c r="E22" t="s">
         <v>37</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>323</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>152</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
+        <v>421</v>
+      </c>
+      <c r="E23" t="s">
         <v>346</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>315</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>465</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
         <v>129</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>304</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>153</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
         <v>473</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>156</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>154</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
         <v>250</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>307</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>448</v>
-      </c>
-      <c r="D27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" t="s">
         <v>251</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>291</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>448</v>
+      </c>
+      <c r="E28" t="s">
+        <v>493</v>
+      </c>
+      <c r="G28" t="s">
+        <v>308</v>
+      </c>
+      <c r="X28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>252</v>
       </c>
-      <c r="D28" t="s">
-        <v>493</v>
-      </c>
-      <c r="F28" t="s">
-        <v>308</v>
-      </c>
-      <c r="W28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>494</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>309</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>444</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>241</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>159</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>300</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>38</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>310</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>39</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>285</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>160</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>355</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>161</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>333</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>162</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>286</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>40</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>334</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>155</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>292</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>158</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>237</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>314</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>324</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>325</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>368</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>367</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>236</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>326</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>364</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>393</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>327</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>381</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>356</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>293</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>317</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>318</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>319</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>328</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>338</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>362</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>335</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>336</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>394</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>395</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>370</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>339</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>294</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>378</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>340</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>435</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>329</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>436</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>287</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>369</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>305</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>311</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>316</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>454</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>357</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>295</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>306</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>312</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>301</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>296</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>313</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>297</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>298</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>330</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>337</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>331</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>365</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>302</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>303</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -49,7 +49,7 @@
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3655" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4160" uniqueCount="538">
   <si>
     <t>description</t>
   </si>
@@ -1665,6 +1665,21 @@
   </si>
   <si>
     <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1672,7 +1687,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="108" x14ac:knownFonts="1">
+  <fonts count="124" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2357,8 +2372,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3295,8 +3411,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="177">
+  <borders count="205">
     <border>
       <left/>
       <right/>
@@ -3395,6 +3664,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -5102,7 +5653,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="144">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5462,52 +6013,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="141" borderId="156" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="156" fillId="141" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="144" borderId="160" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="160" fillId="144" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="147" borderId="164" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="164" fillId="147" fontId="95" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="150" borderId="164" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="164" fillId="150" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="98" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="156" borderId="168" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="168" fillId="156" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="159" borderId="172" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="172" fillId="159" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="162" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="176" fillId="162" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="162" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="176" fillId="162" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="168" borderId="184" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="171" borderId="188" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="174" borderId="192" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="177" borderId="192" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="183" borderId="196" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="186" borderId="200" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="189" borderId="204" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="189" borderId="204" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6055,7 +6654,7 @@
         <v>458</v>
       </c>
       <c r="AC2" t="s">
-        <v>253</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3">
@@ -6138,7 +6737,7 @@
         <v>133</v>
       </c>
       <c r="AC3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4">
@@ -6218,7 +6817,7 @@
         <v>449</v>
       </c>
       <c r="AC4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5">
@@ -6286,7 +6885,7 @@
         <v>450</v>
       </c>
       <c r="AC5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6">
@@ -6345,7 +6944,7 @@
         <v>451</v>
       </c>
       <c r="AC6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7">
@@ -6401,7 +7000,7 @@
         <v>452</v>
       </c>
       <c r="AC7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8">
@@ -6454,7 +7053,7 @@
         <v>453</v>
       </c>
       <c r="AC8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9">
@@ -6498,7 +7097,7 @@
         <v>207</v>
       </c>
       <c r="AC9" t="s">
-        <v>499</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10">
@@ -6536,7 +7135,7 @@
         <v>208</v>
       </c>
       <c r="AC10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11">
@@ -6571,7 +7170,7 @@
         <v>284</v>
       </c>
       <c r="AC11" t="s">
-        <v>260</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12">
@@ -6606,7 +7205,7 @@
         <v>138</v>
       </c>
       <c r="AC12" t="s">
-        <v>261</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13">
@@ -6641,7 +7240,7 @@
         <v>139</v>
       </c>
       <c r="AC13" t="s">
-        <v>262</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14">
@@ -6675,6 +7274,9 @@
       <c r="AA14" t="s">
         <v>140</v>
       </c>
+      <c r="AC14" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -6704,6 +7306,9 @@
       <c r="AA15" t="s">
         <v>141</v>
       </c>
+      <c r="AC15" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -6730,6 +7335,9 @@
       <c r="AA16" t="s">
         <v>142</v>
       </c>
+      <c r="AC16" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -6750,6 +7358,9 @@
       <c r="AA17" t="s">
         <v>486</v>
       </c>
+      <c r="AC17" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -6766,6 +7377,9 @@
       </c>
       <c r="X18" t="s">
         <v>51</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="19">

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -44,12 +44,12 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4160" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4669" uniqueCount="542">
   <si>
     <t>description</t>
   </si>
@@ -1680,6 +1680,18 @@
   </si>
   <si>
     <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1687,7 +1699,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="124" x14ac:knownFonts="1">
+  <fonts count="140" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2473,8 +2485,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3564,8 +3677,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="205">
+  <borders count="233">
     <border>
       <left/>
       <right/>
@@ -3664,6 +3930,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -5653,7 +6201,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="160">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6061,52 +6609,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="168" borderId="184" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="184" fillId="168" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="171" borderId="188" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="188" fillId="171" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="174" borderId="192" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="192" fillId="174" fontId="111" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="177" borderId="192" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="192" fillId="177" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="114" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="183" borderId="196" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="196" fillId="183" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="186" borderId="200" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="200" fillId="186" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="189" borderId="204" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="204" fillId="189" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="189" borderId="204" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="204" fillId="189" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="195" borderId="212" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="198" borderId="216" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="201" borderId="220" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="204" borderId="220" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="210" borderId="224" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="213" borderId="228" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="216" borderId="232" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="216" borderId="232" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6468,7 +7064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7240,7 +7836,7 @@
         <v>139</v>
       </c>
       <c r="AC13" t="s">
-        <v>500</v>
+        <v>539</v>
       </c>
     </row>
     <row r="14">
@@ -7275,7 +7871,7 @@
         <v>140</v>
       </c>
       <c r="AC14" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15">
@@ -7307,7 +7903,7 @@
         <v>141</v>
       </c>
       <c r="AC15" t="s">
-        <v>537</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16">
@@ -7336,7 +7932,7 @@
         <v>142</v>
       </c>
       <c r="AC16" t="s">
-        <v>260</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17">
@@ -7359,7 +7955,7 @@
         <v>486</v>
       </c>
       <c r="AC17" t="s">
-        <v>261</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18">
@@ -7379,7 +7975,7 @@
         <v>51</v>
       </c>
       <c r="AC18" t="s">
-        <v>262</v>
+        <v>541</v>
       </c>
     </row>
     <row r="19">
@@ -7398,6 +7994,9 @@
       <c r="X19" t="s">
         <v>52</v>
       </c>
+      <c r="AC19" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -7415,6 +8014,9 @@
       <c r="X20" t="s">
         <v>53</v>
       </c>
+      <c r="AC20" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -7432,6 +8034,9 @@
       <c r="X21" t="s">
         <v>527</v>
       </c>
+      <c r="AC21" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -7981,7 +8586,7 @@
         <v>295</v>
       </c>
       <c r="X79" t="s">
-        <v>92</v>
+        <v>538</v>
       </c>
     </row>
     <row r="80">
@@ -7989,7 +8594,7 @@
         <v>306</v>
       </c>
       <c r="X80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81">
@@ -7997,7 +8602,7 @@
         <v>312</v>
       </c>
       <c r="X81" t="s">
-        <v>224</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82">
@@ -8005,7 +8610,7 @@
         <v>301</v>
       </c>
       <c r="X82" t="s">
-        <v>526</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83">
@@ -8013,7 +8618,7 @@
         <v>296</v>
       </c>
       <c r="X83" t="s">
-        <v>225</v>
+        <v>526</v>
       </c>
     </row>
     <row r="84">
@@ -8021,7 +8626,7 @@
         <v>313</v>
       </c>
       <c r="X84" t="s">
-        <v>478</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85">
@@ -8029,7 +8634,7 @@
         <v>297</v>
       </c>
       <c r="X85" t="s">
-        <v>226</v>
+        <v>478</v>
       </c>
     </row>
     <row r="86">
@@ -8037,7 +8642,7 @@
         <v>298</v>
       </c>
       <c r="X86" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87">
@@ -8045,7 +8650,7 @@
         <v>330</v>
       </c>
       <c r="X87" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88">
@@ -8053,7 +8658,7 @@
         <v>337</v>
       </c>
       <c r="X88" t="s">
-        <v>94</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89">
@@ -8061,7 +8666,7 @@
         <v>331</v>
       </c>
       <c r="X89" t="s">
-        <v>228</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90">
@@ -8069,7 +8674,7 @@
         <v>365</v>
       </c>
       <c r="X90" t="s">
-        <v>461</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91">
@@ -8077,7 +8682,7 @@
         <v>302</v>
       </c>
       <c r="X91" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="92">
@@ -8085,156 +8690,161 @@
         <v>303</v>
       </c>
       <c r="X92" t="s">
-        <v>229</v>
+        <v>462</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>408</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>96</v>
+        <v>408</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>469</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>109</v>
+        <v>469</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/number-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/number-showcase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10403"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{AFC1CB34-2035-E348-86F2-488CCED077F5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40"/>
+  <xr:revisionPtr documentId="13_ncr:1_{50C71C49-7A05-794B-8625-A29B9B6B7CEF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="31560" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="31560" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -20,6 +20,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
     <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
@@ -31,11 +32,12 @@
     <definedName name="io">'#system'!$K$2:$K$25</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
@@ -44,14 +46,12 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4669" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="542">
   <si>
     <t>description</t>
   </si>
@@ -230,9 +230,6 @@
     <t>assertIECompatMode()</t>
   </si>
   <si>
-    <t>assertIENavtiveMode()</t>
-  </si>
-  <si>
     <t>assertLinkByLabel(label)</t>
   </si>
   <si>
@@ -506,9 +503,6 @@
     <t>runJUnit(className)</t>
   </si>
   <si>
-    <t>runProgram(programPathAndParms)</t>
-  </si>
-  <si>
     <t>copyFiles(source,target)</t>
   </si>
   <si>
@@ -575,9 +569,6 @@
     <t>min(var,array)</t>
   </si>
   <si>
-    <t>round(var,closestDigit)</t>
-  </si>
-  <si>
     <t>numeric asserts</t>
   </si>
   <si>
@@ -1692,6 +1683,15 @@
   </si>
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
@@ -1699,7 +1699,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="140" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1879,715 +1879,8 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
   </fonts>
-  <fills count="220">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2759,1079 +2052,8 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="233">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -4213,1980 +2435,6 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6201,7 +2449,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="48">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6321,388 +2569,52 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="6" fontId="12" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="9" fontId="14" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="12" fontId="15" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="15" fontId="16" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="18" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="21" fontId="20" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="24" fontId="21" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="27" fontId="22" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="27" fontId="23" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="24" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="25" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="26" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="44" fillId="33" fontId="28" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="48" fillId="36" fontId="30" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="52" fillId="39" fontId="31" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="52" fillId="42" fontId="32" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="34" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="56" fillId="48" fontId="36" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="60" fillId="51" fontId="37" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="64" fillId="54" fontId="38" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="64" fillId="54" fontId="39" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="40" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="41" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="42" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="72" fillId="60" fontId="44" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="76" fillId="63" fontId="46" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="80" fillId="66" fontId="47" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="80" fillId="69" fontId="48" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="50" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="84" fillId="75" fontId="52" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="88" fillId="78" fontId="53" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="81" fontId="54" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="81" fontId="55" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="56" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="57" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="58" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="100" fillId="87" fontId="60" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="104" fillId="90" fontId="62" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="108" fillId="93" fontId="63" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="108" fillId="96" fontId="64" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="66" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="112" fillId="102" fontId="68" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="116" fillId="105" fontId="69" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="120" fillId="108" fontId="70" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="120" fillId="108" fontId="71" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="72" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="73" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="74" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="128" fillId="114" fontId="76" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="132" fillId="117" fontId="78" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="136" fillId="120" fontId="79" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="136" fillId="123" fontId="80" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="82" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="140" fillId="129" fontId="84" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="144" fillId="132" fontId="85" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="148" fillId="135" fontId="86" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="148" fillId="135" fontId="87" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="88" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="89" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="90" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="156" fillId="141" fontId="92" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="160" fillId="144" fontId="94" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="164" fillId="147" fontId="95" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="164" fillId="150" fontId="96" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="98" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="168" fillId="156" fontId="100" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="172" fillId="159" fontId="101" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="176" fillId="162" fontId="102" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="176" fillId="162" fontId="103" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="104" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="105" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="106" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="184" fillId="168" fontId="108" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="188" fillId="171" fontId="110" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="192" fillId="174" fontId="111" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="192" fillId="177" fontId="112" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="114" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="196" fillId="183" fontId="116" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="200" fillId="186" fontId="117" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="204" fillId="189" fontId="118" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="204" fillId="189" fontId="119" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="120" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="121" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="122" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="195" borderId="212" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="198" borderId="216" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="127" fillId="201" borderId="220" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="128" fillId="204" borderId="220" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="130" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="210" borderId="224" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="213" borderId="228" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="216" borderId="232" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="135" fillId="216" borderId="232" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7064,9 +2976,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
+    <sheetView w